--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4264426D-49CD-B349-98F0-9919BA6FD047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A765211-6D2C-704A-B23F-1A9890A1E617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="580" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="340" yWindow="560" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
   <si>
     <t>Points</t>
   </si>
@@ -179,6 +179,57 @@
   </si>
   <si>
     <t>Raghu</t>
+  </si>
+  <si>
+    <t>Vjvignesh94</t>
+  </si>
+  <si>
+    <t>Supriser Lee</t>
+  </si>
+  <si>
+    <t>Rag Nat</t>
+  </si>
+  <si>
+    <t>CSK vs DC</t>
+  </si>
+  <si>
+    <t>SRH vs KKR</t>
+  </si>
+  <si>
+    <t>RR vs PBKS</t>
+  </si>
+  <si>
+    <t>KKR vs MI</t>
+  </si>
+  <si>
+    <t>SRH vs RCB</t>
+  </si>
+  <si>
+    <t>RR vs DC</t>
+  </si>
+  <si>
+    <t>PBKS vs CSK</t>
+  </si>
+  <si>
+    <t>MI vs SRH</t>
+  </si>
+  <si>
+    <t>RCB vs KKR</t>
+  </si>
+  <si>
+    <t>DC vs PBKS</t>
+  </si>
+  <si>
+    <t>CSK vs RR</t>
+  </si>
+  <si>
+    <t>DC vs MI</t>
+  </si>
+  <si>
+    <t>PBKS vs SRH</t>
+  </si>
+  <si>
+    <t>KKR vs CSK</t>
   </si>
 </sst>
 </file>
@@ -438,11 +489,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -453,13 +511,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
@@ -1080,7 +1131,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
@@ -1090,24 +1141,24 @@
         <v>50</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
     </row>
     <row r="3" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -1117,22 +1168,22 @@
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
     </row>
     <row r="4" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
@@ -1142,22 +1193,22 @@
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
     </row>
     <row r="5" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
@@ -1167,22 +1218,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
     </row>
     <row r="6" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
@@ -1192,22 +1243,22 @@
         <v>-5</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
     </row>
     <row r="7" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
@@ -1217,22 +1268,22 @@
         <v>-10</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
     </row>
     <row r="8" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
@@ -1242,22 +1293,22 @@
         <v>-15</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
@@ -1278,42 +1329,42 @@
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="G11" s="24" t="s">
+      <c r="E11" s="22"/>
+      <c r="G11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="J11" s="24" t="s">
+      <c r="H11" s="21"/>
+      <c r="J11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="M11" s="24" t="s">
+      <c r="K11" s="21"/>
+      <c r="M11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="P11" s="24" t="s">
+      <c r="N11" s="21"/>
+      <c r="P11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="25"/>
-      <c r="S11" s="24" t="s">
+      <c r="Q11" s="21"/>
+      <c r="S11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="25"/>
-      <c r="V11" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="W11" s="25"/>
-      <c r="Y11" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z11" s="25"/>
-      <c r="AB11" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC11" s="25"/>
+      <c r="T11" s="21"/>
+      <c r="V11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11" s="21"/>
+      <c r="Y11" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z11" s="21"/>
+      <c r="AB11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC11" s="21"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -1392,66 +1443,66 @@
       </c>
       <c r="D13" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v>50</v>
+        <v>-25</v>
       </c>
       <c r="E13" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v>20</v>
+        <v>-15</v>
       </c>
       <c r="H13" s="1">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J13" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="K13" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M13" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="N13" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="P13" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="S13" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="T13" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="V13" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="W13" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="Y13" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="Z13" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AB13" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v>-25</v>
+        <v>-10</v>
       </c>
       <c r="AC13" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
@@ -1461,7 +1512,9 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D14" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -1515,7 +1568,9 @@
       <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D15" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -1569,7 +1624,9 @@
       <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D16" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -1623,7 +1680,9 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D17" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -1677,7 +1736,9 @@
       <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D18" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -1731,7 +1792,9 @@
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D19" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -1785,7 +1848,9 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D20" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -1839,7 +1904,9 @@
       <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="D21" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -1893,7 +1960,9 @@
       <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="D22" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -1947,7 +2016,9 @@
       <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="D23" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -2001,7 +2072,9 @@
       <c r="B24" s="4">
         <v>1</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="D24" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -2055,7 +2128,9 @@
       <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="D25" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -2109,7 +2184,9 @@
       <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="D26" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -2163,7 +2240,9 @@
       <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="D27" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -2312,63 +2391,63 @@
       </c>
       <c r="E30" s="12">
         <f>SUM(D13:D27)</f>
-        <v>50</v>
+        <v>-25</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="12">
         <f>SUM(G13:G27)</f>
-        <v>20</v>
+        <v>-15</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K30" s="12">
         <f>SUM(J13:J27)</f>
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N30" s="12">
         <f>SUM(M13:M27)</f>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q30" s="12">
         <f>SUM(P13:P27)</f>
-        <v>-5</v>
+        <v>20</v>
       </c>
       <c r="S30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T30" s="12">
         <f>SUM(S13:S27)</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W30" s="12">
         <f>SUM(V13:V27)</f>
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="Y30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z30" s="12">
         <f>SUM(Y13:Y27)</f>
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="AB30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC30" s="12">
         <f>SUM(AB13:AB27)</f>
-        <v>-25</v>
+        <v>-10</v>
       </c>
       <c r="AD30" s="1">
         <f>SUM(E30,H30,K30,N30,Q30,T30,W30,Z30,AC30)</f>
@@ -2399,16 +2478,16 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="10">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="I2:X8"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I2:X8"/>
   </mergeCells>
   <conditionalFormatting sqref="E30">
     <cfRule type="cellIs" dxfId="26" priority="55" operator="lessThan">
@@ -2555,7 +2634,7 @@
       </c>
     </row>
     <row r="18" spans="5:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="24" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -2563,25 +2642,25 @@
       </c>
     </row>
     <row r="19" spans="5:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="I19" s="21"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="5:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="I20" s="21"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="5:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="I21" s="21"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" spans="5:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="25" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="14" t="s">
@@ -2589,7 +2668,7 @@
       </c>
     </row>
     <row r="23" spans="5:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="23"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="14" t="s">
         <v>37</v>
       </c>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A765211-6D2C-704A-B23F-1A9890A1E617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEC41A3-CF39-5A43-A23F-7350F61652C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="560" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="860" yWindow="1660" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>Devilish 11</t>
   </si>
   <si>
-    <t>RENGAN25QR</t>
-  </si>
-  <si>
     <t>Sundar Night Fury</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>Supriser Lee</t>
   </si>
   <si>
-    <t>Rag Nat</t>
-  </si>
-  <si>
     <t>CSK vs DC</t>
   </si>
   <si>
@@ -230,6 +224,12 @@
   </si>
   <si>
     <t>KKR vs CSK</t>
+  </si>
+  <si>
+    <t>CheemsRajah</t>
+  </si>
+  <si>
+    <t>Rag Nat0112</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="I2" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
@@ -1342,27 +1342,27 @@
       </c>
       <c r="K11" s="21"/>
       <c r="M11" s="20" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="N11" s="21"/>
       <c r="P11" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="21"/>
       <c r="S11" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T11" s="21"/>
       <c r="V11" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W11" s="21"/>
       <c r="Y11" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z11" s="21"/>
       <c r="AB11" s="20" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AC11" s="21"/>
     </row>
@@ -1413,19 +1413,19 @@
         <v>0</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1513,53 +1513,71 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="G14" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50</v>
+      </c>
+      <c r="G14" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="J14" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20</v>
+      </c>
+      <c r="J14" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="M14" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="K14" s="1">
+        <v>40</v>
+      </c>
+      <c r="M14" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N14" s="1"/>
-      <c r="P14" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>60</v>
+      </c>
+      <c r="P14" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q14" s="1"/>
-      <c r="S14" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T14" s="1"/>
-      <c r="V14" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="T14" s="1">
+        <v>70</v>
+      </c>
+      <c r="V14" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W14" s="1"/>
-      <c r="Y14" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="W14" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z14" s="1"/>
-      <c r="AB14" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB14" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC14" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1569,53 +1587,71 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3" t="str">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="G15" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>80</v>
+      </c>
+      <c r="G15" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="J15" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>40</v>
+      </c>
+      <c r="J15" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="M15" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>70</v>
+      </c>
+      <c r="M15" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="P15" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="N15" s="1">
+        <v>20</v>
+      </c>
+      <c r="P15" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q15" s="1"/>
-      <c r="S15" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T15" s="1"/>
-      <c r="V15" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W15" s="1"/>
-      <c r="Y15" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="W15" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y15" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z15" s="1"/>
-      <c r="AB15" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB15" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC15" s="1"/>
+        <v>-15</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1625,53 +1661,71 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="3" t="str">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="G16" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="E16" s="1">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="J16" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+      <c r="J16" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="M16" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="P16" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1">
+        <v>70</v>
+      </c>
+      <c r="P16" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q16" s="1"/>
-      <c r="S16" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>60</v>
+      </c>
+      <c r="S16" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="V16" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="T16" s="1">
+        <v>100</v>
+      </c>
+      <c r="V16" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W16" s="1"/>
-      <c r="Y16" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="W16" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y16" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z16" s="1"/>
-      <c r="AB16" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>80</v>
+      </c>
+      <c r="AB16" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC16" s="1"/>
+        <v>-10</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1681,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1737,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1793,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1849,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1905,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1961,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2017,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2073,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2129,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2185,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2241,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2398,56 +2452,56 @@
       </c>
       <c r="H30" s="12">
         <f>SUM(G13:G27)</f>
-        <v>-15</v>
+        <v>-65</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K30" s="12">
         <f>SUM(J13:J27)</f>
-        <v>-5</v>
+        <v>-35</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N30" s="12">
         <f>SUM(M13:M27)</f>
-        <v>-20</v>
+        <v>-35</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q30" s="12">
         <f>SUM(P13:P27)</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="S30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T30" s="12">
         <f>SUM(S13:S27)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W30" s="12">
         <f>SUM(V13:V27)</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="Y30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z30" s="12">
         <f>SUM(Y13:Y27)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC30" s="12">
         <f>SUM(AB13:AB27)</f>
-        <v>-10</v>
+        <v>-15</v>
       </c>
       <c r="AD30" s="1">
         <f>SUM(E30,H30,K30,N30,Q30,T30,W30,Z30,AC30)</f>
@@ -2611,85 +2665,85 @@
   <sheetData>
     <row r="15" spans="9:10" ht="24" x14ac:dyDescent="0.3">
       <c r="I15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="9:10" ht="24" x14ac:dyDescent="0.3">
       <c r="I16" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="5:10" ht="24" x14ac:dyDescent="0.3">
       <c r="I17" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="5:10" ht="21" x14ac:dyDescent="0.25">
       <c r="I18" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="5:10" ht="21" x14ac:dyDescent="0.25">
       <c r="I19" s="24"/>
       <c r="J19" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="5:10" ht="21" x14ac:dyDescent="0.25">
       <c r="I20" s="24"/>
       <c r="J20" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="5:10" ht="21" x14ac:dyDescent="0.25">
       <c r="I21" s="24"/>
       <c r="J21" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="5:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I22" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="5:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I23" s="26"/>
       <c r="J23" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="5:10" ht="24" x14ac:dyDescent="0.3">
       <c r="I24" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.2">
@@ -2697,7 +2751,7 @@
         <v>8</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>8</v>
@@ -2708,7 +2762,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>10</v>
@@ -2730,7 +2784,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>12</v>
@@ -2749,13 +2803,13 @@
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E35" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.2">
@@ -2815,13 +2869,13 @@
     </row>
     <row r="43" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E43" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="44" spans="5:7" x14ac:dyDescent="0.2">
@@ -2881,13 +2935,13 @@
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E51" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.2">

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEC41A3-CF39-5A43-A23F-7350F61652C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB24AC58-D6D2-F740-8032-10D75C3DDF8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1660" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="840" yWindow="1660" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,13 +490,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1329,42 +1329,42 @@
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="G11" s="20" t="s">
+      <c r="E11" s="20"/>
+      <c r="G11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="J11" s="20" t="s">
+      <c r="H11" s="22"/>
+      <c r="J11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="M11" s="20" t="s">
+      <c r="K11" s="22"/>
+      <c r="M11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="P11" s="20" t="s">
+      <c r="N11" s="22"/>
+      <c r="P11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="21"/>
-      <c r="S11" s="20" t="s">
+      <c r="Q11" s="22"/>
+      <c r="S11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T11" s="21"/>
-      <c r="V11" s="20" t="s">
+      <c r="T11" s="22"/>
+      <c r="V11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="W11" s="21"/>
-      <c r="Y11" s="20" t="s">
+      <c r="W11" s="22"/>
+      <c r="Y11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="21"/>
-      <c r="AB11" s="20" t="s">
+      <c r="Z11" s="22"/>
+      <c r="AB11" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AC11" s="21"/>
+      <c r="AC11" s="22"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -1737,51 +1737,69 @@
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="3" t="str">
+      <c r="D17" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="G17" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="J17" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="H17" s="1">
+        <v>20</v>
+      </c>
+      <c r="J17" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K17" s="1"/>
-      <c r="M17" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="K17" s="1">
+        <v>80</v>
+      </c>
+      <c r="M17" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="P17" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q17" s="1"/>
-      <c r="S17" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>30</v>
+      </c>
+      <c r="S17" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="V17" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="T17" s="1">
+        <v>70</v>
+      </c>
+      <c r="V17" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W17" s="1"/>
-      <c r="Y17" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="W17" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z17" s="1"/>
-      <c r="AB17" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB17" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC17" s="1"/>
+        <v>-10</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1793,51 +1811,69 @@
       <c r="C18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="3" t="str">
+      <c r="D18" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="G18" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>70</v>
+      </c>
+      <c r="G18" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="J18" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="H18" s="1">
+        <v>40</v>
+      </c>
+      <c r="J18" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="M18" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1">
+        <v>80</v>
+      </c>
+      <c r="M18" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="P18" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="N18" s="1">
+        <v>20</v>
+      </c>
+      <c r="P18" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q18" s="1"/>
-      <c r="S18" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T18" s="1"/>
-      <c r="V18" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="T18" s="1">
+        <v>30</v>
+      </c>
+      <c r="V18" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W18" s="1"/>
-      <c r="Y18" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y18" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z18" s="1"/>
-      <c r="AB18" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB18" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC18" s="1"/>
+        <v>-25</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -2445,63 +2481,63 @@
       </c>
       <c r="E30" s="12">
         <f>SUM(D13:D27)</f>
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="12">
         <f>SUM(G13:G27)</f>
-        <v>-65</v>
+        <v>-95</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K30" s="12">
         <f>SUM(J13:J27)</f>
-        <v>-35</v>
+        <v>5</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N30" s="12">
         <f>SUM(M13:M27)</f>
-        <v>-35</v>
+        <v>-80</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q30" s="12">
         <f>SUM(P13:P27)</f>
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="S30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T30" s="12">
         <f>SUM(S13:S27)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W30" s="12">
         <f>SUM(V13:V27)</f>
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="Y30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z30" s="12">
         <f>SUM(Y13:Y27)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AB30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC30" s="12">
         <f>SUM(AB13:AB27)</f>
-        <v>-15</v>
+        <v>-50</v>
       </c>
       <c r="AD30" s="1">
         <f>SUM(E30,H30,K30,N30,Q30,T30,W30,Z30,AC30)</f>
@@ -2532,6 +2568,8 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="10">
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="J11:K11"/>
@@ -2540,8 +2578,6 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="V11:W11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AB11:AC11"/>
   </mergeCells>
   <conditionalFormatting sqref="E30">
     <cfRule type="cellIs" dxfId="26" priority="55" operator="lessThan">

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB24AC58-D6D2-F740-8032-10D75C3DDF8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5958ADAE-412E-5847-99D0-509BC83B3D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="1660" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5958ADAE-412E-5847-99D0-509BC83B3D75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B0104F-24F8-CB47-8A81-32D40D4348F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1660" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="640" yWindow="2360" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1885,51 +1885,69 @@
       <c r="C19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="3" t="str">
+      <c r="D19" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="G19" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="E19" s="1">
+        <v>30</v>
+      </c>
+      <c r="G19" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="J19" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="H19" s="1">
+        <v>20</v>
+      </c>
+      <c r="J19" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="M19" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>50</v>
+      </c>
+      <c r="M19" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="P19" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="N19" s="1">
+        <v>80</v>
+      </c>
+      <c r="P19" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q19" s="1"/>
-      <c r="S19" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>100</v>
+      </c>
+      <c r="S19" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T19" s="1"/>
-      <c r="V19" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W19" s="1"/>
-      <c r="Y19" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="W19" s="1">
+        <v>70</v>
+      </c>
+      <c r="Y19" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z19" s="1"/>
-      <c r="AB19" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB19" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC19" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -2481,56 +2499,56 @@
       </c>
       <c r="E30" s="12">
         <f>SUM(D13:D27)</f>
-        <v>-20</v>
+        <v>-35</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="12">
         <f>SUM(G13:G27)</f>
-        <v>-95</v>
+        <v>-115</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K30" s="12">
         <f>SUM(J13:J27)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N30" s="12">
         <f>SUM(M13:M27)</f>
-        <v>-80</v>
+        <v>-60</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q30" s="12">
         <f>SUM(P13:P27)</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="S30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T30" s="12">
         <f>SUM(S13:S27)</f>
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W30" s="12">
         <f>SUM(V13:V27)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Y30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z30" s="12">
         <f>SUM(Y13:Y27)</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AB30" s="7" t="s">
         <v>7</v>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B0104F-24F8-CB47-8A81-32D40D4348F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B776FD41-345E-704D-8575-EA444254FB60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="2360" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="640" yWindow="2340" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1959,51 +1959,69 @@
       <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="3" t="str">
+      <c r="D20" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="G20" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="E20" s="1">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="J20" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1">
+        <v>80</v>
+      </c>
+      <c r="J20" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="M20" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N20" s="1"/>
-      <c r="P20" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="N20" s="1">
+        <v>20</v>
+      </c>
+      <c r="P20" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q20" s="1"/>
-      <c r="S20" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>60</v>
+      </c>
+      <c r="S20" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T20" s="1"/>
-      <c r="V20" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="T20" s="1">
+        <v>30</v>
+      </c>
+      <c r="V20" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W20" s="1"/>
-      <c r="Y20" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="W20" s="1">
+        <v>70</v>
+      </c>
+      <c r="Y20" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z20" s="1"/>
-      <c r="AB20" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC20" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -2499,28 +2517,28 @@
       </c>
       <c r="E30" s="12">
         <f>SUM(D13:D27)</f>
-        <v>-35</v>
+        <v>-45</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="12">
         <f>SUM(G13:G27)</f>
-        <v>-115</v>
+        <v>-95</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K30" s="12">
         <f>SUM(J13:J27)</f>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N30" s="12">
         <f>SUM(M13:M27)</f>
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>7</v>
@@ -2534,28 +2552,28 @@
       </c>
       <c r="T30" s="12">
         <f>SUM(S13:S27)</f>
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W30" s="12">
         <f>SUM(V13:V27)</f>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Y30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z30" s="12">
         <f>SUM(Y13:Y27)</f>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="AB30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC30" s="12">
         <f>SUM(AB13:AB27)</f>
-        <v>-50</v>
+        <v>-55</v>
       </c>
       <c r="AD30" s="1">
         <f>SUM(E30,H30,K30,N30,Q30,T30,W30,Z30,AC30)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B776FD41-345E-704D-8575-EA444254FB60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42F9257-1686-D94C-83B6-42CB5F16BBDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="2340" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2000" yWindow="3960" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2033,51 +2033,69 @@
       <c r="C21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="3" t="str">
+      <c r="D21" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="G21" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="E21" s="4">
+        <v>30</v>
+      </c>
+      <c r="G21" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="J21" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="H21" s="4">
+        <v>80</v>
+      </c>
+      <c r="J21" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="M21" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="K21" s="4">
+        <v>40</v>
+      </c>
+      <c r="M21" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="P21" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="N21" s="4">
+        <v>20</v>
+      </c>
+      <c r="P21" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q21" s="4"/>
-      <c r="S21" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>50</v>
+      </c>
+      <c r="S21" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T21" s="4"/>
-      <c r="V21" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W21" s="4"/>
-      <c r="Y21" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="W21" s="4">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z21" s="4"/>
-      <c r="AB21" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>70</v>
+      </c>
+      <c r="AB21" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC21" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -2089,51 +2107,69 @@
       <c r="C22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="3" t="str">
+      <c r="D22" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="G22" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="E22" s="4">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="J22" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="M22" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="K22" s="4">
+        <v>70</v>
+      </c>
+      <c r="M22" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="P22" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="N22" s="4">
+        <v>30</v>
+      </c>
+      <c r="P22" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q22" s="4"/>
-      <c r="S22" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>50</v>
+      </c>
+      <c r="S22" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T22" s="4"/>
-      <c r="V22" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="T22" s="4">
+        <v>20</v>
+      </c>
+      <c r="V22" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W22" s="4"/>
-      <c r="Y22" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4">
+        <v>60</v>
+      </c>
+      <c r="Y22" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z22" s="4"/>
-      <c r="AB22" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>40</v>
+      </c>
+      <c r="AB22" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC22" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -2145,51 +2181,69 @@
       <c r="C23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="3" t="str">
+      <c r="D23" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="G23" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4">
+        <v>80</v>
+      </c>
+      <c r="G23" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="J23" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="M23" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="K23" s="4">
+        <v>20</v>
+      </c>
+      <c r="M23" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="P23" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="N23" s="4">
+        <v>70</v>
+      </c>
+      <c r="P23" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q23" s="4"/>
-      <c r="S23" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>30</v>
+      </c>
+      <c r="S23" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T23" s="4"/>
-      <c r="V23" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="T23" s="4">
+        <v>60</v>
+      </c>
+      <c r="V23" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W23" s="4"/>
-      <c r="Y23" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="W23" s="4">
+        <v>40</v>
+      </c>
+      <c r="Y23" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z23" s="4"/>
-      <c r="AB23" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC23" s="4"/>
+        <v>-5</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -2517,63 +2571,63 @@
       </c>
       <c r="E30" s="12">
         <f>SUM(D13:D27)</f>
-        <v>-45</v>
+        <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="12">
         <f>SUM(G13:G27)</f>
-        <v>-95</v>
+        <v>-125</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K30" s="12">
         <f>SUM(J13:J27)</f>
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N30" s="12">
         <f>SUM(M13:M27)</f>
-        <v>-80</v>
+        <v>-110</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q30" s="12">
         <f>SUM(P13:P27)</f>
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="S30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T30" s="12">
         <f>SUM(S13:S27)</f>
-        <v>-20</v>
+        <v>-65</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W30" s="12">
         <f>SUM(V13:V27)</f>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="Y30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z30" s="12">
         <f>SUM(Y13:Y27)</f>
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AB30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC30" s="12">
         <f>SUM(AB13:AB27)</f>
-        <v>-55</v>
+        <v>-40</v>
       </c>
       <c r="AD30" s="1">
         <f>SUM(E30,H30,K30,N30,Q30,T30,W30,Z30,AC30)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42F9257-1686-D94C-83B6-42CB5F16BBDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AB5FEE-235D-7140-AF38-EAD4CD262F9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="3960" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2480" yWindow="3160" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2255,51 +2255,67 @@
       <c r="C24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(E24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="G24" s="3" t="str">
+      <c r="D24" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="E24" s="4">
+        <v>80</v>
+      </c>
+      <c r="G24" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="J24" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="M24" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>60</v>
+      </c>
+      <c r="M24" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N24" s="4"/>
-      <c r="P24" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q24" s="4"/>
-      <c r="S24" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="N24" s="4">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>80</v>
+      </c>
+      <c r="S24" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T24" s="4"/>
-      <c r="V24" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="T24" s="4">
+        <v>40</v>
+      </c>
+      <c r="V24" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W24" s="4"/>
-      <c r="Y24" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="W24" s="4">
+        <v>30</v>
+      </c>
+      <c r="Y24" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z24" s="4"/>
-      <c r="AB24" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>50</v>
+      </c>
+      <c r="AB24" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC24, ($AC24,$Z24,$W24,$T24,$Q24,$N24,$K24,$H24,$E24), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC24" s="4"/>
+        <v>-20</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -2571,14 +2587,14 @@
       </c>
       <c r="E30" s="12">
         <f>SUM(D13:D27)</f>
-        <v>10</v>
+        <v>22.5</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H30" s="12">
         <f>SUM(G13:G27)</f>
-        <v>-125</v>
+        <v>-150</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>7</v>
@@ -2592,42 +2608,42 @@
       </c>
       <c r="N30" s="12">
         <f>SUM(M13:M27)</f>
-        <v>-110</v>
+        <v>-60</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q30" s="12">
         <f>SUM(P13:P27)</f>
-        <v>105</v>
+        <v>117.5</v>
       </c>
       <c r="S30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T30" s="12">
         <f>SUM(S13:S27)</f>
-        <v>-65</v>
+        <v>-75</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W30" s="12">
         <f>SUM(V13:V27)</f>
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="Y30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z30" s="12">
         <f>SUM(Y13:Y27)</f>
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AB30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC30" s="12">
         <f>SUM(AB13:AB27)</f>
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="AD30" s="1">
         <f>SUM(E30,H30,K30,N30,Q30,T30,W30,Z30,AC30)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AB5FEE-235D-7140-AF38-EAD4CD262F9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD053E2E-CE7A-E641-AADD-79C0CE2A9F82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="3160" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2700" yWindow="2740" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="81">
   <si>
     <t>Points</t>
   </si>
@@ -230,6 +230,51 @@
   </si>
   <si>
     <t>Rag Nat0112</t>
+  </si>
+  <si>
+    <t>RCB vs RR</t>
+  </si>
+  <si>
+    <t>PBKS vs MI</t>
+  </si>
+  <si>
+    <t>RR vs KKR</t>
+  </si>
+  <si>
+    <t>CSK vs RCB</t>
+  </si>
+  <si>
+    <t>SRH vs DC</t>
+  </si>
+  <si>
+    <t>PBKS vs KKR</t>
+  </si>
+  <si>
+    <t>DC vs RCB</t>
+  </si>
+  <si>
+    <t>CSK vs SRH</t>
+  </si>
+  <si>
+    <t>MI vs RR</t>
+  </si>
+  <si>
+    <t>DC vs KKR</t>
+  </si>
+  <si>
+    <t>PBKS vs RCB</t>
+  </si>
+  <si>
+    <t>MI vs CSK</t>
+  </si>
+  <si>
+    <t>RR vs SRH</t>
+  </si>
+  <si>
+    <t>PBKS vs DC</t>
+  </si>
+  <si>
+    <t>KKR vs RCB</t>
   </si>
 </sst>
 </file>
@@ -463,7 +508,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -511,6 +556,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
@@ -1104,11 +1150,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BE9CB7-B9A7-B347-86F0-C3EB9B5BFBBD}">
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AD48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD30" sqref="AD30"/>
+      <pane ySplit="11" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD45" sqref="AD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1727,7 +1773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -1801,7 +1847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -1875,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>7</v>
       </c>
@@ -1949,7 +1995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -2023,7 +2069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>9</v>
       </c>
@@ -2097,7 +2143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -2171,7 +2217,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>11</v>
       </c>
@@ -2245,7 +2291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>12</v>
       </c>
@@ -2317,7 +2363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>13</v>
       </c>
@@ -2327,53 +2373,71 @@
       <c r="C25" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="3" t="str">
+      <c r="D25" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="G25" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="E25" s="4">
+        <v>50</v>
+      </c>
+      <c r="G25" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="J25" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>60</v>
+      </c>
+      <c r="J25" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K25" s="4"/>
-      <c r="M25" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="K25" s="4">
+        <v>100</v>
+      </c>
+      <c r="M25" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N25" s="4"/>
-      <c r="P25" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q25" s="4"/>
-      <c r="S25" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>30</v>
+      </c>
+      <c r="S25" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T25" s="4"/>
-      <c r="V25" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="T25" s="4">
+        <v>80</v>
+      </c>
+      <c r="V25" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W25" s="4"/>
-      <c r="Y25" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="W25" s="4">
+        <v>70</v>
+      </c>
+      <c r="Y25" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z25" s="4"/>
-      <c r="AB25" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC25" s="4"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+        <v>-10</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>14</v>
       </c>
@@ -2383,53 +2447,71 @@
       <c r="C26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="3" t="str">
+      <c r="D26" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="G26" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="E26" s="4">
+        <v>20</v>
+      </c>
+      <c r="G26" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="J26" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>70</v>
+      </c>
+      <c r="J26" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K26" s="4"/>
-      <c r="M26" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="K26" s="4">
+        <v>50</v>
+      </c>
+      <c r="M26" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N26" s="4"/>
-      <c r="P26" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q26" s="4"/>
-      <c r="S26" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T26" s="4"/>
-      <c r="V26" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="T26" s="4">
+        <v>30</v>
+      </c>
+      <c r="V26" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W26" s="4"/>
-      <c r="Y26" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="W26" s="4">
+        <v>80</v>
+      </c>
+      <c r="Y26" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z26" s="4"/>
-      <c r="AB26" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>40</v>
+      </c>
+      <c r="AB26" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC26" s="4"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>15</v>
       </c>
@@ -2439,237 +2521,1095 @@
       <c r="C27" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="3" t="str">
+      <c r="D27" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="G27" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="E27" s="4">
+        <v>40</v>
+      </c>
+      <c r="G27" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="J27" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="H27" s="4">
+        <v>80</v>
+      </c>
+      <c r="J27" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K27" s="4"/>
-      <c r="M27" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="K27" s="4">
+        <v>30</v>
+      </c>
+      <c r="M27" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="P27" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q27, ($T27,$Q27,$N27,$K27,$H27,$E27), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q27, ($T27,$Q27,$N27,$K27,$H27,$E27), 0),  score, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q27" s="4"/>
-      <c r="S27" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T27" s="4"/>
-      <c r="V27" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="T27" s="4">
+        <v>20</v>
+      </c>
+      <c r="V27" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W27" s="4"/>
-      <c r="Y27" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>60</v>
+      </c>
+      <c r="Y27" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z27" s="4"/>
-      <c r="AB27" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>70</v>
+      </c>
+      <c r="AB27" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC27" s="4"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="1" t="s">
+        <v>-5</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="G28" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="J28" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="M28" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="P28" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q28, ($T28,$Q28,$N28,$K28,$H28,$E28), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q28, ($T28,$Q28,$N28,$K28,$H28,$E28), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="S28" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="V28" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W28" s="1"/>
+      <c r="Y28" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z28" s="1"/>
+      <c r="AB28" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC28" s="1"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="G29" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="J29" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="M29" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="P29" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q29, ($T29,$Q29,$N29,$K29,$H29,$E29), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q29, ($T29,$Q29,$N29,$K29,$H29,$E29), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="S29" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="V29" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W29" s="1"/>
+      <c r="Y29" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z29" s="1"/>
+      <c r="AB29" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC29" s="1"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="G30" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="J30" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="M30" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="P30" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q30, ($T30,$Q30,$N30,$K30,$H30,$E30), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q30, ($T30,$Q30,$N30,$K30,$H30,$E30), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="S30" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="V30" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="Y30" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z30" s="1"/>
+      <c r="AB30" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC30" s="1"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="G31" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="J31" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="M31" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="P31" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q31, ($T31,$Q31,$N31,$K31,$H31,$E31), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q31, ($T31,$Q31,$N31,$K31,$H31,$E31), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="S31" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="V31" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W31" s="1"/>
+      <c r="Y31" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z31" s="1"/>
+      <c r="AB31" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC31" s="1"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="G32" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="J32" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="M32" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="P32" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q32, ($T32,$Q32,$N32,$K32,$H32,$E32), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q32, ($T32,$Q32,$N32,$K32,$H32,$E32), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="S32" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="V32" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W32" s="1"/>
+      <c r="Y32" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z32" s="1"/>
+      <c r="AB32" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="G33" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="J33" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="M33" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="P33" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q33, ($T33,$Q33,$N33,$K33,$H33,$E33), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q33, ($T33,$Q33,$N33,$K33,$H33,$E33), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="S33" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="V33" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="Y33" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z33" s="1"/>
+      <c r="AB33" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC33" s="1"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="G34" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="J34" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="M34" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="P34" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q34, ($T34,$Q34,$N34,$K34,$H34,$E34), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q34, ($T34,$Q34,$N34,$K34,$H34,$E34), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="S34" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="V34" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W34" s="1"/>
+      <c r="Y34" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z34" s="1"/>
+      <c r="AB34" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC34" s="1"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="G35" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="J35" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="M35" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="P35" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q35, ($T35,$Q35,$N35,$K35,$H35,$E35), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q35, ($T35,$Q35,$N35,$K35,$H35,$E35), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="S35" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="V35" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W35" s="1"/>
+      <c r="Y35" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z35" s="1"/>
+      <c r="AB35" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC35" s="1"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="G36" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="J36" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="M36" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="P36" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q36, ($T36,$Q36,$N36,$K36,$H36,$E36), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q36, ($T36,$Q36,$N36,$K36,$H36,$E36), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="S36" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="V36" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W36" s="1"/>
+      <c r="Y36" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z36" s="1"/>
+      <c r="AB36" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC36" s="1"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="G37" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="J37" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="M37" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="P37" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q37, ($T37,$Q37,$N37,$K37,$H37,$E37), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q37, ($T37,$Q37,$N37,$K37,$H37,$E37), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="S37" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="V37" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W37" s="1"/>
+      <c r="Y37" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z37" s="1"/>
+      <c r="AB37" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC37" s="1"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>26</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="G38" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="J38" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="M38" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="P38" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q38, ($T38,$Q38,$N38,$K38,$H38,$E38), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q38, ($T38,$Q38,$N38,$K38,$H38,$E38), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="S38" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="V38" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W38" s="1"/>
+      <c r="Y38" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z38" s="1"/>
+      <c r="AB38" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC38" s="1"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>27</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="G39" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="J39" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="M39" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="P39" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q39, ($T39,$Q39,$N39,$K39,$H39,$E39), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q39, ($T39,$Q39,$N39,$K39,$H39,$E39), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="S39" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="V39" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W39" s="1"/>
+      <c r="Y39" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z39" s="1"/>
+      <c r="AB39" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC39" s="1"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>28</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="G40" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="J40" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="M40" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="P40" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q40, ($T40,$Q40,$N40,$K40,$H40,$E40), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q40, ($T40,$Q40,$N40,$K40,$H40,$E40), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="S40" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="V40" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W40" s="1"/>
+      <c r="Y40" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z40" s="1"/>
+      <c r="AB40" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC40" s="1"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="G41" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="J41" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="M41" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="P41" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q41, ($T41,$Q41,$N41,$K41,$H41,$E41), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q41, ($T41,$Q41,$N41,$K41,$H41,$E41), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="S41" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="V41" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W41" s="1"/>
+      <c r="Y41" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z41" s="1"/>
+      <c r="AB41" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC41" s="1"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>30</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="G42" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="J42" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="M42" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="P42" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q42, ($T42,$Q42,$N42,$K42,$H42,$E42), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q42, ($T42,$Q42,$N42,$K42,$H42,$E42), 0),  score, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="S42" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="V42" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W42" s="1"/>
+      <c r="Y42" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z42" s="1"/>
+      <c r="AB42" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC42" s="1"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="9" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="9" t="s">
+      <c r="G43" s="1"/>
+      <c r="H43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="9" t="s">
+      <c r="J43" s="1"/>
+      <c r="K43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="9" t="s">
+      <c r="M43" s="1"/>
+      <c r="N43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="9" t="s">
+      <c r="P43" s="1"/>
+      <c r="Q43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S28" s="1"/>
-      <c r="T28" s="9" t="s">
+      <c r="S43" s="1"/>
+      <c r="T43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="9" t="s">
+      <c r="V43" s="1"/>
+      <c r="W43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="9" t="s">
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="9" t="s">
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="11" t="str">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="11" t="str">
         <f>D12</f>
         <v>Jaya</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="11" t="str">
+      <c r="G44" s="1"/>
+      <c r="H44" s="11" t="str">
         <f>G12</f>
         <v>Justin</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="11" t="str">
+      <c r="J44" s="1"/>
+      <c r="K44" s="11" t="str">
         <f>J12</f>
         <v>Ram</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="11" t="str">
+      <c r="M44" s="1"/>
+      <c r="N44" s="11" t="str">
         <f>M12</f>
         <v>Sibi</v>
       </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="11" t="str">
+      <c r="P44" s="1"/>
+      <c r="Q44" s="11" t="str">
         <f>P12</f>
         <v>Sundar</v>
       </c>
-      <c r="S29" s="1"/>
-      <c r="T29" s="11" t="str">
+      <c r="S44" s="1"/>
+      <c r="T44" s="11" t="str">
         <f>S12</f>
         <v>Balaji</v>
       </c>
-      <c r="V29" s="1"/>
-      <c r="W29" s="11" t="str">
+      <c r="V44" s="1"/>
+      <c r="W44" s="11" t="str">
         <f>V12</f>
         <v>Upili</v>
       </c>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="11" t="str">
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="11" t="str">
         <f>Y12</f>
         <v>Vicky</v>
       </c>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="11" t="str">
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="11" t="str">
         <f>AB12</f>
         <v>Raghu</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7" t="s">
+    <row r="45" spans="1:30" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E45" s="12">
         <f>SUM(D13:D27)</f>
-        <v>22.5</v>
-      </c>
-      <c r="G30" s="7" t="s">
+        <v>-12.5</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H45" s="12">
         <f>SUM(G13:G27)</f>
-        <v>-150</v>
-      </c>
-      <c r="J30" s="7" t="s">
+        <v>-125</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K45" s="12">
         <f>SUM(J13:J27)</f>
-        <v>-50</v>
-      </c>
-      <c r="M30" s="7" t="s">
+        <v>-20</v>
+      </c>
+      <c r="M45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N45" s="12">
         <f>SUM(M13:M27)</f>
-        <v>-60</v>
-      </c>
-      <c r="P30" s="7" t="s">
+        <v>-135</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="Q45" s="12">
         <f>SUM(P13:P27)</f>
-        <v>117.5</v>
-      </c>
-      <c r="S30" s="7" t="s">
+        <v>202.5</v>
+      </c>
+      <c r="S45" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="T30" s="12">
+      <c r="T45" s="12">
         <f>SUM(S13:S27)</f>
+        <v>-90</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W45" s="12">
+        <f>SUM(V13:V27)</f>
+        <v>155</v>
+      </c>
+      <c r="Y45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z45" s="12">
+        <f>SUM(Y13:Y27)</f>
+        <v>100</v>
+      </c>
+      <c r="AB45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC45" s="12">
+        <f>SUM(AB13:AB27)</f>
         <v>-75</v>
       </c>
-      <c r="V30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W30" s="12">
-        <f>SUM(V13:V27)</f>
-        <v>130</v>
-      </c>
-      <c r="Y30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z30" s="12">
-        <f>SUM(Y13:Y27)</f>
-        <v>125</v>
-      </c>
-      <c r="AB30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC30" s="12">
-        <f>SUM(AB13:AB27)</f>
-        <v>-60</v>
-      </c>
-      <c r="AD30" s="1">
-        <f>SUM(E30,H30,K30,N30,Q30,T30,W30,Z30,AC30)</f>
+      <c r="AD45" s="1">
+        <f>SUM(E45,H45,K45,N45,Q45,T45,W45,Z45,AC45)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -2685,7 +3625,7 @@
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="V11:W11"/>
   </mergeCells>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E45">
     <cfRule type="cellIs" dxfId="26" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2696,7 +3636,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H45">
     <cfRule type="cellIs" dxfId="23" priority="37" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2707,7 +3647,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
+  <conditionalFormatting sqref="K45">
     <cfRule type="cellIs" dxfId="20" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2718,7 +3658,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N30">
+  <conditionalFormatting sqref="N45">
     <cfRule type="cellIs" dxfId="17" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2729,7 +3669,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
+  <conditionalFormatting sqref="Q45">
     <cfRule type="cellIs" dxfId="14" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2740,7 +3680,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T30">
+  <conditionalFormatting sqref="T45">
     <cfRule type="cellIs" dxfId="11" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2751,7 +3691,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W30">
+  <conditionalFormatting sqref="W45">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2762,7 +3702,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z30">
+  <conditionalFormatting sqref="Z45">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2773,7 +3713,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC30">
+  <conditionalFormatting sqref="AC45">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD053E2E-CE7A-E641-AADD-79C0CE2A9F82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A7974B-EAE3-A543-A6C6-CDBB1957CE84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2740" windowWidth="32080" windowHeight="16020" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2700" yWindow="2720" windowWidth="31960" windowHeight="16800" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,277 @@
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2595,51 +2865,69 @@
       <c r="C28" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="3" t="str">
+      <c r="D28" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="G28" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="J28" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1">
+        <v>70</v>
+      </c>
+      <c r="J28" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="M28" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="K28" s="1">
+        <v>50</v>
+      </c>
+      <c r="M28" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="P28" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q28, ($T28,$Q28,$N28,$K28,$H28,$E28), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q28, ($T28,$Q28,$N28,$K28,$H28,$E28), 0),  score, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q28" s="1"/>
-      <c r="S28" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="N28" s="1">
+        <v>80</v>
+      </c>
+      <c r="P28" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-10</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>40</v>
+      </c>
+      <c r="S28" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T28" s="1"/>
-      <c r="V28" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>60</v>
+      </c>
+      <c r="V28" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W28" s="1"/>
-      <c r="Y28" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="W28" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y28" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z28" s="1"/>
-      <c r="AB28" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB28" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC28" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -2672,7 +2960,7 @@
       </c>
       <c r="N29" s="1"/>
       <c r="P29" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q29, ($T29,$Q29,$N29,$K29,$H29,$E29), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q29, ($T29,$Q29,$N29,$K29,$H29,$E29), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q29" s="1"/>
@@ -2728,7 +3016,7 @@
       </c>
       <c r="N30" s="1"/>
       <c r="P30" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q30, ($T30,$Q30,$N30,$K30,$H30,$E30), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q30, ($T30,$Q30,$N30,$K30,$H30,$E30), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q30" s="1"/>
@@ -2784,7 +3072,7 @@
       </c>
       <c r="N31" s="1"/>
       <c r="P31" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q31, ($T31,$Q31,$N31,$K31,$H31,$E31), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q31, ($T31,$Q31,$N31,$K31,$H31,$E31), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q31" s="1"/>
@@ -2840,7 +3128,7 @@
       </c>
       <c r="N32" s="1"/>
       <c r="P32" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q32, ($T32,$Q32,$N32,$K32,$H32,$E32), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q32, ($T32,$Q32,$N32,$K32,$H32,$E32), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q32" s="1"/>
@@ -2896,7 +3184,7 @@
       </c>
       <c r="N33" s="1"/>
       <c r="P33" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q33, ($T33,$Q33,$N33,$K33,$H33,$E33), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q33, ($T33,$Q33,$N33,$K33,$H33,$E33), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q33" s="1"/>
@@ -2952,7 +3240,7 @@
       </c>
       <c r="N34" s="1"/>
       <c r="P34" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q34, ($T34,$Q34,$N34,$K34,$H34,$E34), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q34, ($T34,$Q34,$N34,$K34,$H34,$E34), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q34" s="1"/>
@@ -3008,7 +3296,7 @@
       </c>
       <c r="N35" s="1"/>
       <c r="P35" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q35, ($T35,$Q35,$N35,$K35,$H35,$E35), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q35, ($T35,$Q35,$N35,$K35,$H35,$E35), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q35" s="1"/>
@@ -3064,7 +3352,7 @@
       </c>
       <c r="N36" s="1"/>
       <c r="P36" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q36, ($T36,$Q36,$N36,$K36,$H36,$E36), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q36, ($T36,$Q36,$N36,$K36,$H36,$E36), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q36" s="1"/>
@@ -3120,7 +3408,7 @@
       </c>
       <c r="N37" s="1"/>
       <c r="P37" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q37, ($T37,$Q37,$N37,$K37,$H37,$E37), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q37, ($T37,$Q37,$N37,$K37,$H37,$E37), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q37" s="1"/>
@@ -3176,7 +3464,7 @@
       </c>
       <c r="N38" s="1"/>
       <c r="P38" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q38, ($T38,$Q38,$N38,$K38,$H38,$E38), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q38, ($T38,$Q38,$N38,$K38,$H38,$E38), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q38" s="1"/>
@@ -3232,7 +3520,7 @@
       </c>
       <c r="N39" s="1"/>
       <c r="P39" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q39, ($T39,$Q39,$N39,$K39,$H39,$E39), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q39, ($T39,$Q39,$N39,$K39,$H39,$E39), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q39" s="1"/>
@@ -3288,7 +3576,7 @@
       </c>
       <c r="N40" s="1"/>
       <c r="P40" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q40, ($T40,$Q40,$N40,$K40,$H40,$E40), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q40, ($T40,$Q40,$N40,$K40,$H40,$E40), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q40" s="1"/>
@@ -3344,7 +3632,7 @@
       </c>
       <c r="N41" s="1"/>
       <c r="P41" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q41, ($T41,$Q41,$N41,$K41,$H41,$E41), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q41, ($T41,$Q41,$N41,$K41,$H41,$E41), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q41" s="1"/>
@@ -3400,7 +3688,7 @@
       </c>
       <c r="N42" s="1"/>
       <c r="P42" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q42, ($T42,$Q42,$N42,$K42,$H42,$E42), 0),  score, 2, FALSE)),"",VLOOKUP(RANK(Q42, ($T42,$Q42,$N42,$K42,$H42,$E42), 0),  score, 2, FALSE))</f>
+        <f>IF(ISERROR(VLOOKUP(RANK(Q42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
       <c r="Q42" s="1"/>
@@ -3526,64 +3814,64 @@
         <v>7</v>
       </c>
       <c r="E45" s="12">
-        <f>SUM(D13:D27)</f>
-        <v>-12.5</v>
+        <f>SUM(D13:D42)</f>
+        <v>-37.5</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="12">
-        <f>SUM(G13:G27)</f>
-        <v>-125</v>
+        <f>SUM(G13:G42)</f>
+        <v>-120</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K45" s="12">
-        <f>SUM(J13:J27)</f>
-        <v>-20</v>
+        <f>SUM(J13:J42)</f>
+        <v>-25</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N45" s="12">
-        <f>SUM(M13:M27)</f>
-        <v>-135</v>
+        <f>SUM(M13:M42)</f>
+        <v>-115</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q45" s="12">
-        <f>SUM(P13:P27)</f>
-        <v>202.5</v>
+        <f>SUM(P13:P42)</f>
+        <v>192.5</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T45" s="12">
-        <f>SUM(S13:S27)</f>
+        <f>SUM(S13:S42)</f>
         <v>-90</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W45" s="12">
-        <f>SUM(V13:V27)</f>
-        <v>155</v>
+        <f>SUM(V13:V42)</f>
+        <v>140</v>
       </c>
       <c r="Y45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z45" s="12">
-        <f>SUM(Y13:Y27)</f>
-        <v>100</v>
+        <f>SUM(Y13:Y42)</f>
+        <v>150</v>
       </c>
       <c r="AB45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC45" s="12">
-        <f>SUM(AB13:AB27)</f>
-        <v>-75</v>
+        <f>SUM(AB13:AB42)</f>
+        <v>-95</v>
       </c>
       <c r="AD45" s="1">
         <f>SUM(E45,H45,K45,N45,Q45,T45,W45,Z45,AC45)</f>
@@ -3626,101 +3914,101 @@
     <mergeCell ref="V11:W11"/>
   </mergeCells>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="26" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="81" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="23" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="cellIs" dxfId="17" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q45">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45">
-    <cfRule type="cellIs" dxfId="11" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W45">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z45">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC45">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3733,7 +4021,7 @@
   <dimension ref="E15:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A7974B-EAE3-A543-A6C6-CDBB1957CE84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C60849B-ED2C-C04C-A17F-F378C80FF27E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="2720" windowWidth="31960" windowHeight="16800" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -2939,51 +2939,69 @@
       <c r="C29" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="3" t="str">
+      <c r="D29" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="G29" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>60</v>
+      </c>
+      <c r="G29" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="J29" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="M29" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="K29" s="1">
+        <v>80</v>
+      </c>
+      <c r="M29" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="P29" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="N29" s="1">
+        <v>30</v>
+      </c>
+      <c r="P29" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="S29" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>50</v>
+      </c>
+      <c r="S29" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T29" s="1"/>
-      <c r="V29" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="T29" s="1">
+        <v>40</v>
+      </c>
+      <c r="V29" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W29" s="1"/>
-      <c r="Y29" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="W29" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y29" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z29" s="1"/>
-      <c r="AB29" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB29" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC29" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -3822,56 +3840,56 @@
       </c>
       <c r="H45" s="12">
         <f>SUM(G13:G42)</f>
-        <v>-120</v>
+        <v>-145</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K45" s="12">
         <f>SUM(J13:J42)</f>
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N45" s="12">
         <f>SUM(M13:M42)</f>
-        <v>-115</v>
+        <v>-130</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q45" s="12">
         <f>SUM(P13:P42)</f>
-        <v>192.5</v>
+        <v>187.5</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T45" s="12">
         <f>SUM(S13:S42)</f>
-        <v>-90</v>
+        <v>-100</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W45" s="12">
         <f>SUM(V13:V42)</f>
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="Y45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z45" s="12">
         <f>SUM(Y13:Y42)</f>
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AB45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC45" s="12">
         <f>SUM(AB13:AB42)</f>
-        <v>-95</v>
+        <v>-90</v>
       </c>
       <c r="AD45" s="1">
         <f>SUM(E45,H45,K45,N45,Q45,T45,W45,Z45,AC45)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C60849B-ED2C-C04C-A17F-F378C80FF27E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB77204-4465-D84F-AEF1-31D76D35DC3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2720" windowWidth="31960" windowHeight="16800" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2500" yWindow="1920" windowWidth="31960" windowHeight="16800" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3013,51 +3013,69 @@
       <c r="C30" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="3" t="str">
+      <c r="D30" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="G30" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="E30" s="1">
+        <v>20</v>
+      </c>
+      <c r="G30" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="J30" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="H30" s="1">
+        <v>30</v>
+      </c>
+      <c r="J30" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="M30" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>60</v>
+      </c>
+      <c r="M30" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="P30" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="N30" s="1">
+        <v>80</v>
+      </c>
+      <c r="P30" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q30" s="1"/>
-      <c r="S30" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>40</v>
+      </c>
+      <c r="S30" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T30" s="1"/>
-      <c r="V30" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="T30" s="1">
+        <v>70</v>
+      </c>
+      <c r="V30" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W30" s="1"/>
-      <c r="Y30" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="W30" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y30" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z30" s="1"/>
-      <c r="AB30" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB30" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC30" s="1"/>
+        <v>-25</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -3833,14 +3851,14 @@
       </c>
       <c r="E45" s="12">
         <f>SUM(D13:D42)</f>
-        <v>-37.5</v>
+        <v>-57.5</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="12">
         <f>SUM(G13:G42)</f>
-        <v>-145</v>
+        <v>-160</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>7</v>
@@ -3854,42 +3872,42 @@
       </c>
       <c r="N45" s="12">
         <f>SUM(M13:M42)</f>
-        <v>-130</v>
+        <v>-110</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q45" s="12">
         <f>SUM(P13:P42)</f>
-        <v>187.5</v>
+        <v>177.5</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T45" s="12">
         <f>SUM(S13:S42)</f>
-        <v>-100</v>
+        <v>-95</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W45" s="12">
         <f>SUM(V13:V42)</f>
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Y45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z45" s="12">
         <f>SUM(Y13:Y42)</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AB45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC45" s="12">
         <f>SUM(AB13:AB42)</f>
-        <v>-90</v>
+        <v>-115</v>
       </c>
       <c r="AD45" s="1">
         <f>SUM(E45,H45,K45,N45,Q45,T45,W45,Z45,AC45)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB77204-4465-D84F-AEF1-31D76D35DC3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32210FB0-3836-7E40-88C2-BCF67D3EDD4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="1920" windowWidth="31960" windowHeight="16800" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -3087,51 +3087,69 @@
       <c r="C31" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="3" t="str">
+      <c r="D31" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="G31" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>70</v>
+      </c>
+      <c r="G31" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="J31" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="H31" s="1">
+        <v>40</v>
+      </c>
+      <c r="J31" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K31" s="1"/>
-      <c r="M31" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="K31" s="1">
+        <v>30</v>
+      </c>
+      <c r="M31" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N31" s="1"/>
-      <c r="P31" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="N31" s="1">
+        <v>100</v>
+      </c>
+      <c r="P31" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q31" s="1"/>
-      <c r="S31" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>60</v>
+      </c>
+      <c r="S31" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T31" s="1"/>
-      <c r="V31" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="T31" s="1">
+        <v>50</v>
+      </c>
+      <c r="V31" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W31" s="1"/>
-      <c r="Y31" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="W31" s="1">
+        <v>80</v>
+      </c>
+      <c r="Y31" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z31" s="1"/>
-      <c r="AB31" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB31" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC31" s="1"/>
+        <v>-25</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -3143,51 +3161,69 @@
       <c r="C32" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="3" t="str">
+      <c r="D32" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="G32" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H32" s="1"/>
-      <c r="J32" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="H32" s="1">
+        <v>80</v>
+      </c>
+      <c r="J32" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="M32" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="K32" s="1">
+        <v>50</v>
+      </c>
+      <c r="M32" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N32" s="1"/>
-      <c r="P32" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="N32" s="1">
+        <v>70</v>
+      </c>
+      <c r="P32" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q32" s="1"/>
-      <c r="S32" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>60</v>
+      </c>
+      <c r="S32" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T32" s="1"/>
-      <c r="V32" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="T32" s="1">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W32" s="1"/>
-      <c r="Y32" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="W32" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y32" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z32" s="1"/>
-      <c r="AB32" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB32" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC32" s="1"/>
+        <v>-15</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -3851,28 +3887,28 @@
       </c>
       <c r="E45" s="12">
         <f>SUM(D13:D42)</f>
-        <v>-57.5</v>
+        <v>-77.5</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="12">
         <f>SUM(G13:G42)</f>
-        <v>-160</v>
+        <v>-150</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K45" s="12">
         <f>SUM(J13:J42)</f>
-        <v>-5</v>
+        <v>-25</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N45" s="12">
         <f>SUM(M13:M42)</f>
-        <v>-110</v>
+        <v>-55</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>7</v>
@@ -3886,28 +3922,28 @@
       </c>
       <c r="T45" s="12">
         <f>SUM(S13:S42)</f>
-        <v>-95</v>
+        <v>-50</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W45" s="12">
         <f>SUM(V13:V42)</f>
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Y45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z45" s="12">
         <f>SUM(Y13:Y42)</f>
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="AB45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC45" s="12">
         <f>SUM(AB13:AB42)</f>
-        <v>-115</v>
+        <v>-155</v>
       </c>
       <c r="AD45" s="1">
         <f>SUM(E45,H45,K45,N45,Q45,T45,W45,Z45,AC45)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32210FB0-3836-7E40-88C2-BCF67D3EDD4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB93184-54E7-8C46-8482-FEEC9B942CD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="1920" windowWidth="31960" windowHeight="16800" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -3235,51 +3235,69 @@
       <c r="C33" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="G33" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>70</v>
+      </c>
+      <c r="G33" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H33" s="1"/>
-      <c r="J33" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="H33" s="1">
+        <v>80</v>
+      </c>
+      <c r="J33" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K33" s="1"/>
-      <c r="M33" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="K33" s="1">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="P33" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="N33" s="1">
+        <v>50</v>
+      </c>
+      <c r="P33" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q33" s="1"/>
-      <c r="S33" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>40</v>
+      </c>
+      <c r="S33" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T33" s="1"/>
-      <c r="V33" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="T33" s="1">
+        <v>30</v>
+      </c>
+      <c r="V33" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W33" s="1"/>
-      <c r="Y33" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z33" s="1"/>
-      <c r="AB33" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB33" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC33" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -3887,49 +3905,49 @@
       </c>
       <c r="E45" s="12">
         <f>SUM(D13:D42)</f>
-        <v>-77.5</v>
+        <v>-72.5</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="12">
         <f>SUM(G13:G42)</f>
-        <v>-150</v>
+        <v>-130</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K45" s="12">
         <f>SUM(J13:J42)</f>
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N45" s="12">
         <f>SUM(M13:M42)</f>
-        <v>-55</v>
+        <v>-60</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q45" s="12">
         <f>SUM(P13:P42)</f>
-        <v>177.5</v>
+        <v>167.5</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T45" s="12">
         <f>SUM(S13:S42)</f>
-        <v>-50</v>
+        <v>-65</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W45" s="12">
         <f>SUM(V13:V42)</f>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="7" t="s">
         <v>7</v>
@@ -3943,7 +3961,7 @@
       </c>
       <c r="AC45" s="12">
         <f>SUM(AB13:AB42)</f>
-        <v>-155</v>
+        <v>-175</v>
       </c>
       <c r="AD45" s="1">
         <f>SUM(E45,H45,K45,N45,Q45,T45,W45,Z45,AC45)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB93184-54E7-8C46-8482-FEEC9B942CD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08C4B98-0146-AF49-A685-6E5232A2BC62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1920" windowWidth="31960" windowHeight="16800" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2680" yWindow="1700" windowWidth="32080" windowHeight="16380" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,13 +535,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,7 +557,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
@@ -564,277 +564,7 @@
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1457,24 +1187,24 @@
         <v>50</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -1484,22 +1214,22 @@
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
     </row>
     <row r="4" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
@@ -1509,22 +1239,22 @@
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
     </row>
     <row r="5" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
@@ -1534,22 +1264,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
     </row>
     <row r="6" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
@@ -1559,22 +1289,22 @@
         <v>-5</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
     </row>
     <row r="7" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
@@ -1584,22 +1314,22 @@
         <v>-10</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
     </row>
     <row r="8" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
@@ -1609,22 +1339,22 @@
         <v>-15</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
@@ -1645,10 +1375,10 @@
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="23"/>
       <c r="G11" s="21" t="s">
         <v>15</v>
       </c>
@@ -2862,7 +2592,7 @@
       <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D28" s="3">
@@ -2936,7 +2666,7 @@
       <c r="B29" s="1">
         <v>1</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="3">
@@ -3010,7 +2740,7 @@
       <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="3">
@@ -3084,7 +2814,7 @@
       <c r="B31" s="1">
         <v>1</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="3">
@@ -3158,7 +2888,7 @@
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="20" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="3">
@@ -3232,7 +2962,7 @@
       <c r="B33" s="1">
         <v>1</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="3">
@@ -3306,54 +3036,72 @@
       <c r="B34" s="1">
         <v>1</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="3" t="str">
+      <c r="D34" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="G34" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <v>70</v>
+      </c>
+      <c r="G34" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H34" s="1"/>
-      <c r="J34" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="H34" s="1">
+        <v>100</v>
+      </c>
+      <c r="J34" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="M34" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="K34" s="1">
+        <v>20</v>
+      </c>
+      <c r="M34" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="P34" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>60</v>
+      </c>
+      <c r="P34" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q34" s="1"/>
-      <c r="S34" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>30</v>
+      </c>
+      <c r="S34" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T34" s="1"/>
-      <c r="V34" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="T34" s="1">
+        <v>80</v>
+      </c>
+      <c r="V34" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W34" s="1"/>
-      <c r="Y34" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="W34" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y34" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z34" s="1"/>
-      <c r="AB34" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB34" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC34" s="1"/>
+        <v>-25</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -3362,7 +3110,7 @@
       <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="3" t="str">
@@ -3418,7 +3166,7 @@
       <c r="B36" s="1">
         <v>1</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="3" t="str">
@@ -3474,7 +3222,7 @@
       <c r="B37" s="1">
         <v>1</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="3" t="str">
@@ -3530,7 +3278,7 @@
       <c r="B38" s="1">
         <v>1</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="20" t="s">
         <v>76</v>
       </c>
       <c r="D38" s="3" t="str">
@@ -3586,7 +3334,7 @@
       <c r="B39" s="1">
         <v>1</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="20" t="s">
         <v>77</v>
       </c>
       <c r="D39" s="3" t="str">
@@ -3642,7 +3390,7 @@
       <c r="B40" s="1">
         <v>1</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D40" s="3" t="str">
@@ -3698,7 +3446,7 @@
       <c r="B41" s="1">
         <v>1</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D41" s="3" t="str">
@@ -3754,7 +3502,7 @@
       <c r="B42" s="1">
         <v>1</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="20" t="s">
         <v>80</v>
       </c>
       <c r="D42" s="3" t="str">
@@ -3905,21 +3653,21 @@
       </c>
       <c r="E45" s="12">
         <f>SUM(D13:D42)</f>
-        <v>-72.5</v>
+        <v>-67.5</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="12">
         <f>SUM(G13:G42)</f>
-        <v>-130</v>
+        <v>-80</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K45" s="12">
         <f>SUM(J13:J42)</f>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>7</v>
@@ -3933,35 +3681,35 @@
       </c>
       <c r="Q45" s="12">
         <f>SUM(P13:P42)</f>
-        <v>167.5</v>
+        <v>152.5</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T45" s="12">
         <f>SUM(S13:S42)</f>
-        <v>-65</v>
+        <v>-45</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W45" s="12">
         <f>SUM(V13:V42)</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Y45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z45" s="12">
         <f>SUM(Y13:Y42)</f>
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AB45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC45" s="12">
         <f>SUM(AB13:AB42)</f>
-        <v>-175</v>
+        <v>-200</v>
       </c>
       <c r="AD45" s="1">
         <f>SUM(E45,H45,K45,N45,Q45,T45,W45,Z45,AC45)</f>
@@ -3992,113 +3740,113 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="10">
+    <mergeCell ref="I2:X8"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="V11:W11"/>
     <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I2:X8"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="V11:W11"/>
   </mergeCells>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="53" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="81" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q45">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45">
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W45">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z45">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC45">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4148,7 +3896,7 @@
       </c>
     </row>
     <row r="18" spans="5:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="25" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -4156,25 +3904,25 @@
       </c>
     </row>
     <row r="19" spans="5:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="I19" s="24"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="5:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="I20" s="24"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="5:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="I21" s="24"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="5:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="26" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="14" t="s">
@@ -4182,7 +3930,7 @@
       </c>
     </row>
     <row r="23" spans="5:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="26"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="14" t="s">
         <v>36</v>
       </c>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08C4B98-0146-AF49-A685-6E5232A2BC62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C346FFE1-A0B6-A544-9CB1-CB2A257BC664}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1700" windowWidth="32080" windowHeight="16380" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="1800" yWindow="2140" windowWidth="32080" windowHeight="16380" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -175,9 +175,6 @@
     <t>Vicky</t>
   </si>
   <si>
-    <t>Raghu</t>
-  </si>
-  <si>
     <t>Vjvignesh94</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
     <t>CheemsRajah</t>
   </si>
   <si>
-    <t>Rag Nat0112</t>
-  </si>
-  <si>
     <t>RCB vs RR</t>
   </si>
   <si>
@@ -275,6 +269,12 @@
   </si>
   <si>
     <t>KKR vs RCB</t>
+  </si>
+  <si>
+    <t>Venni 3022</t>
+  </si>
+  <si>
+    <t>Venni</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1388,7 @@
       </c>
       <c r="K11" s="22"/>
       <c r="M11" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N11" s="22"/>
       <c r="P11" s="21" t="s">
@@ -1400,15 +1400,15 @@
       </c>
       <c r="T11" s="22"/>
       <c r="V11" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W11" s="22"/>
       <c r="Y11" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z11" s="22"/>
       <c r="AB11" s="21" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="AC11" s="22"/>
     </row>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2151,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="3">
         <v>12.5</v>
@@ -2371,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2445,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2815,7 +2815,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D31" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D32" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3111,53 +3111,71 @@
         <v>1</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="3" t="str">
+        <v>71</v>
+      </c>
+      <c r="D35" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="G35" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="J35" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>60</v>
+      </c>
+      <c r="J35" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="M35" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="K35" s="1">
+        <v>30</v>
+      </c>
+      <c r="M35" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="P35" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="N35" s="1">
+        <v>50</v>
+      </c>
+      <c r="P35" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q35" s="1"/>
-      <c r="S35" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>70</v>
+      </c>
+      <c r="S35" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T35" s="1"/>
-      <c r="V35" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="T35" s="1">
+        <v>20</v>
+      </c>
+      <c r="V35" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W35" s="1"/>
-      <c r="Y35" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="W35" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y35" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z35" s="1"/>
-      <c r="AB35" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB35" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC35" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -3167,7 +3185,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3223,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D37" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3279,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3335,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3391,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D40" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3447,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3503,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D42" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3641,7 +3659,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="11" t="str">
         <f>AB12</f>
-        <v>Raghu</v>
+        <v>Venni</v>
       </c>
     </row>
     <row r="45" spans="1:30" ht="21" x14ac:dyDescent="0.25">
@@ -3653,7 +3671,7 @@
       </c>
       <c r="E45" s="12">
         <f>SUM(D13:D42)</f>
-        <v>-67.5</v>
+        <v>-92.5</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>7</v>
@@ -3667,49 +3685,49 @@
       </c>
       <c r="K45" s="12">
         <f>SUM(J13:J42)</f>
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N45" s="12">
         <f>SUM(M13:M42)</f>
-        <v>-60</v>
+        <v>-65</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q45" s="12">
         <f>SUM(P13:P42)</f>
-        <v>152.5</v>
+        <v>157.5</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T45" s="12">
         <f>SUM(S13:S42)</f>
-        <v>-45</v>
+        <v>-65</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W45" s="12">
         <f>SUM(V13:V42)</f>
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Y45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z45" s="12">
         <f>SUM(Y13:Y42)</f>
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AB45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC45" s="12">
         <f>SUM(AB13:AB42)</f>
-        <v>-200</v>
+        <v>-180</v>
       </c>
       <c r="AD45" s="1">
         <f>SUM(E45,H45,K45,N45,Q45,T45,W45,Z45,AC45)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C346FFE1-A0B6-A544-9CB1-CB2A257BC664}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CFC0E6-DE01-B546-A33C-2FA3B10759BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2140" windowWidth="32080" windowHeight="16380" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="1220" yWindow="2560" windowWidth="32080" windowHeight="16380" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3187,51 +3187,69 @@
       <c r="C36" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="3" t="str">
+      <c r="D36" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="G36" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1">
+        <v>80</v>
+      </c>
+      <c r="G36" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="J36" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>70</v>
+      </c>
+      <c r="J36" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="M36" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>60</v>
+      </c>
+      <c r="M36" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="P36" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="N36" s="1">
+        <v>30</v>
+      </c>
+      <c r="P36" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q36" s="1"/>
-      <c r="S36" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>50</v>
+      </c>
+      <c r="S36" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T36" s="1"/>
-      <c r="V36" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0</v>
+      </c>
+      <c r="V36" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W36" s="1"/>
-      <c r="Y36" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="W36" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y36" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z36" s="1"/>
-      <c r="AB36" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB36" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC36" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -3243,51 +3261,69 @@
       <c r="C37" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="3" t="str">
+      <c r="D37" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="G37" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1">
+        <v>80</v>
+      </c>
+      <c r="G37" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="J37" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>50</v>
+      </c>
+      <c r="J37" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="M37" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N37" s="1"/>
-      <c r="P37" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="N37" s="1">
+        <v>40</v>
+      </c>
+      <c r="P37" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="S37" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>30</v>
+      </c>
+      <c r="S37" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T37" s="1"/>
-      <c r="V37" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>60</v>
+      </c>
+      <c r="V37" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W37" s="1"/>
-      <c r="Y37" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="W37" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y37" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z37" s="1"/>
-      <c r="AB37" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB37" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC37" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -3299,51 +3335,69 @@
       <c r="C38" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="3" t="str">
+      <c r="D38" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="G38" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1">
+        <v>80</v>
+      </c>
+      <c r="G38" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="J38" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="H38" s="1">
+        <v>70</v>
+      </c>
+      <c r="J38" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="M38" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="K38" s="1">
+        <v>30</v>
+      </c>
+      <c r="M38" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N38" s="1"/>
-      <c r="P38" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>60</v>
+      </c>
+      <c r="P38" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q38" s="1"/>
-      <c r="S38" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>50</v>
+      </c>
+      <c r="S38" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T38" s="1"/>
-      <c r="V38" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="T38" s="1">
+        <v>20</v>
+      </c>
+      <c r="V38" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W38" s="1"/>
-      <c r="Y38" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="W38" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y38" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z38" s="1"/>
-      <c r="AB38" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC38" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -3671,63 +3725,63 @@
       </c>
       <c r="E45" s="12">
         <f>SUM(D13:D42)</f>
-        <v>-92.5</v>
+        <v>-32.5</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="12">
         <f>SUM(G13:G42)</f>
-        <v>-80</v>
+        <v>-75</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K45" s="12">
         <f>SUM(J13:J42)</f>
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N45" s="12">
         <f>SUM(M13:M42)</f>
-        <v>-65</v>
+        <v>-90</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q45" s="12">
         <f>SUM(P13:P42)</f>
-        <v>157.5</v>
+        <v>132.5</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T45" s="12">
         <f>SUM(S13:S42)</f>
-        <v>-65</v>
+        <v>-110</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W45" s="12">
         <f>SUM(V13:V42)</f>
-        <v>85</v>
+        <v>175</v>
       </c>
       <c r="Y45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z45" s="12">
         <f>SUM(Y13:Y42)</f>
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="AB45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC45" s="12">
         <f>SUM(AB13:AB42)</f>
-        <v>-180</v>
+        <v>-145</v>
       </c>
       <c r="AD45" s="1">
         <f>SUM(E45,H45,K45,N45,Q45,T45,W45,Z45,AC45)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CFC0E6-DE01-B546-A33C-2FA3B10759BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF72C6F-6CE0-BB4B-B8A4-661E19E6502F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="2560" windowWidth="32080" windowHeight="16380" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -3409,51 +3409,69 @@
       <c r="C39" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="3" t="str">
+      <c r="D39" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="G39" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="E39" s="1">
+        <v>100</v>
+      </c>
+      <c r="G39" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="J39" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="M39" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="K39" s="1">
+        <v>80</v>
+      </c>
+      <c r="M39" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="P39" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="N39" s="1">
+        <v>50</v>
+      </c>
+      <c r="P39" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q39" s="1"/>
-      <c r="S39" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>40</v>
+      </c>
+      <c r="S39" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T39" s="1"/>
-      <c r="V39" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <v>60</v>
+      </c>
+      <c r="V39" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W39" s="1"/>
-      <c r="Y39" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="W39" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y39" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z39" s="1"/>
-      <c r="AB39" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>70</v>
+      </c>
+      <c r="AB39" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC39" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
@@ -3725,35 +3743,35 @@
       </c>
       <c r="E45" s="12">
         <f>SUM(D13:D42)</f>
-        <v>-32.5</v>
+        <v>17.5</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="12">
         <f>SUM(G13:G42)</f>
-        <v>-75</v>
+        <v>-100</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K45" s="12">
         <f>SUM(J13:J42)</f>
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N45" s="12">
         <f>SUM(M13:M42)</f>
-        <v>-90</v>
+        <v>-95</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q45" s="12">
         <f>SUM(P13:P42)</f>
-        <v>132.5</v>
+        <v>122.5</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>7</v>
@@ -3767,21 +3785,21 @@
       </c>
       <c r="W45" s="12">
         <f>SUM(V13:V42)</f>
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="Y45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z45" s="12">
         <f>SUM(Y13:Y42)</f>
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AB45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC45" s="12">
         <f>SUM(AB13:AB42)</f>
-        <v>-145</v>
+        <v>-165</v>
       </c>
       <c r="AD45" s="1">
         <f>SUM(E45,H45,K45,N45,Q45,T45,W45,Z45,AC45)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF72C6F-6CE0-BB4B-B8A4-661E19E6502F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDB5358-D04C-604C-BA28-2AD416276DD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="2560" windowWidth="32080" windowHeight="16380" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2920" yWindow="2200" windowWidth="32080" windowHeight="16380" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3483,51 +3483,69 @@
       <c r="C40" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="3" t="str">
+      <c r="D40" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="G40" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H40" s="1"/>
-      <c r="J40" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>60</v>
+      </c>
+      <c r="J40" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="M40" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="K40" s="1">
+        <v>70</v>
+      </c>
+      <c r="M40" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N40" s="1"/>
-      <c r="P40" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="N40" s="1">
+        <v>100</v>
+      </c>
+      <c r="P40" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q40" s="1"/>
-      <c r="S40" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>20</v>
+      </c>
+      <c r="S40" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T40" s="1"/>
-      <c r="V40" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="T40" s="1">
+        <v>40</v>
+      </c>
+      <c r="V40" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W40" s="1"/>
-      <c r="Y40" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="W40" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y40" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z40" s="1"/>
-      <c r="AB40" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>80</v>
+      </c>
+      <c r="AB40" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC40" s="1"/>
+        <v>-15</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -3539,51 +3557,69 @@
       <c r="C41" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="3" t="str">
+      <c r="D41" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="G41" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1">
+        <v>80</v>
+      </c>
+      <c r="G41" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H41" s="1"/>
-      <c r="J41" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K41" s="1"/>
-      <c r="M41" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="K41" s="1">
+        <v>50</v>
+      </c>
+      <c r="M41" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="P41" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="N41" s="1">
+        <v>40</v>
+      </c>
+      <c r="P41" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q41" s="1"/>
-      <c r="S41" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>20</v>
+      </c>
+      <c r="S41" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T41" s="1"/>
-      <c r="V41" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="T41" s="1">
+        <v>70</v>
+      </c>
+      <c r="V41" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W41" s="1"/>
-      <c r="Y41" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="W41" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z41" s="1"/>
-      <c r="AB41" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB41" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC41" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>60</v>
+      </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
@@ -3743,14 +3779,14 @@
       </c>
       <c r="E45" s="12">
         <f>SUM(D13:D42)</f>
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="12">
         <f>SUM(G13:G42)</f>
-        <v>-100</v>
+        <v>-125</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>7</v>
@@ -3764,42 +3800,42 @@
       </c>
       <c r="N45" s="12">
         <f>SUM(M13:M42)</f>
-        <v>-95</v>
+        <v>-55</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q45" s="12">
         <f>SUM(P13:P42)</f>
-        <v>122.5</v>
+        <v>82.5</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T45" s="12">
         <f>SUM(S13:S42)</f>
-        <v>-110</v>
+        <v>-115</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W45" s="12">
         <f>SUM(V13:V42)</f>
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="Y45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z45" s="12">
         <f>SUM(Y13:Y42)</f>
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AB45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC45" s="12">
         <f>SUM(AB13:AB42)</f>
-        <v>-165</v>
+        <v>-180</v>
       </c>
       <c r="AD45" s="1">
         <f>SUM(E45,H45,K45,N45,Q45,T45,W45,Z45,AC45)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDB5358-D04C-604C-BA28-2AD416276DD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA1198A-00C1-9446-B7B3-4AACE427FD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2200" windowWidth="32080" windowHeight="16380" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2920" yWindow="1840" windowWidth="32280" windowHeight="17700" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="85">
   <si>
     <t>Points</t>
   </si>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>Venni</t>
+  </si>
+  <si>
+    <t>CSK vs MI</t>
+  </si>
+  <si>
+    <t>PBKS vs RR</t>
+  </si>
+  <si>
+    <t>DC vs SRH</t>
+  </si>
+  <si>
+    <t>MI vs KKR</t>
   </si>
 </sst>
 </file>
@@ -536,6 +548,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,9 +559,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1150,11 +1162,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BE9CB7-B9A7-B347-86F0-C3EB9B5BFBBD}">
-  <dimension ref="A1:AD48"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD45" sqref="AD45"/>
+      <pane ySplit="11" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD49" sqref="AD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1187,24 +1199,24 @@
         <v>50</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -1214,22 +1226,22 @@
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
@@ -1239,22 +1251,22 @@
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
     </row>
     <row r="5" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
@@ -1264,22 +1276,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
     </row>
     <row r="6" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
@@ -1289,22 +1301,22 @@
         <v>-5</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
@@ -1314,22 +1326,22 @@
         <v>-10</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
@@ -1339,22 +1351,22 @@
         <v>-15</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
@@ -1375,42 +1387,42 @@
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="G11" s="21" t="s">
+      <c r="E11" s="24"/>
+      <c r="G11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="J11" s="21" t="s">
+      <c r="H11" s="23"/>
+      <c r="J11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="M11" s="21" t="s">
+      <c r="K11" s="23"/>
+      <c r="M11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="P11" s="21" t="s">
+      <c r="N11" s="23"/>
+      <c r="P11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="S11" s="21" t="s">
+      <c r="Q11" s="23"/>
+      <c r="S11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="T11" s="22"/>
-      <c r="V11" s="21" t="s">
+      <c r="T11" s="23"/>
+      <c r="V11" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="W11" s="22"/>
-      <c r="Y11" s="21" t="s">
+      <c r="W11" s="23"/>
+      <c r="Y11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Z11" s="22"/>
-      <c r="AB11" s="21" t="s">
+      <c r="Z11" s="23"/>
+      <c r="AB11" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="AC11" s="22"/>
+      <c r="AC11" s="23"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -2955,7 +2967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>21</v>
       </c>
@@ -3029,7 +3041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>22</v>
       </c>
@@ -3103,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>23</v>
       </c>
@@ -3177,7 +3189,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>24</v>
       </c>
@@ -3251,7 +3263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>25</v>
       </c>
@@ -3325,7 +3337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>26</v>
       </c>
@@ -3399,7 +3411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>27</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>28</v>
       </c>
@@ -3547,7 +3559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>29</v>
       </c>
@@ -3621,7 +3633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>30</v>
       </c>
@@ -3629,255 +3641,495 @@
         <v>1</v>
       </c>
       <c r="C42" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(E42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-20</v>
+      </c>
+      <c r="E42" s="1">
+        <v>20</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H42" s="1">
+        <v>70</v>
+      </c>
+      <c r="J42" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(K42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-25</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(N42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-15</v>
+      </c>
+      <c r="N42" s="1">
+        <v>30</v>
+      </c>
+      <c r="P42" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-10</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>40</v>
+      </c>
+      <c r="S42" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="T42" s="1">
+        <v>70</v>
+      </c>
+      <c r="V42" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(W42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>50</v>
+      </c>
+      <c r="W42" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y42" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>20</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>80</v>
+      </c>
+      <c r="AB42" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-5</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>31</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(E42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="D43" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="E42" s="1"/>
-      <c r="G42" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(H42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="E43" s="1"/>
+      <c r="G43" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="H42" s="1"/>
-      <c r="J42" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(K42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="H43" s="1"/>
+      <c r="J43" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K42" s="1"/>
-      <c r="M42" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(N42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="K43" s="1"/>
+      <c r="M43" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="N42" s="1"/>
-      <c r="P42" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="N43" s="1"/>
+      <c r="P43" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="Q42" s="1"/>
-      <c r="S42" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(T42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="Q43" s="1"/>
+      <c r="S43" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="T42" s="1"/>
-      <c r="V42" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(W42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="T43" s="1"/>
+      <c r="V43" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="W42" s="1"/>
-      <c r="Y42" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Z42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="W43" s="1"/>
+      <c r="Y43" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="Z42" s="1"/>
-      <c r="AB42" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(AC42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="Z43" s="1"/>
+      <c r="AB43" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="AC42" s="1"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="1" t="s">
+      <c r="AC43" s="1"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>32</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="G44" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="J44" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="M44" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="P44" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="S44" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="V44" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W44" s="1"/>
+      <c r="Y44" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z44" s="1"/>
+      <c r="AB44" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC44" s="1"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>33</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="G45" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="J45" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="M45" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="P45" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="S45" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="V45" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W45" s="1"/>
+      <c r="Y45" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z45" s="1"/>
+      <c r="AB45" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC45" s="1"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>34</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="G46" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="J46" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="M46" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="P46" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="S46" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="V46" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W46" s="1"/>
+      <c r="Y46" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z46" s="1"/>
+      <c r="AB46" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC46" s="1"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="9" t="s">
+      <c r="C47" s="10"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="9" t="s">
+      <c r="G47" s="1"/>
+      <c r="H47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="9" t="s">
+      <c r="J47" s="1"/>
+      <c r="K47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="9" t="s">
+      <c r="M47" s="1"/>
+      <c r="N47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="9" t="s">
+      <c r="P47" s="1"/>
+      <c r="Q47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S43" s="1"/>
-      <c r="T43" s="9" t="s">
+      <c r="S47" s="1"/>
+      <c r="T47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V43" s="1"/>
-      <c r="W43" s="9" t="s">
+      <c r="V47" s="1"/>
+      <c r="W47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="9" t="s">
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="9" t="s">
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="11" t="str">
-        <f>D12</f>
-        <v>Jaya</v>
-      </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="11" t="str">
-        <f>G12</f>
-        <v>Justin</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="K44" s="11" t="str">
-        <f>J12</f>
-        <v>Ram</v>
-      </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="11" t="str">
-        <f>M12</f>
-        <v>Sibi</v>
-      </c>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="11" t="str">
-        <f>P12</f>
-        <v>Sundar</v>
-      </c>
-      <c r="S44" s="1"/>
-      <c r="T44" s="11" t="str">
-        <f>S12</f>
-        <v>Balaji</v>
-      </c>
-      <c r="V44" s="1"/>
-      <c r="W44" s="11" t="str">
-        <f>V12</f>
-        <v>Upili</v>
-      </c>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="11" t="str">
-        <f>Y12</f>
-        <v>Vicky</v>
-      </c>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="11" t="str">
-        <f>AB12</f>
-        <v>Venni</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="12">
-        <f>SUM(D13:D42)</f>
-        <v>12.5</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="12">
-        <f>SUM(G13:G42)</f>
-        <v>-125</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="12">
-        <f>SUM(J13:J42)</f>
-        <v>-30</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N45" s="12">
-        <f>SUM(M13:M42)</f>
-        <v>-55</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q45" s="12">
-        <f>SUM(P13:P42)</f>
-        <v>82.5</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T45" s="12">
-        <f>SUM(S13:S42)</f>
-        <v>-115</v>
-      </c>
-      <c r="V45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W45" s="12">
-        <f>SUM(V13:V42)</f>
-        <v>205</v>
-      </c>
-      <c r="Y45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z45" s="12">
-        <f>SUM(Y13:Y42)</f>
-        <v>205</v>
-      </c>
-      <c r="AB45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC45" s="12">
-        <f>SUM(AB13:AB42)</f>
-        <v>-180</v>
-      </c>
-      <c r="AD45" s="1">
-        <f>SUM(E45,H45,K45,N45,Q45,T45,W45,Z45,AC45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="11" t="str">
+        <f>D12</f>
+        <v>Jaya</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="11" t="str">
+        <f>G12</f>
+        <v>Justin</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="11" t="str">
+        <f>J12</f>
+        <v>Ram</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="11" t="str">
+        <f>M12</f>
+        <v>Sibi</v>
+      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="11" t="str">
+        <f>P12</f>
+        <v>Sundar</v>
+      </c>
+      <c r="S48" s="1"/>
+      <c r="T48" s="11" t="str">
+        <f>S12</f>
+        <v>Balaji</v>
+      </c>
+      <c r="V48" s="1"/>
+      <c r="W48" s="11" t="str">
+        <f>V12</f>
+        <v>Upili</v>
+      </c>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="11" t="str">
+        <f>Y12</f>
+        <v>Vicky</v>
+      </c>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="11" t="str">
+        <f>AB12</f>
+        <v>Venni</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="12">
+        <f>SUM(D13:D46)</f>
+        <v>-7.5</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="12">
+        <f>SUM(G13:G46)</f>
+        <v>-122.5</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="12">
+        <f>SUM(J13:J46)</f>
+        <v>-55</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N49" s="12">
+        <f>SUM(M13:M46)</f>
+        <v>-70</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q49" s="12">
+        <f>SUM(P13:P46)</f>
+        <v>72.5</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T49" s="12">
+        <f>SUM(S13:S46)</f>
+        <v>-112.5</v>
+      </c>
+      <c r="V49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W49" s="12">
+        <f>SUM(V13:V46)</f>
+        <v>255</v>
+      </c>
+      <c r="Y49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z49" s="12">
+        <f>SUM(Y13:Y46)</f>
+        <v>225</v>
+      </c>
+      <c r="AB49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC49" s="12">
+        <f>SUM(AB13:AB46)</f>
+        <v>-185</v>
+      </c>
+      <c r="AD49" s="1">
+        <f>SUM(E49,H49,K49,N49,Q49,T49,W49,Z49,AC49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="10">
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="I2:X8"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M11:N11"/>
   </mergeCells>
-  <conditionalFormatting sqref="E45">
+  <conditionalFormatting sqref="E49">
     <cfRule type="cellIs" dxfId="26" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3888,7 +4140,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="H49">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3899,7 +4151,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
+  <conditionalFormatting sqref="K49">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3910,7 +4162,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N45">
+  <conditionalFormatting sqref="N49">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3921,7 +4173,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q45">
+  <conditionalFormatting sqref="Q49">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3932,7 +4184,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T45">
+  <conditionalFormatting sqref="T49">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3943,7 +4195,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W45">
+  <conditionalFormatting sqref="W49">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3954,7 +4206,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z45">
+  <conditionalFormatting sqref="Z49">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3965,7 +4217,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC45">
+  <conditionalFormatting sqref="AC49">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA1198A-00C1-9446-B7B3-4AACE427FD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578B8964-E1B0-4746-9637-83178166F7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1840" windowWidth="32280" windowHeight="17700" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2920" yWindow="1800" windowWidth="32280" windowHeight="17700" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>Balaji</t>
   </si>
   <si>
-    <t>DAMU DREAM TEAM</t>
-  </si>
-  <si>
     <t>JUSTIN CHALLENGERS</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>MI vs KKR</t>
+  </si>
+  <si>
+    <t>JAYAGAN ARMY</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="I2" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
@@ -1388,39 +1388,39 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D11" s="24" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E11" s="24"/>
       <c r="G11" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="23"/>
       <c r="J11" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="23"/>
       <c r="M11" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N11" s="23"/>
       <c r="P11" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="23"/>
       <c r="S11" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T11" s="23"/>
       <c r="V11" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W11" s="23"/>
       <c r="Y11" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z11" s="23"/>
       <c r="AB11" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC11" s="23"/>
     </row>
@@ -1471,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="V12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="Z12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E13, ($AC13,$Z13,$W13,$T13,$Q13,$N13,$K13,$H13,$E13), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1645,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1719,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2311,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="3">
         <v>12.5</v>
@@ -2383,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2753,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3123,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3713,53 +3713,71 @@
         <v>1</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="3" t="str">
+        <v>77</v>
+      </c>
+      <c r="D43" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="G43" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="E43" s="1">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="J43" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="H43" s="1">
+        <v>40</v>
+      </c>
+      <c r="J43" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="M43" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>60</v>
+      </c>
+      <c r="M43" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="P43" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="N43" s="1">
+        <v>80</v>
+      </c>
+      <c r="P43" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q43" s="1"/>
-      <c r="S43" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>70</v>
+      </c>
+      <c r="S43" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T43" s="1"/>
-      <c r="V43" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="T43" s="1">
+        <v>30</v>
+      </c>
+      <c r="V43" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W43" s="1"/>
-      <c r="Y43" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="W43" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y43" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z43" s="1"/>
-      <c r="AB43" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB43" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC43" s="1"/>
+        <v>-25</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
@@ -3769,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3825,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3881,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4031,14 +4049,14 @@
       </c>
       <c r="E49" s="12">
         <f>SUM(D13:D46)</f>
-        <v>-7.5</v>
+        <v>42.5</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="12">
         <f>SUM(G13:G46)</f>
-        <v>-122.5</v>
+        <v>-132.5</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>7</v>
@@ -4052,42 +4070,42 @@
       </c>
       <c r="N49" s="12">
         <f>SUM(M13:M46)</f>
-        <v>-70</v>
+        <v>-50</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q49" s="12">
         <f>SUM(P13:P46)</f>
-        <v>72.5</v>
+        <v>77.5</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T49" s="12">
         <f>SUM(S13:S46)</f>
-        <v>-112.5</v>
+        <v>-127.5</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W49" s="12">
         <f>SUM(V13:V46)</f>
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Y49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z49" s="12">
         <f>SUM(Y13:Y46)</f>
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="AB49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC49" s="12">
         <f>SUM(AB13:AB46)</f>
-        <v>-185</v>
+        <v>-210</v>
       </c>
       <c r="AD49" s="1">
         <f>SUM(E49,H49,K49,N49,Q49,T49,W49,Z49,AC49)</f>
@@ -4251,85 +4269,85 @@
   <sheetData>
     <row r="15" spans="9:10" ht="24" x14ac:dyDescent="0.3">
       <c r="I15" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="9:10" ht="24" x14ac:dyDescent="0.3">
       <c r="I16" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="5:10" ht="24" x14ac:dyDescent="0.3">
       <c r="I17" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="5:10" ht="21" x14ac:dyDescent="0.25">
       <c r="I18" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="5:10" ht="21" x14ac:dyDescent="0.25">
       <c r="I19" s="25"/>
       <c r="J19" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="5:10" ht="21" x14ac:dyDescent="0.25">
       <c r="I20" s="25"/>
       <c r="J20" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="5:10" ht="21" x14ac:dyDescent="0.25">
       <c r="I21" s="25"/>
       <c r="J21" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="5:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I22" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="5:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I23" s="27"/>
       <c r="J23" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="5:10" ht="24" x14ac:dyDescent="0.3">
       <c r="I24" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.2">
@@ -4337,7 +4355,7 @@
         <v>8</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>8</v>
@@ -4348,7 +4366,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>10</v>
@@ -4370,7 +4388,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>12</v>
@@ -4389,13 +4407,13 @@
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.2">
@@ -4455,13 +4473,13 @@
     </row>
     <row r="43" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E43" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="44" spans="5:7" x14ac:dyDescent="0.2">
@@ -4521,13 +4539,13 @@
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E51" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.2">

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578B8964-E1B0-4746-9637-83178166F7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E026E9D-25C3-A943-ABA0-F93762E0AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1800" windowWidth="32280" windowHeight="17700" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2100" yWindow="1500" windowWidth="32280" windowHeight="17700" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3789,51 +3789,69 @@
       <c r="C44" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="3" t="str">
+      <c r="D44" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="G44" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>70</v>
+      </c>
+      <c r="G44" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="J44" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="H44" s="1">
+        <v>20</v>
+      </c>
+      <c r="J44" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K44" s="1"/>
-      <c r="M44" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N44" s="1"/>
-      <c r="P44" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="N44" s="1">
+        <v>50</v>
+      </c>
+      <c r="P44" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q44" s="1"/>
-      <c r="S44" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>40</v>
+      </c>
+      <c r="S44" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T44" s="1"/>
-      <c r="V44" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="T44" s="1">
+        <v>80</v>
+      </c>
+      <c r="V44" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W44" s="1"/>
-      <c r="Y44" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y44" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z44" s="1"/>
-      <c r="AB44" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB44" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC44" s="1"/>
+        <v>-15</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
@@ -4049,42 +4067,42 @@
       </c>
       <c r="E49" s="12">
         <f>SUM(D13:D46)</f>
-        <v>42.5</v>
+        <v>47.5</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="12">
         <f>SUM(G13:G46)</f>
-        <v>-132.5</v>
+        <v>-152.5</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K49" s="12">
         <f>SUM(J13:J46)</f>
-        <v>-55</v>
+        <v>-80</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N49" s="12">
         <f>SUM(M13:M46)</f>
-        <v>-50</v>
+        <v>-55</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q49" s="12">
         <f>SUM(P13:P46)</f>
-        <v>77.5</v>
+        <v>67.5</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T49" s="12">
         <f>SUM(S13:S46)</f>
-        <v>-127.5</v>
+        <v>-107.5</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>7</v>
@@ -4098,14 +4116,14 @@
       </c>
       <c r="Z49" s="12">
         <f>SUM(Y13:Y46)</f>
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="AB49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC49" s="12">
         <f>SUM(AB13:AB46)</f>
-        <v>-210</v>
+        <v>-225</v>
       </c>
       <c r="AD49" s="1">
         <f>SUM(E49,H49,K49,N49,Q49,T49,W49,Z49,AC49)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E026E9D-25C3-A943-ABA0-F93762E0AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA3784B-2544-C341-87EA-6C91EA076B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1500" windowWidth="32280" windowHeight="17700" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2100" yWindow="1480" windowWidth="32280" windowHeight="17700" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3863,51 +3863,69 @@
       <c r="C45" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="3" t="str">
+      <c r="D45" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="G45" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>70</v>
+      </c>
+      <c r="G45" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="J45" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="H45" s="1">
+        <v>50</v>
+      </c>
+      <c r="J45" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K45" s="1"/>
-      <c r="M45" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N45" s="1"/>
-      <c r="P45" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="N45" s="1">
+        <v>30</v>
+      </c>
+      <c r="P45" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q45" s="1"/>
-      <c r="S45" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>80</v>
+      </c>
+      <c r="S45" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T45" s="1"/>
-      <c r="V45" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="T45" s="1">
+        <v>40</v>
+      </c>
+      <c r="V45" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W45" s="1"/>
-      <c r="Y45" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="W45" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y45" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z45" s="1"/>
-      <c r="AB45" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB45" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC45" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -4067,49 +4085,49 @@
       </c>
       <c r="E49" s="12">
         <f>SUM(D13:D46)</f>
-        <v>47.5</v>
+        <v>52.5</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H49" s="12">
         <f>SUM(G13:G46)</f>
-        <v>-152.5</v>
+        <v>-157.5</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K49" s="12">
         <f>SUM(J13:J46)</f>
-        <v>-80</v>
+        <v>-105</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N49" s="12">
         <f>SUM(M13:M46)</f>
-        <v>-55</v>
+        <v>-70</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q49" s="12">
         <f>SUM(P13:P46)</f>
-        <v>67.5</v>
+        <v>87.5</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T49" s="12">
         <f>SUM(S13:S46)</f>
-        <v>-107.5</v>
+        <v>-117.5</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W49" s="12">
         <f>SUM(V13:V46)</f>
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="Y49" s="7" t="s">
         <v>7</v>
@@ -4123,7 +4141,7 @@
       </c>
       <c r="AC49" s="12">
         <f>SUM(AB13:AB46)</f>
-        <v>-225</v>
+        <v>-175</v>
       </c>
       <c r="AD49" s="1">
         <f>SUM(E49,H49,K49,N49,Q49,T49,W49,Z49,AC49)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA3784B-2544-C341-87EA-6C91EA076B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620A4D4A-427A-2343-84BC-4C0CCD9CBD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1480" windowWidth="32280" windowHeight="17700" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="3740" yWindow="1160" windowWidth="31520" windowHeight="17740" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
   <si>
     <t>Points</t>
   </si>
@@ -287,6 +287,39 @@
   </si>
   <si>
     <t>JAYAGAN ARMY</t>
+  </si>
+  <si>
+    <t>RCB vs CSK</t>
+  </si>
+  <si>
+    <t>DC vs RR</t>
+  </si>
+  <si>
+    <t>SRH vs PBKS</t>
+  </si>
+  <si>
+    <t>CSK vs KKR</t>
+  </si>
+  <si>
+    <t>RCB vs MI</t>
+  </si>
+  <si>
+    <t>SRH vs RR</t>
+  </si>
+  <si>
+    <t>KKR vs DC</t>
+  </si>
+  <si>
+    <t>MI vs PBKS</t>
+  </si>
+  <si>
+    <t>RR vs RCB</t>
+  </si>
+  <si>
+    <t>SRH vs CSK</t>
+  </si>
+  <si>
+    <t>KKR vs PBKS</t>
   </si>
 </sst>
 </file>
@@ -548,9 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,6 +589,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1162,15 +1195,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BE9CB7-B9A7-B347-86F0-C3EB9B5BFBBD}">
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AD63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD49" sqref="AD49"/>
+      <pane ySplit="11" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD60" sqref="AD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.83203125" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="1.6640625" customWidth="1"/>
@@ -1199,24 +1233,24 @@
         <v>50</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -1226,22 +1260,22 @@
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
     </row>
     <row r="4" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
@@ -1251,22 +1285,22 @@
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
     </row>
     <row r="5" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
@@ -1276,22 +1310,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
     </row>
     <row r="6" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
@@ -1301,22 +1335,22 @@
         <v>-5</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
     </row>
     <row r="7" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
@@ -1326,22 +1360,22 @@
         <v>-10</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
     </row>
     <row r="8" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
@@ -1351,22 +1385,22 @@
         <v>-15</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
@@ -1387,42 +1421,42 @@
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="G11" s="22" t="s">
+      <c r="E11" s="23"/>
+      <c r="G11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="J11" s="22" t="s">
+      <c r="H11" s="22"/>
+      <c r="J11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="M11" s="22" t="s">
+      <c r="K11" s="22"/>
+      <c r="M11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="P11" s="22" t="s">
+      <c r="N11" s="22"/>
+      <c r="P11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="23"/>
-      <c r="S11" s="22" t="s">
+      <c r="Q11" s="22"/>
+      <c r="S11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="23"/>
-      <c r="V11" s="22" t="s">
+      <c r="T11" s="22"/>
+      <c r="V11" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="W11" s="23"/>
-      <c r="Y11" s="22" t="s">
+      <c r="W11" s="22"/>
+      <c r="Y11" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="Z11" s="23"/>
-      <c r="AB11" s="22" t="s">
+      <c r="Z11" s="22"/>
+      <c r="AB11" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AC11" s="23"/>
+      <c r="AC11" s="22"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -3937,253 +3971,887 @@
       <c r="C46" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="3" t="str">
+      <c r="D46" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="G46" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="E46" s="1">
+        <v>30</v>
+      </c>
+      <c r="G46" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H46" s="1"/>
-      <c r="J46" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="H46" s="1">
+        <v>40</v>
+      </c>
+      <c r="J46" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K46" s="1"/>
-      <c r="M46" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="K46" s="1">
+        <v>50</v>
+      </c>
+      <c r="M46" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N46" s="1"/>
-      <c r="P46" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="N46" s="1">
+        <v>80</v>
+      </c>
+      <c r="P46" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q46" s="1"/>
-      <c r="S46" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>60</v>
+      </c>
+      <c r="S46" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T46" s="1"/>
-      <c r="V46" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W46" s="1"/>
-      <c r="Y46" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="W46" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y46" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z46" s="1"/>
-      <c r="AB46" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC46" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="1">
+        <v>35</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="G47" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="J47" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="M47" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="P47" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="S47" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="V47" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W47" s="1"/>
+      <c r="Y47" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z47" s="1"/>
+      <c r="AB47" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC47" s="1"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>36</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="G48" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="J48" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="M48" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="P48" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="S48" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="V48" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W48" s="1"/>
+      <c r="Y48" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z48" s="1"/>
+      <c r="AB48" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC48" s="1"/>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>37</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="G49" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="J49" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="M49" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="P49" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="S49" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="V49" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W49" s="1"/>
+      <c r="Y49" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z49" s="1"/>
+      <c r="AB49" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC49" s="1"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>38</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="G50" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="J50" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="M50" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="P50" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q50" s="1"/>
+      <c r="S50" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="V50" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W50" s="1"/>
+      <c r="Y50" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z50" s="1"/>
+      <c r="AB50" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC50" s="1"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>39</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="G51" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="J51" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="M51" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="P51" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q51" s="1"/>
+      <c r="S51" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T51" s="1"/>
+      <c r="V51" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W51" s="1"/>
+      <c r="Y51" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z51" s="1"/>
+      <c r="AB51" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC51" s="1"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>40</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="G52" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="J52" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="M52" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="P52" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q52" s="1"/>
+      <c r="S52" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T52" s="1"/>
+      <c r="V52" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W52" s="1"/>
+      <c r="Y52" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z52" s="1"/>
+      <c r="AB52" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC52" s="1"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>41</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="G53" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="J53" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="M53" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="P53" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q53" s="1"/>
+      <c r="S53" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T53" s="1"/>
+      <c r="V53" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W53" s="1"/>
+      <c r="Y53" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z53" s="1"/>
+      <c r="AB53" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC53" s="1"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>42</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="G54" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="J54" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="M54" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="P54" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q54" s="1"/>
+      <c r="S54" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="V54" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W54" s="1"/>
+      <c r="Y54" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z54" s="1"/>
+      <c r="AB54" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC54" s="1"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>43</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="G55" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="J55" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="M55" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="P55" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q55" s="1"/>
+      <c r="S55" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="V55" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W55" s="1"/>
+      <c r="Y55" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z55" s="1"/>
+      <c r="AB55" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC55" s="1"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="G56" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="J56" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="M56" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="P56" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q56" s="1"/>
+      <c r="S56" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="V56" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W56" s="1"/>
+      <c r="Y56" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z56" s="1"/>
+      <c r="AB56" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC56" s="1"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="G57" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="J57" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="M57" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N57" s="1"/>
+      <c r="P57" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q57" s="1"/>
+      <c r="S57" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T57" s="1"/>
+      <c r="V57" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W57" s="1"/>
+      <c r="Y57" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z57" s="1"/>
+      <c r="AB57" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC57" s="1"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="B58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="9" t="s">
+      <c r="C58" s="10"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="9" t="s">
+      <c r="G58" s="1"/>
+      <c r="H58" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="9" t="s">
+      <c r="J58" s="1"/>
+      <c r="K58" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="9" t="s">
+      <c r="M58" s="1"/>
+      <c r="N58" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="9" t="s">
+      <c r="P58" s="1"/>
+      <c r="Q58" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S47" s="1"/>
-      <c r="T47" s="9" t="s">
+      <c r="S58" s="1"/>
+      <c r="T58" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V47" s="1"/>
-      <c r="W47" s="9" t="s">
+      <c r="V58" s="1"/>
+      <c r="W58" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="9" t="s">
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="9" t="s">
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="11" t="str">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="11" t="str">
         <f>D12</f>
         <v>Jaya</v>
       </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="11" t="str">
+      <c r="G59" s="1"/>
+      <c r="H59" s="11" t="str">
         <f>G12</f>
         <v>Justin</v>
       </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="11" t="str">
+      <c r="J59" s="1"/>
+      <c r="K59" s="11" t="str">
         <f>J12</f>
         <v>Ram</v>
       </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="11" t="str">
+      <c r="M59" s="1"/>
+      <c r="N59" s="11" t="str">
         <f>M12</f>
         <v>Sibi</v>
       </c>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="11" t="str">
+      <c r="P59" s="1"/>
+      <c r="Q59" s="11" t="str">
         <f>P12</f>
         <v>Sundar</v>
       </c>
-      <c r="S48" s="1"/>
-      <c r="T48" s="11" t="str">
+      <c r="S59" s="1"/>
+      <c r="T59" s="11" t="str">
         <f>S12</f>
         <v>Balaji</v>
       </c>
-      <c r="V48" s="1"/>
-      <c r="W48" s="11" t="str">
+      <c r="V59" s="1"/>
+      <c r="W59" s="11" t="str">
         <f>V12</f>
         <v>Upili</v>
       </c>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="11" t="str">
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="11" t="str">
         <f>Y12</f>
         <v>Vicky</v>
       </c>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="11" t="str">
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="11" t="str">
         <f>AB12</f>
         <v>Venni</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="21" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="7" t="s">
+    <row r="60" spans="1:30" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E60" s="12">
         <f>SUM(D13:D46)</f>
-        <v>52.5</v>
-      </c>
-      <c r="G49" s="7" t="s">
+        <v>37.5</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H60" s="12">
         <f>SUM(G13:G46)</f>
-        <v>-157.5</v>
-      </c>
-      <c r="J49" s="7" t="s">
+        <v>-167.5</v>
+      </c>
+      <c r="J60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K60" s="12">
         <f>SUM(J13:J46)</f>
-        <v>-105</v>
-      </c>
-      <c r="M49" s="7" t="s">
+        <v>-110</v>
+      </c>
+      <c r="M60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N60" s="12">
         <f>SUM(M13:M46)</f>
-        <v>-70</v>
-      </c>
-      <c r="P49" s="7" t="s">
+        <v>-50</v>
+      </c>
+      <c r="P60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q49" s="12">
+      <c r="Q60" s="12">
         <f>SUM(P13:P46)</f>
         <v>87.5</v>
       </c>
-      <c r="S49" s="7" t="s">
+      <c r="S60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="T49" s="12">
+      <c r="T60" s="12">
         <f>SUM(S13:S46)</f>
-        <v>-117.5</v>
-      </c>
-      <c r="V49" s="7" t="s">
+        <v>-142.5</v>
+      </c>
+      <c r="V60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W49" s="12">
+      <c r="W60" s="12">
         <f>SUM(V13:V46)</f>
-        <v>230</v>
-      </c>
-      <c r="Y49" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Z49" s="12">
+      <c r="Z60" s="12">
         <f>SUM(Y13:Y46)</f>
-        <v>255</v>
-      </c>
-      <c r="AB49" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB60" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AC49" s="12">
+      <c r="AC60" s="12">
         <f>SUM(AB13:AB46)</f>
-        <v>-175</v>
-      </c>
-      <c r="AD49" s="1">
-        <f>SUM(E49,H49,K49,N49,Q49,T49,W49,Z49,AC49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+        <v>-170</v>
+      </c>
+      <c r="AD60" s="1">
+        <f>SUM(E60,H60,K60,N60,Q60,T60,W60,Z60,AC60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="10">
+    <mergeCell ref="I2:X8"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="M11:N11"/>
-    <mergeCell ref="I2:X8"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="Y11:Z11"/>
   </mergeCells>
-  <conditionalFormatting sqref="E49">
+  <conditionalFormatting sqref="E60">
     <cfRule type="cellIs" dxfId="26" priority="79" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4194,7 +4862,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
+  <conditionalFormatting sqref="H60">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4205,7 +4873,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
+  <conditionalFormatting sqref="K60">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4216,7 +4884,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N49">
+  <conditionalFormatting sqref="N60">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4227,7 +4895,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q49">
+  <conditionalFormatting sqref="Q60">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4238,7 +4906,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T49">
+  <conditionalFormatting sqref="T60">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4249,7 +4917,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W49">
+  <conditionalFormatting sqref="W60">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4260,7 +4928,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z49">
+  <conditionalFormatting sqref="Z60">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -4271,7 +4939,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC49">
+  <conditionalFormatting sqref="AC60">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620A4D4A-427A-2343-84BC-4C0CCD9CBD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CAE980-3AE0-3445-88E4-C6AF96C78096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="1160" windowWidth="31520" windowHeight="17740" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2860" yWindow="1000" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,247 @@
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4045,51 +4285,69 @@
       <c r="C47" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="3" t="str">
+      <c r="D47" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="G47" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>50</v>
+      </c>
+      <c r="G47" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H47" s="1"/>
-      <c r="J47" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="H47" s="1">
+        <v>100</v>
+      </c>
+      <c r="J47" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K47" s="1"/>
-      <c r="M47" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="K47" s="1">
+        <v>70</v>
+      </c>
+      <c r="M47" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N47" s="1"/>
-      <c r="P47" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>60</v>
+      </c>
+      <c r="P47" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q47" s="1"/>
-      <c r="S47" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>20</v>
+      </c>
+      <c r="S47" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T47" s="1"/>
-      <c r="V47" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W47" s="1"/>
-      <c r="Y47" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="W47" s="1">
+        <v>40</v>
+      </c>
+      <c r="Y47" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z47" s="1"/>
-      <c r="AB47" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>80</v>
+      </c>
+      <c r="AB47" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC47" s="1"/>
+        <v>-15</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
@@ -4752,64 +5010,64 @@
         <v>7</v>
       </c>
       <c r="E60" s="12">
-        <f>SUM(D13:D46)</f>
-        <v>37.5</v>
+        <f>SUM(D13:D57)</f>
+        <v>32.5</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H60" s="12">
-        <f>SUM(G13:G46)</f>
-        <v>-167.5</v>
+        <f>SUM(G13:G57)</f>
+        <v>-117.5</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K60" s="12">
-        <f>SUM(J13:J46)</f>
-        <v>-110</v>
+        <f>SUM(J13:J57)</f>
+        <v>-105</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N60" s="12">
-        <f>SUM(M13:M46)</f>
+        <f>SUM(M13:M57)</f>
         <v>-50</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q60" s="12">
-        <f>SUM(P13:P46)</f>
-        <v>87.5</v>
+        <f>SUM(P13:P57)</f>
+        <v>67.5</v>
       </c>
       <c r="S60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T60" s="12">
-        <f>SUM(S13:S46)</f>
-        <v>-142.5</v>
+        <f>SUM(S13:S57)</f>
+        <v>-167.5</v>
       </c>
       <c r="V60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W60" s="12">
-        <f>SUM(V13:V46)</f>
-        <v>210</v>
+        <f>SUM(V13:V57)</f>
+        <v>200</v>
       </c>
       <c r="Y60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z60" s="12">
-        <f>SUM(Y13:Y46)</f>
-        <v>305</v>
+        <f>SUM(Y13:Y57)</f>
+        <v>325</v>
       </c>
       <c r="AB60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC60" s="12">
-        <f>SUM(AB13:AB46)</f>
-        <v>-170</v>
+        <f>SUM(AB13:AB57)</f>
+        <v>-185</v>
       </c>
       <c r="AD60" s="1">
         <f>SUM(E60,H60,K60,N60,Q60,T60,W60,Z60,AC60)</f>
@@ -4852,13 +5110,13 @@
     <mergeCell ref="M11:N11"/>
   </mergeCells>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="26" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="81" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="105" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CAE980-3AE0-3445-88E4-C6AF96C78096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AD816F-DF14-BA47-9AFC-9C6BD9614366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2860" yWindow="1000" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -4359,51 +4359,69 @@
       <c r="C48" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="3" t="str">
+      <c r="D48" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="G48" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="E48" s="1">
+        <v>30</v>
+      </c>
+      <c r="G48" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H48" s="1"/>
-      <c r="J48" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="H48" s="1">
+        <v>40</v>
+      </c>
+      <c r="J48" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K48" s="1"/>
-      <c r="M48" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="K48" s="1">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N48" s="1"/>
-      <c r="P48" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="N48" s="1">
+        <v>50</v>
+      </c>
+      <c r="P48" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q48" s="1"/>
-      <c r="S48" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>20</v>
+      </c>
+      <c r="S48" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T48" s="1"/>
-      <c r="V48" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W48" s="1"/>
-      <c r="Y48" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="W48" s="1">
+        <v>80</v>
+      </c>
+      <c r="Y48" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z48" s="1"/>
-      <c r="AB48" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB48" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC48" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
@@ -4415,51 +4433,69 @@
       <c r="C49" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D49" s="3" t="str">
+      <c r="D49" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="G49" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>60</v>
+      </c>
+      <c r="G49" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="J49" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="H49" s="1">
+        <v>30</v>
+      </c>
+      <c r="J49" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K49" s="1"/>
-      <c r="M49" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="K49" s="1">
+        <v>80</v>
+      </c>
+      <c r="M49" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N49" s="1"/>
-      <c r="P49" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q49" s="1"/>
-      <c r="S49" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>20</v>
+      </c>
+      <c r="S49" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T49" s="1"/>
-      <c r="V49" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="T49" s="1">
+        <v>50</v>
+      </c>
+      <c r="V49" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W49" s="1"/>
-      <c r="Y49" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="W49" s="1">
+        <v>70</v>
+      </c>
+      <c r="Y49" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z49" s="1"/>
-      <c r="AB49" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB49" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC49" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
@@ -5011,63 +5047,63 @@
       </c>
       <c r="E60" s="12">
         <f>SUM(D13:D57)</f>
-        <v>32.5</v>
+        <v>17.5</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H60" s="12">
         <f>SUM(G13:G57)</f>
-        <v>-117.5</v>
+        <v>-142.5</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K60" s="12">
         <f>SUM(J13:J57)</f>
-        <v>-105</v>
+        <v>-35</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N60" s="12">
         <f>SUM(M13:M57)</f>
-        <v>-50</v>
+        <v>-80</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q60" s="12">
         <f>SUM(P13:P57)</f>
-        <v>67.5</v>
+        <v>27.5</v>
       </c>
       <c r="S60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T60" s="12">
         <f>SUM(S13:S57)</f>
-        <v>-167.5</v>
+        <v>-197.5</v>
       </c>
       <c r="V60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W60" s="12">
         <f>SUM(V13:V57)</f>
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="Y60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z60" s="12">
         <f>SUM(Y13:Y57)</f>
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="AB60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC60" s="12">
         <f>SUM(AB13:AB57)</f>
-        <v>-185</v>
+        <v>-130</v>
       </c>
       <c r="AD60" s="1">
         <f>SUM(E60,H60,K60,N60,Q60,T60,W60,Z60,AC60)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AD816F-DF14-BA47-9AFC-9C6BD9614366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928B19EE-7A72-054C-97B7-74C352C194E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="1000" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2600" yWindow="1440" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4507,51 +4507,69 @@
       <c r="C50" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D50" s="3" t="str">
+      <c r="D50" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="G50" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>60</v>
+      </c>
+      <c r="G50" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H50" s="1"/>
-      <c r="J50" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K50" s="1"/>
-      <c r="M50" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="K50" s="1">
+        <v>80</v>
+      </c>
+      <c r="M50" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N50" s="1"/>
-      <c r="P50" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="N50" s="1">
+        <v>40</v>
+      </c>
+      <c r="P50" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q50" s="1"/>
-      <c r="S50" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>70</v>
+      </c>
+      <c r="S50" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T50" s="1"/>
-      <c r="V50" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="T50" s="1">
+        <v>100</v>
+      </c>
+      <c r="V50" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W50" s="1"/>
-      <c r="Y50" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="W50" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y50" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z50" s="1"/>
-      <c r="AB50" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB50" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC50" s="1"/>
+        <v>-15</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
@@ -4563,51 +4581,69 @@
       <c r="C51" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="3" t="str">
+      <c r="D51" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="G51" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1">
+        <v>70</v>
+      </c>
+      <c r="G51" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H51" s="1"/>
-      <c r="J51" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="H51" s="1">
+        <v>80</v>
+      </c>
+      <c r="J51" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="M51" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>60</v>
+      </c>
+      <c r="M51" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N51" s="1"/>
-      <c r="P51" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="N51" s="1">
+        <v>20</v>
+      </c>
+      <c r="P51" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q51" s="1"/>
-      <c r="S51" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>100</v>
+      </c>
+      <c r="S51" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T51" s="1"/>
-      <c r="V51" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="T51" s="1">
+        <v>30</v>
+      </c>
+      <c r="V51" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W51" s="1"/>
-      <c r="Y51" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z51" s="1"/>
-      <c r="AB51" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB51" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC51" s="1"/>
+        <v>-10</v>
+      </c>
+      <c r="AC51" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
@@ -5047,63 +5083,63 @@
       </c>
       <c r="E60" s="12">
         <f>SUM(D13:D57)</f>
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H60" s="12">
         <f>SUM(G13:G57)</f>
-        <v>-142.5</v>
+        <v>-147.5</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K60" s="12">
         <f>SUM(J13:J57)</f>
-        <v>-35</v>
+        <v>-15</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N60" s="12">
         <f>SUM(M13:M57)</f>
-        <v>-80</v>
+        <v>-110</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q60" s="12">
         <f>SUM(P13:P57)</f>
-        <v>27.5</v>
+        <v>82.5</v>
       </c>
       <c r="S60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T60" s="12">
         <f>SUM(S13:S57)</f>
-        <v>-197.5</v>
+        <v>-162.5</v>
       </c>
       <c r="V60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W60" s="12">
         <f>SUM(V13:V57)</f>
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="Y60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z60" s="12">
         <f>SUM(Y13:Y57)</f>
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="AB60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC60" s="12">
         <f>SUM(AB13:AB57)</f>
-        <v>-130</v>
+        <v>-155</v>
       </c>
       <c r="AD60" s="1">
         <f>SUM(E60,H60,K60,N60,Q60,T60,W60,Z60,AC60)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928B19EE-7A72-054C-97B7-74C352C194E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B571F6B1-1F08-E34E-A286-62216F357EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1440" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2600" yWindow="1400" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4655,51 +4655,69 @@
       <c r="C52" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="3" t="str">
+      <c r="D52" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="G52" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>60</v>
+      </c>
+      <c r="G52" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="J52" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="H52" s="1">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K52" s="1"/>
-      <c r="M52" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="K52" s="1">
+        <v>30</v>
+      </c>
+      <c r="M52" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N52" s="1"/>
-      <c r="P52" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="N52" s="1">
+        <v>80</v>
+      </c>
+      <c r="P52" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q52" s="1"/>
-      <c r="S52" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>40</v>
+      </c>
+      <c r="S52" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T52" s="1"/>
-      <c r="V52" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="T52" s="1">
+        <v>20</v>
+      </c>
+      <c r="V52" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W52" s="1"/>
-      <c r="Y52" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="W52" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y52" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z52" s="1"/>
-      <c r="AB52" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC52" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
@@ -5090,56 +5108,56 @@
       </c>
       <c r="H60" s="12">
         <f>SUM(G13:G57)</f>
-        <v>-147.5</v>
+        <v>-97.5</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K60" s="12">
         <f>SUM(J13:J57)</f>
-        <v>-15</v>
+        <v>-30</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N60" s="12">
         <f>SUM(M13:M57)</f>
-        <v>-110</v>
+        <v>-90</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q60" s="12">
         <f>SUM(P13:P57)</f>
-        <v>82.5</v>
+        <v>72.5</v>
       </c>
       <c r="S60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T60" s="12">
         <f>SUM(S13:S57)</f>
-        <v>-162.5</v>
+        <v>-182.5</v>
       </c>
       <c r="V60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W60" s="12">
         <f>SUM(V13:V57)</f>
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Y60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z60" s="12">
         <f>SUM(Y13:Y57)</f>
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="AB60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC60" s="12">
         <f>SUM(AB13:AB57)</f>
-        <v>-155</v>
+        <v>-150</v>
       </c>
       <c r="AD60" s="1">
         <f>SUM(E60,H60,K60,N60,Q60,T60,W60,Z60,AC60)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B571F6B1-1F08-E34E-A286-62216F357EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BA6447-58DE-F043-A36B-19123A8619D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="1400" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -4729,51 +4729,69 @@
       <c r="C53" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D53" s="3" t="str">
+      <c r="D53" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="G53" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>60</v>
+      </c>
+      <c r="G53" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H53" s="1"/>
-      <c r="J53" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="H53" s="1">
+        <v>80</v>
+      </c>
+      <c r="J53" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K53" s="1"/>
-      <c r="M53" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="K53" s="1">
+        <v>100</v>
+      </c>
+      <c r="M53" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N53" s="1"/>
-      <c r="P53" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="N53" s="1">
+        <v>30</v>
+      </c>
+      <c r="P53" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q53" s="1"/>
-      <c r="S53" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>70</v>
+      </c>
+      <c r="S53" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T53" s="1"/>
-      <c r="V53" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="T53" s="1">
+        <v>20</v>
+      </c>
+      <c r="V53" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W53" s="1"/>
-      <c r="Y53" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="W53" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y53" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z53" s="1"/>
-      <c r="AB53" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="Z53" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC53" s="1"/>
+        <v>-10</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
@@ -4785,51 +4803,69 @@
       <c r="C54" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D54" s="3" t="str">
+      <c r="D54" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="G54" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="E54" s="1">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H54" s="1"/>
-      <c r="J54" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="H54" s="1">
+        <v>70</v>
+      </c>
+      <c r="J54" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K54" s="1"/>
-      <c r="M54" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>60</v>
+      </c>
+      <c r="M54" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N54" s="1"/>
-      <c r="P54" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="N54" s="1">
+        <v>40</v>
+      </c>
+      <c r="P54" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q54" s="1"/>
-      <c r="S54" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>80</v>
+      </c>
+      <c r="S54" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T54" s="1"/>
-      <c r="V54" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="T54" s="1">
+        <v>30</v>
+      </c>
+      <c r="V54" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W54" s="1"/>
-      <c r="Y54" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z54" s="1"/>
-      <c r="AB54" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB54" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC54" s="1"/>
+        <v>-20</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
@@ -5101,63 +5137,63 @@
       </c>
       <c r="E60" s="12">
         <f>SUM(D13:D57)</f>
-        <v>22.5</v>
+        <v>72.5</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H60" s="12">
         <f>SUM(G13:G57)</f>
-        <v>-97.5</v>
+        <v>-72.5</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K60" s="12">
         <f>SUM(J13:J57)</f>
-        <v>-30</v>
+        <v>20</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N60" s="12">
         <f>SUM(M13:M57)</f>
-        <v>-90</v>
+        <v>-115</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q60" s="12">
         <f>SUM(P13:P57)</f>
-        <v>72.5</v>
+        <v>97.5</v>
       </c>
       <c r="S60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T60" s="12">
         <f>SUM(S13:S57)</f>
-        <v>-182.5</v>
+        <v>-217.5</v>
       </c>
       <c r="V60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W60" s="12">
         <f>SUM(V13:V57)</f>
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="Y60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z60" s="12">
         <f>SUM(Y13:Y57)</f>
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="AB60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC60" s="12">
         <f>SUM(AB13:AB57)</f>
-        <v>-150</v>
+        <v>-180</v>
       </c>
       <c r="AD60" s="1">
         <f>SUM(E60,H60,K60,N60,Q60,T60,W60,Z60,AC60)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BA6447-58DE-F043-A36B-19123A8619D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F0CA2F-4E68-754C-8ADC-592A8FDA1868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="1400" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -4877,51 +4877,69 @@
       <c r="C55" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="3" t="str">
+      <c r="D55" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="G55" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="E55" s="1">
+        <v>20</v>
+      </c>
+      <c r="G55" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H55" s="1"/>
-      <c r="J55" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="H55" s="1">
+        <v>40</v>
+      </c>
+      <c r="J55" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K55" s="1"/>
-      <c r="M55" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>60</v>
+      </c>
+      <c r="M55" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N55" s="1"/>
-      <c r="P55" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="N55" s="1">
+        <v>100</v>
+      </c>
+      <c r="P55" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q55" s="1"/>
-      <c r="S55" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>70</v>
+      </c>
+      <c r="S55" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T55" s="1"/>
-      <c r="V55" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="T55" s="1">
+        <v>50</v>
+      </c>
+      <c r="V55" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W55" s="1"/>
-      <c r="Y55" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z55" s="1"/>
-      <c r="AB55" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="Z55" s="1">
+        <v>80</v>
+      </c>
+      <c r="AB55" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC55" s="1"/>
+        <v>-15</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
@@ -5137,14 +5155,14 @@
       </c>
       <c r="E60" s="12">
         <f>SUM(D13:D57)</f>
-        <v>72.5</v>
+        <v>52.5</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H60" s="12">
         <f>SUM(G13:G57)</f>
-        <v>-72.5</v>
+        <v>-82.5</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>7</v>
@@ -5158,42 +5176,42 @@
       </c>
       <c r="N60" s="12">
         <f>SUM(M13:M57)</f>
-        <v>-115</v>
+        <v>-65</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q60" s="12">
         <f>SUM(P13:P57)</f>
-        <v>97.5</v>
+        <v>102.5</v>
       </c>
       <c r="S60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T60" s="12">
         <f>SUM(S13:S57)</f>
-        <v>-217.5</v>
+        <v>-222.5</v>
       </c>
       <c r="V60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W60" s="12">
         <f>SUM(V13:V57)</f>
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="Y60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z60" s="12">
         <f>SUM(Y13:Y57)</f>
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AB60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC60" s="12">
         <f>SUM(AB13:AB57)</f>
-        <v>-180</v>
+        <v>-195</v>
       </c>
       <c r="AD60" s="1">
         <f>SUM(E60,H60,K60,N60,Q60,T60,W60,Z60,AC60)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F0CA2F-4E68-754C-8ADC-592A8FDA1868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEAB1E-39CB-1541-8C24-0EB308B00499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="1400" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -4951,51 +4951,69 @@
       <c r="C56" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="3" t="str">
+      <c r="D56" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="G56" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>60</v>
+      </c>
+      <c r="G56" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H56" s="1"/>
-      <c r="J56" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="H56" s="1">
+        <v>80</v>
+      </c>
+      <c r="J56" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K56" s="1"/>
-      <c r="M56" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="K56" s="1">
+        <v>50</v>
+      </c>
+      <c r="M56" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N56" s="1"/>
-      <c r="P56" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="N56" s="1">
+        <v>30</v>
+      </c>
+      <c r="P56" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q56" s="1"/>
-      <c r="S56" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>40</v>
+      </c>
+      <c r="S56" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T56" s="1"/>
-      <c r="V56" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="T56" s="1">
+        <v>20</v>
+      </c>
+      <c r="V56" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W56" s="1"/>
-      <c r="Y56" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z56" s="1"/>
-      <c r="AB56" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="Z56" s="1">
+        <v>70</v>
+      </c>
+      <c r="AB56" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC56" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
@@ -5162,56 +5180,56 @@
       </c>
       <c r="H60" s="12">
         <f>SUM(G13:G57)</f>
-        <v>-82.5</v>
+        <v>-62.5</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K60" s="12">
         <f>SUM(J13:J57)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N60" s="12">
         <f>SUM(M13:M57)</f>
-        <v>-65</v>
+        <v>-80</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q60" s="12">
         <f>SUM(P13:P57)</f>
-        <v>102.5</v>
+        <v>92.5</v>
       </c>
       <c r="S60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T60" s="12">
         <f>SUM(S13:S57)</f>
-        <v>-222.5</v>
+        <v>-242.5</v>
       </c>
       <c r="V60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W60" s="12">
         <f>SUM(V13:V57)</f>
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="Y60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z60" s="12">
         <f>SUM(Y13:Y57)</f>
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AB60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC60" s="12">
         <f>SUM(AB13:AB57)</f>
-        <v>-195</v>
+        <v>-145</v>
       </c>
       <c r="AD60" s="1">
         <f>SUM(E60,H60,K60,N60,Q60,T60,W60,Z60,AC60)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEAB1E-39CB-1541-8C24-0EB308B00499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160FBFB4-D031-214F-AB38-6F2673EDD102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="1400" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -5025,51 +5025,69 @@
       <c r="C57" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="3" t="str">
+      <c r="D57" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="G57" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>60</v>
+      </c>
+      <c r="G57" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H57" s="1"/>
-      <c r="J57" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="H57" s="1">
+        <v>50</v>
+      </c>
+      <c r="J57" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K57" s="1"/>
-      <c r="M57" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="K57" s="1">
+        <v>30</v>
+      </c>
+      <c r="M57" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N57" s="1"/>
-      <c r="P57" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q57" s="1"/>
-      <c r="S57" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>80</v>
+      </c>
+      <c r="S57" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T57" s="1"/>
-      <c r="V57" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="T57" s="1">
+        <v>40</v>
+      </c>
+      <c r="V57" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W57" s="1"/>
-      <c r="Y57" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="W57" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y57" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z57" s="1"/>
-      <c r="AB57" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Z57" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB57" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC57" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
@@ -5180,56 +5198,56 @@
       </c>
       <c r="H60" s="12">
         <f>SUM(G13:G57)</f>
-        <v>-62.5</v>
+        <v>-67.5</v>
       </c>
       <c r="J60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K60" s="12">
         <f>SUM(J13:J57)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N60" s="12">
         <f>SUM(M13:M57)</f>
-        <v>-80</v>
+        <v>-105</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q60" s="12">
         <f>SUM(P13:P57)</f>
-        <v>92.5</v>
+        <v>112.5</v>
       </c>
       <c r="S60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T60" s="12">
         <f>SUM(S13:S57)</f>
-        <v>-242.5</v>
+        <v>-252.5</v>
       </c>
       <c r="V60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W60" s="12">
         <f>SUM(V13:V57)</f>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Y60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z60" s="12">
         <f>SUM(Y13:Y57)</f>
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="AB60" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC60" s="12">
         <f>SUM(AB13:AB57)</f>
-        <v>-145</v>
+        <v>-140</v>
       </c>
       <c r="AD60" s="1">
         <f>SUM(E60,H60,K60,N60,Q60,T60,W60,Z60,AC60)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160FBFB4-D031-214F-AB38-6F2673EDD102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D417B-4525-224B-8939-B7640A908148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2600" yWindow="1400" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="107">
   <si>
     <t>Points</t>
   </si>
@@ -320,6 +320,39 @@
   </si>
   <si>
     <t>KKR vs PBKS</t>
+  </si>
+  <si>
+    <t>MI vs DC</t>
+  </si>
+  <si>
+    <t>RR vs CSK</t>
+  </si>
+  <si>
+    <t>RCB vs PBKS</t>
+  </si>
+  <si>
+    <t>KKR vs SRH</t>
+  </si>
+  <si>
+    <t>DC vs CSK</t>
+  </si>
+  <si>
+    <t>RR vs MI</t>
+  </si>
+  <si>
+    <t>RCB vs SRH</t>
+  </si>
+  <si>
+    <t>CSK vs PBKS</t>
+  </si>
+  <si>
+    <t>KKR vs RR</t>
+  </si>
+  <si>
+    <t>SRH vs MI</t>
+  </si>
+  <si>
+    <t>RCB vs DC</t>
   </si>
 </sst>
 </file>
@@ -1435,11 +1468,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BE9CB7-B9A7-B347-86F0-C3EB9B5BFBBD}">
-  <dimension ref="A1:AD63"/>
+  <dimension ref="A1:AD74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD60" sqref="AD60"/>
+      <pane ySplit="11" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD71" sqref="AD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4423,7 +4456,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>37</v>
       </c>
@@ -4497,7 +4530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>38</v>
       </c>
@@ -4571,7 +4604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>39</v>
       </c>
@@ -4645,7 +4678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>40</v>
       </c>
@@ -4719,7 +4752,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>41</v>
       </c>
@@ -4793,7 +4826,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>42</v>
       </c>
@@ -4867,7 +4900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43</v>
       </c>
@@ -4941,7 +4974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44</v>
       </c>
@@ -5015,7 +5048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45</v>
       </c>
@@ -5089,191 +5122,807 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>46</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="G58" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="J58" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="M58" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N58" s="1"/>
+      <c r="P58" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q58" s="1"/>
+      <c r="S58" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="V58" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W58" s="1"/>
+      <c r="Y58" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z58" s="1"/>
+      <c r="AB58" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC58" s="1"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>47</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="G59" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="J59" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="M59" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N59" s="1"/>
+      <c r="P59" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q59" s="1"/>
+      <c r="S59" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="V59" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W59" s="1"/>
+      <c r="Y59" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z59" s="1"/>
+      <c r="AB59" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC59" s="1"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>48</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="G60" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="J60" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="M60" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="P60" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q60" s="1"/>
+      <c r="S60" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="V60" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W60" s="1"/>
+      <c r="Y60" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z60" s="1"/>
+      <c r="AB60" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC60" s="1"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>49</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="G61" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="J61" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="M61" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="P61" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q61" s="1"/>
+      <c r="S61" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T61" s="1"/>
+      <c r="V61" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W61" s="1"/>
+      <c r="Y61" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z61" s="1"/>
+      <c r="AB61" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC61" s="1"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>50</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="G62" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="J62" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="M62" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="P62" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q62" s="1"/>
+      <c r="S62" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T62" s="1"/>
+      <c r="V62" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W62" s="1"/>
+      <c r="Y62" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z62" s="1"/>
+      <c r="AB62" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC62" s="1"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>51</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="G63" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="J63" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="M63" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="P63" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q63" s="1"/>
+      <c r="S63" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T63" s="1"/>
+      <c r="V63" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W63" s="1"/>
+      <c r="Y63" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z63" s="1"/>
+      <c r="AB63" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC63" s="1"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>52</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="G64" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="J64" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="M64" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N64" s="1"/>
+      <c r="P64" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q64" s="1"/>
+      <c r="S64" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T64" s="1"/>
+      <c r="V64" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W64" s="1"/>
+      <c r="Y64" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z64" s="1"/>
+      <c r="AB64" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC64" s="1"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>53</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="G65" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="J65" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="M65" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="P65" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q65" s="1"/>
+      <c r="S65" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T65" s="1"/>
+      <c r="V65" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W65" s="1"/>
+      <c r="Y65" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z65" s="1"/>
+      <c r="AB65" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC65" s="1"/>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>54</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="G66" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="J66" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="M66" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N66" s="1"/>
+      <c r="P66" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q66" s="1"/>
+      <c r="S66" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T66" s="1"/>
+      <c r="V66" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W66" s="1"/>
+      <c r="Y66" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z66" s="1"/>
+      <c r="AB66" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC66" s="1"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>55</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="G67" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="J67" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="M67" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N67" s="1"/>
+      <c r="P67" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q67" s="1"/>
+      <c r="S67" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T67" s="1"/>
+      <c r="V67" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W67" s="1"/>
+      <c r="Y67" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z67" s="1"/>
+      <c r="AB67" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC67" s="1"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>56</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="G68" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="J68" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="M68" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N68" s="1"/>
+      <c r="P68" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q68" s="1"/>
+      <c r="S68" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T68" s="1"/>
+      <c r="V68" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W68" s="1"/>
+      <c r="Y68" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z68" s="1"/>
+      <c r="AB68" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC68" s="1"/>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
+      <c r="B69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="9" t="s">
+      <c r="C69" s="10"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="9" t="s">
+      <c r="G69" s="1"/>
+      <c r="H69" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J58" s="1"/>
-      <c r="K58" s="9" t="s">
+      <c r="J69" s="1"/>
+      <c r="K69" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="9" t="s">
+      <c r="M69" s="1"/>
+      <c r="N69" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="9" t="s">
+      <c r="P69" s="1"/>
+      <c r="Q69" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S58" s="1"/>
-      <c r="T58" s="9" t="s">
+      <c r="S69" s="1"/>
+      <c r="T69" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V58" s="1"/>
-      <c r="W58" s="9" t="s">
+      <c r="V69" s="1"/>
+      <c r="W69" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="9" t="s">
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="9" t="s">
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="11" t="str">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="11" t="str">
         <f>D12</f>
         <v>Jaya</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="H59" s="11" t="str">
+      <c r="G70" s="1"/>
+      <c r="H70" s="11" t="str">
         <f>G12</f>
         <v>Justin</v>
       </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="11" t="str">
+      <c r="J70" s="1"/>
+      <c r="K70" s="11" t="str">
         <f>J12</f>
         <v>Ram</v>
       </c>
-      <c r="M59" s="1"/>
-      <c r="N59" s="11" t="str">
+      <c r="M70" s="1"/>
+      <c r="N70" s="11" t="str">
         <f>M12</f>
         <v>Sibi</v>
       </c>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="11" t="str">
+      <c r="P70" s="1"/>
+      <c r="Q70" s="11" t="str">
         <f>P12</f>
         <v>Sundar</v>
       </c>
-      <c r="S59" s="1"/>
-      <c r="T59" s="11" t="str">
+      <c r="S70" s="1"/>
+      <c r="T70" s="11" t="str">
         <f>S12</f>
         <v>Balaji</v>
       </c>
-      <c r="V59" s="1"/>
-      <c r="W59" s="11" t="str">
+      <c r="V70" s="1"/>
+      <c r="W70" s="11" t="str">
         <f>V12</f>
         <v>Upili</v>
       </c>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="11" t="str">
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="11" t="str">
         <f>Y12</f>
         <v>Vicky</v>
       </c>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="11" t="str">
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="11" t="str">
         <f>AB12</f>
         <v>Venni</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="21" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="7" t="s">
+    <row r="71" spans="1:30" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E71" s="12">
         <f>SUM(D13:D57)</f>
         <v>52.5</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H71" s="12">
         <f>SUM(G13:G57)</f>
         <v>-67.5</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J71" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K71" s="12">
         <f>SUM(J13:J57)</f>
         <v>0</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="M71" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N60" s="12">
+      <c r="N71" s="12">
         <f>SUM(M13:M57)</f>
         <v>-105</v>
       </c>
-      <c r="P60" s="7" t="s">
+      <c r="P71" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q60" s="12">
+      <c r="Q71" s="12">
         <f>SUM(P13:P57)</f>
         <v>112.5</v>
       </c>
-      <c r="S60" s="7" t="s">
+      <c r="S71" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="T60" s="12">
+      <c r="T71" s="12">
         <f>SUM(S13:S57)</f>
         <v>-252.5</v>
       </c>
-      <c r="V60" s="7" t="s">
+      <c r="V71" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W60" s="12">
+      <c r="W71" s="12">
         <f>SUM(V13:V57)</f>
         <v>90</v>
       </c>
-      <c r="Y60" s="7" t="s">
+      <c r="Y71" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Z60" s="12">
+      <c r="Z71" s="12">
         <f>SUM(Y13:Y57)</f>
         <v>310</v>
       </c>
-      <c r="AB60" s="7" t="s">
+      <c r="AB71" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AC60" s="12">
+      <c r="AC71" s="12">
         <f>SUM(AB13:AB57)</f>
         <v>-140</v>
       </c>
-      <c r="AD60" s="1">
-        <f>SUM(E60,H60,K60,N60,Q60,T60,W60,Z60,AC60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="AD71" s="1">
+        <f>SUM(E71,H71,K71,N71,Q71,T71,W71,Z71,AC71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -5289,7 +5938,7 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="M11:N11"/>
   </mergeCells>
-  <conditionalFormatting sqref="E60">
+  <conditionalFormatting sqref="E71">
     <cfRule type="cellIs" dxfId="50" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5300,18 +5949,18 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
+  <conditionalFormatting sqref="K71">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5322,7 +5971,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N60">
+  <conditionalFormatting sqref="N71">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5333,7 +5982,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q60">
+  <conditionalFormatting sqref="Q71">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5344,7 +5993,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T60">
+  <conditionalFormatting sqref="T71">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5355,7 +6004,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W60">
+  <conditionalFormatting sqref="W71">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5366,7 +6015,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z60">
+  <conditionalFormatting sqref="Z71">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5377,7 +6026,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC60">
+  <conditionalFormatting sqref="AC71">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D417B-4525-224B-8939-B7640A908148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33654D6-1A5A-FA48-8204-6E6BDA2D6E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1400" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2360" yWindow="1880" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5132,51 +5132,67 @@
       <c r="C58" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="3" t="str">
+      <c r="D58" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="G58" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1">
+        <v>70</v>
+      </c>
+      <c r="G58" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H58" s="1"/>
-      <c r="J58" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="H58" s="1">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K58" s="1"/>
-      <c r="M58" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(N58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N58" s="1"/>
-      <c r="P58" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="K58" s="1">
+        <v>30</v>
+      </c>
+      <c r="M58" s="3">
+        <v>-22.5</v>
+      </c>
+      <c r="N58" s="1">
+        <v>20</v>
+      </c>
+      <c r="P58" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q58" s="1"/>
-      <c r="S58" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(T58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T58" s="1"/>
-      <c r="V58" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>50</v>
+      </c>
+      <c r="S58" s="3">
+        <v>-22.5</v>
+      </c>
+      <c r="T58" s="1">
+        <v>20</v>
+      </c>
+      <c r="V58" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W58" s="1"/>
-      <c r="Y58" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="W58" s="1">
+        <v>80</v>
+      </c>
+      <c r="Y58" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z58" s="1"/>
-      <c r="AB58" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB58" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC58" s="1"/>
+        <v>-10</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
@@ -5188,51 +5204,69 @@
       <c r="C59" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="3" t="str">
+      <c r="D59" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="G59" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="E59" s="1">
+        <v>40</v>
+      </c>
+      <c r="G59" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H59" s="1"/>
-      <c r="J59" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="H59" s="1">
+        <v>50</v>
+      </c>
+      <c r="J59" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K59" s="1"/>
-      <c r="M59" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="K59" s="1">
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N59" s="1"/>
-      <c r="P59" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q59" s="1"/>
-      <c r="S59" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>70</v>
+      </c>
+      <c r="S59" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T59" s="1"/>
-      <c r="V59" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="T59" s="1">
+        <v>80</v>
+      </c>
+      <c r="V59" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W59" s="1"/>
-      <c r="Y59" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y59" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z59" s="1"/>
-      <c r="AB59" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="Z59" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB59" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC59" s="1"/>
+        <v>-15</v>
+      </c>
+      <c r="AC59" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
@@ -5839,64 +5873,64 @@
         <v>7</v>
       </c>
       <c r="E71" s="12">
-        <f>SUM(D13:D57)</f>
-        <v>52.5</v>
+        <f>SUM(D13:D68)</f>
+        <v>47.5</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H71" s="12">
-        <f>SUM(G13:G57)</f>
-        <v>-67.5</v>
+        <f>SUM(G13:G68)</f>
+        <v>-22.5</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K71" s="12">
-        <f>SUM(J13:J57)</f>
-        <v>0</v>
+        <f>SUM(J13:J68)</f>
+        <v>35</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N71" s="12">
-        <f>SUM(M13:M57)</f>
-        <v>-105</v>
+        <f>SUM(M13:M68)</f>
+        <v>-152.5</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q71" s="12">
-        <f>SUM(P13:P57)</f>
+        <f>SUM(P13:P68)</f>
         <v>112.5</v>
       </c>
       <c r="S71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T71" s="12">
-        <f>SUM(S13:S57)</f>
-        <v>-252.5</v>
+        <f>SUM(S13:S68)</f>
+        <v>-255</v>
       </c>
       <c r="V71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W71" s="12">
-        <f>SUM(V13:V57)</f>
-        <v>90</v>
+        <f>SUM(V13:V68)</f>
+        <v>110</v>
       </c>
       <c r="Y71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z71" s="12">
-        <f>SUM(Y13:Y57)</f>
-        <v>310</v>
+        <f>SUM(Y13:Y68)</f>
+        <v>290</v>
       </c>
       <c r="AB71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC71" s="12">
-        <f>SUM(AB13:AB57)</f>
-        <v>-140</v>
+        <f>SUM(AB13:AB68)</f>
+        <v>-165</v>
       </c>
       <c r="AD71" s="1">
         <f>SUM(E71,H71,K71,N71,Q71,T71,W71,Z71,AC71)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33654D6-1A5A-FA48-8204-6E6BDA2D6E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E075DA5A-EB0E-8547-AA47-9E0D7BF51CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="1880" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -5278,51 +5278,69 @@
       <c r="C60" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="3" t="str">
+      <c r="D60" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="G60" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="E60" s="1">
+        <v>40</v>
+      </c>
+      <c r="G60" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H60" s="1"/>
-      <c r="J60" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="H60" s="1">
+        <v>30</v>
+      </c>
+      <c r="J60" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K60" s="1"/>
-      <c r="M60" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="K60" s="1">
+        <v>80</v>
+      </c>
+      <c r="M60" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N60" s="1"/>
-      <c r="P60" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="N60" s="1">
+        <v>50</v>
+      </c>
+      <c r="P60" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q60" s="1"/>
-      <c r="S60" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T60" s="1"/>
-      <c r="V60" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1">
+        <v>60</v>
+      </c>
+      <c r="V60" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W60" s="1"/>
-      <c r="Y60" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="W60" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y60" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z60" s="1"/>
-      <c r="AB60" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC60" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC60" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
@@ -5334,51 +5352,69 @@
       <c r="C61" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="3" t="str">
+      <c r="D61" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="G61" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="E61" s="1">
+        <v>40</v>
+      </c>
+      <c r="G61" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H61" s="1"/>
-      <c r="J61" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="H61" s="1">
+        <v>20</v>
+      </c>
+      <c r="J61" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K61" s="1"/>
-      <c r="M61" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="K61" s="1">
+        <v>80</v>
+      </c>
+      <c r="M61" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N61" s="1"/>
-      <c r="P61" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q61" s="1"/>
-      <c r="S61" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>30</v>
+      </c>
+      <c r="S61" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T61" s="1"/>
-      <c r="V61" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1">
+        <v>60</v>
+      </c>
+      <c r="V61" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W61" s="1"/>
-      <c r="Y61" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="W61" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y61" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z61" s="1"/>
-      <c r="AB61" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="Z61" s="1">
+        <v>70</v>
+      </c>
+      <c r="AB61" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC61" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
@@ -5874,35 +5910,35 @@
       </c>
       <c r="E71" s="12">
         <f>SUM(D13:D68)</f>
-        <v>47.5</v>
+        <v>27.5</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H71" s="12">
         <f>SUM(G13:G68)</f>
-        <v>-22.5</v>
+        <v>-57.5</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K71" s="12">
         <f>SUM(J13:J68)</f>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N71" s="12">
         <f>SUM(M13:M68)</f>
-        <v>-152.5</v>
+        <v>-182.5</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q71" s="12">
         <f>SUM(P13:P68)</f>
-        <v>112.5</v>
+        <v>147.5</v>
       </c>
       <c r="S71" s="7" t="s">
         <v>7</v>
@@ -5916,14 +5952,14 @@
       </c>
       <c r="W71" s="12">
         <f>SUM(V13:V68)</f>
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="Y71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z71" s="12">
         <f>SUM(Y13:Y68)</f>
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AB71" s="7" t="s">
         <v>7</v>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E075DA5A-EB0E-8547-AA47-9E0D7BF51CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681CD656-2963-534F-A158-D19DEA510828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="1880" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="3440" yWindow="1280" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,6 +614,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,9 +625,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -642,247 +642,7 @@
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1506,24 +1266,24 @@
         <v>50</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -1533,22 +1293,22 @@
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
@@ -1558,22 +1318,22 @@
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
     </row>
     <row r="5" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
@@ -1583,22 +1343,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
     </row>
     <row r="6" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
@@ -1608,22 +1368,22 @@
         <v>-5</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
     </row>
     <row r="7" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
@@ -1633,22 +1393,22 @@
         <v>-10</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
@@ -1658,22 +1418,22 @@
         <v>-15</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
@@ -1694,42 +1454,42 @@
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="G11" s="21" t="s">
+      <c r="E11" s="24"/>
+      <c r="G11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="J11" s="21" t="s">
+      <c r="H11" s="23"/>
+      <c r="J11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="M11" s="21" t="s">
+      <c r="K11" s="23"/>
+      <c r="M11" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="P11" s="21" t="s">
+      <c r="N11" s="23"/>
+      <c r="P11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="S11" s="21" t="s">
+      <c r="Q11" s="23"/>
+      <c r="S11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="22"/>
-      <c r="V11" s="21" t="s">
+      <c r="T11" s="23"/>
+      <c r="V11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="W11" s="22"/>
-      <c r="Y11" s="21" t="s">
+      <c r="W11" s="23"/>
+      <c r="Y11" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="Z11" s="22"/>
-      <c r="AB11" s="21" t="s">
+      <c r="Z11" s="23"/>
+      <c r="AB11" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AC11" s="22"/>
+      <c r="AC11" s="23"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -5426,51 +5186,69 @@
       <c r="C62" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="3" t="str">
+      <c r="D62" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="G62" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="E62" s="1">
+        <v>30</v>
+      </c>
+      <c r="G62" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H62" s="1"/>
-      <c r="J62" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="H62" s="1">
+        <v>40</v>
+      </c>
+      <c r="J62" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K62" s="1"/>
-      <c r="M62" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>60</v>
+      </c>
+      <c r="M62" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N62" s="1"/>
-      <c r="P62" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q62" s="1"/>
-      <c r="S62" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>50</v>
+      </c>
+      <c r="S62" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T62" s="1"/>
-      <c r="V62" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="T62" s="1">
+        <v>20</v>
+      </c>
+      <c r="V62" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W62" s="1"/>
-      <c r="Y62" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="W62" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y62" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z62" s="1"/>
-      <c r="AB62" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>80</v>
+      </c>
+      <c r="AB62" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC62" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
@@ -5910,14 +5688,14 @@
       </c>
       <c r="E71" s="12">
         <f>SUM(D13:D68)</f>
-        <v>27.5</v>
+        <v>12.5</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H71" s="12">
         <f>SUM(G13:G68)</f>
-        <v>-57.5</v>
+        <v>-67.5</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>7</v>
@@ -5931,42 +5709,42 @@
       </c>
       <c r="N71" s="12">
         <f>SUM(M13:M68)</f>
-        <v>-182.5</v>
+        <v>-207.5</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q71" s="12">
         <f>SUM(P13:P68)</f>
-        <v>147.5</v>
+        <v>142.5</v>
       </c>
       <c r="S71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T71" s="12">
         <f>SUM(S13:S68)</f>
-        <v>-255</v>
+        <v>-275</v>
       </c>
       <c r="V71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W71" s="12">
         <f>SUM(V13:V68)</f>
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="Y71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z71" s="12">
         <f>SUM(Y13:Y68)</f>
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="AB71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC71" s="12">
         <f>SUM(AB13:AB68)</f>
-        <v>-165</v>
+        <v>-160</v>
       </c>
       <c r="AD71" s="1">
         <f>SUM(E71,H71,K71,N71,Q71,T71,W71,Z71,AC71)</f>
@@ -5997,36 +5775,36 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="10">
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="I2:X8"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M11:N11"/>
   </mergeCells>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="50" priority="103" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="103" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="105" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="105" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="47" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681CD656-2963-534F-A158-D19DEA510828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01DCF03-2788-0243-BCCC-93D1F6ADA2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="1280" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -5260,51 +5260,69 @@
       <c r="C63" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D63" s="3" t="str">
+      <c r="D63" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="G63" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="E63" s="1">
+        <v>80</v>
+      </c>
+      <c r="G63" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="J63" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="H63" s="1">
+        <v>30</v>
+      </c>
+      <c r="J63" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K63" s="1"/>
-      <c r="M63" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="K63" s="1">
+        <v>100</v>
+      </c>
+      <c r="M63" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N63" s="1"/>
-      <c r="P63" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q63" s="1"/>
-      <c r="S63" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>50</v>
+      </c>
+      <c r="S63" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T63" s="1"/>
-      <c r="V63" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="T63" s="1">
+        <v>20</v>
+      </c>
+      <c r="V63" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W63" s="1"/>
-      <c r="Y63" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y63" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z63" s="1"/>
-      <c r="AB63" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB63" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC63" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
@@ -5688,42 +5706,42 @@
       </c>
       <c r="E71" s="12">
         <f>SUM(D13:D68)</f>
-        <v>12.5</v>
+        <v>32.5</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H71" s="12">
         <f>SUM(G13:G68)</f>
-        <v>-67.5</v>
+        <v>-82.5</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K71" s="12">
         <f>SUM(J13:J68)</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N71" s="12">
         <f>SUM(M13:M68)</f>
-        <v>-207.5</v>
+        <v>-232.5</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q71" s="12">
         <f>SUM(P13:P68)</f>
-        <v>142.5</v>
+        <v>137.5</v>
       </c>
       <c r="S71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T71" s="12">
         <f>SUM(S13:S68)</f>
-        <v>-275</v>
+        <v>-295</v>
       </c>
       <c r="V71" s="7" t="s">
         <v>7</v>
@@ -5737,14 +5755,14 @@
       </c>
       <c r="Z71" s="12">
         <f>SUM(Y13:Y68)</f>
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC71" s="12">
         <f>SUM(AB13:AB68)</f>
-        <v>-160</v>
+        <v>-155</v>
       </c>
       <c r="AD71" s="1">
         <f>SUM(E71,H71,K71,N71,Q71,T71,W71,Z71,AC71)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01DCF03-2788-0243-BCCC-93D1F6ADA2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A648260-A827-A84F-BCCE-8F3855A1AFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="1280" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -5334,51 +5334,67 @@
       <c r="C64" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="D64" s="3" t="str">
+      <c r="D64" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="G64" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="E64" s="1">
+        <v>40</v>
+      </c>
+      <c r="G64" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H64" s="1"/>
-      <c r="J64" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(K64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K64" s="1"/>
-      <c r="M64" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="H64" s="1">
+        <v>20</v>
+      </c>
+      <c r="J64" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="K64" s="1">
+        <v>70</v>
+      </c>
+      <c r="M64" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N64" s="1"/>
-      <c r="P64" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q64" s="1"/>
-      <c r="S64" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>70</v>
+      </c>
+      <c r="S64" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T64" s="1"/>
-      <c r="V64" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="T64" s="1">
+        <v>30</v>
+      </c>
+      <c r="V64" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W64" s="1"/>
-      <c r="Y64" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="W64" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y64" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z64" s="1"/>
-      <c r="AB64" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="Z64" s="1">
+        <v>80</v>
+      </c>
+      <c r="AB64" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC64" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="AC64" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
@@ -5706,63 +5722,63 @@
       </c>
       <c r="E71" s="12">
         <f>SUM(D13:D68)</f>
-        <v>32.5</v>
+        <v>22.5</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H71" s="12">
         <f>SUM(G13:G68)</f>
-        <v>-82.5</v>
+        <v>-102.5</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K71" s="12">
         <f>SUM(J13:J68)</f>
-        <v>125</v>
+        <v>127.5</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N71" s="12">
         <f>SUM(M13:M68)</f>
-        <v>-232.5</v>
+        <v>-257.5</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q71" s="12">
         <f>SUM(P13:P68)</f>
-        <v>137.5</v>
+        <v>140</v>
       </c>
       <c r="S71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T71" s="12">
         <f>SUM(S13:S68)</f>
-        <v>-295</v>
+        <v>-310</v>
       </c>
       <c r="V71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W71" s="12">
         <f>SUM(V13:V68)</f>
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Y71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z71" s="12">
         <f>SUM(Y13:Y68)</f>
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AB71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC71" s="12">
         <f>SUM(AB13:AB68)</f>
-        <v>-155</v>
+        <v>-105</v>
       </c>
       <c r="AD71" s="1">
         <f>SUM(E71,H71,K71,N71,Q71,T71,W71,Z71,AC71)</f>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A648260-A827-A84F-BCCE-8F3855A1AFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8627AD8-B011-0A43-BCC1-CFCF0EF06EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="1280" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -5406,51 +5406,67 @@
       <c r="C65" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(E65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="G65" s="3" t="str">
+      <c r="D65" s="3">
+        <v>-22.5</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H65" s="1"/>
-      <c r="J65" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="H65" s="1">
+        <v>30</v>
+      </c>
+      <c r="J65" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K65" s="1"/>
-      <c r="M65" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="K65" s="1">
+        <v>70</v>
+      </c>
+      <c r="M65" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N65" s="1"/>
-      <c r="P65" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1">
+        <v>60</v>
+      </c>
+      <c r="P65" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q65" s="1"/>
-      <c r="S65" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(T65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T65" s="1"/>
-      <c r="V65" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>50</v>
+      </c>
+      <c r="S65" s="3">
+        <v>-22.5</v>
+      </c>
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W65" s="1"/>
-      <c r="Y65" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="W65" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y65" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z65" s="1"/>
-      <c r="AB65" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB65" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC65, ($AC65,$Z65,$W65,$T65,$Q65,$N65,$K65,$H65,$E65), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC65" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="AC65" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
@@ -5462,51 +5478,66 @@
       <c r="C66" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(E66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="G66" s="3" t="str">
+      <c r="D66" s="3">
+        <v>-20</v>
+      </c>
+      <c r="E66" s="1">
+        <v>30</v>
+      </c>
+      <c r="G66" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H66" s="1"/>
-      <c r="J66" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="H66" s="1">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K66" s="1"/>
-      <c r="M66" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="K66" s="1">
+        <v>70</v>
+      </c>
+      <c r="M66" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N66" s="1"/>
-      <c r="P66" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="N66" s="1">
+        <v>80</v>
+      </c>
+      <c r="P66" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q66" s="1"/>
-      <c r="S66" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(T66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T66" s="1"/>
-      <c r="V66" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>40</v>
+      </c>
+      <c r="S66" s="3">
+        <v>-20</v>
+      </c>
+      <c r="T66" s="1">
+        <v>30</v>
+      </c>
+      <c r="V66" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W66" s="1"/>
-      <c r="Y66" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y66" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z66" s="1"/>
-      <c r="AB66" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(AC66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC66, ($AC66,$Z66,$W66,$T66,$Q66,$N66,$K66,$H66,$E66), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC66" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>-20</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
@@ -5722,56 +5753,56 @@
       </c>
       <c r="E71" s="12">
         <f>SUM(D13:D68)</f>
-        <v>22.5</v>
+        <v>-20</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H71" s="12">
         <f>SUM(G13:G68)</f>
-        <v>-102.5</v>
+        <v>-67.5</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K71" s="12">
         <f>SUM(J13:J68)</f>
-        <v>127.5</v>
+        <v>137.5</v>
       </c>
       <c r="M71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N71" s="12">
         <f>SUM(M13:M68)</f>
-        <v>-257.5</v>
+        <v>-237.5</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q71" s="12">
         <f>SUM(P13:P68)</f>
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="S71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T71" s="12">
         <f>SUM(S13:S68)</f>
-        <v>-310</v>
+        <v>-352.5</v>
       </c>
       <c r="V71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W71" s="12">
         <f>SUM(V13:V68)</f>
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="Y71" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z71" s="12">
         <f>SUM(Y13:Y68)</f>
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="AB71" s="7" t="s">
         <v>7</v>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8627AD8-B011-0A43-BCC1-CFCF0EF06EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56506A4E-BE19-8C4B-B3C1-E9C7DE769509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="1280" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="111">
   <si>
     <t>Points</t>
   </si>
@@ -353,6 +353,18 @@
   </si>
   <si>
     <t>RCB vs DC</t>
+  </si>
+  <si>
+    <t>Qualifier 1</t>
+  </si>
+  <si>
+    <t>Eliminator</t>
+  </si>
+  <si>
+    <t>Qualifier 2</t>
+  </si>
+  <si>
+    <t>Finals</t>
   </si>
 </sst>
 </file>
@@ -642,7 +654,247 @@
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1228,11 +1480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BE9CB7-B9A7-B347-86F0-C3EB9B5BFBBD}">
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:AD78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD71" sqref="AD71"/>
+      <pane ySplit="11" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD75" sqref="AD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5549,51 +5801,69 @@
       <c r="C67" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="3" t="str">
+      <c r="D67" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="G67" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>70</v>
+      </c>
+      <c r="G67" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H67" s="1"/>
-      <c r="J67" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="H67" s="1">
+        <v>20</v>
+      </c>
+      <c r="J67" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K67" s="1"/>
-      <c r="M67" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="K67" s="1">
+        <v>100</v>
+      </c>
+      <c r="M67" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N67" s="1"/>
-      <c r="P67" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="N67" s="1">
+        <v>40</v>
+      </c>
+      <c r="P67" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q67" s="1"/>
-      <c r="S67" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>60</v>
+      </c>
+      <c r="S67" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T67" s="1"/>
-      <c r="V67" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="V67" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W67" s="1"/>
-      <c r="Y67" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="W67" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y67" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z67" s="1"/>
-      <c r="AB67" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="Z67" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB67" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC67" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="AC67" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
@@ -5605,237 +5875,475 @@
       <c r="C68" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D68" s="3" t="str">
+      <c r="D68" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-15</v>
+      </c>
+      <c r="E68" s="1">
+        <v>30</v>
+      </c>
+      <c r="G68" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(H68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-10</v>
+      </c>
+      <c r="H68" s="1">
+        <v>40</v>
+      </c>
+      <c r="J68" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(K68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>20</v>
+      </c>
+      <c r="K68" s="1">
+        <v>80</v>
+      </c>
+      <c r="M68" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(N68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>60</v>
+      </c>
+      <c r="P68" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-5</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>50</v>
+      </c>
+      <c r="S68" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(T68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-25</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(W68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>50</v>
+      </c>
+      <c r="W68" s="1">
+        <v>100</v>
+      </c>
+      <c r="Y68" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-20</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB68" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="AC68" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D69" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="E68" s="1"/>
-      <c r="G68" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(H68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="E69" s="1"/>
+      <c r="G69" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="H68" s="1"/>
-      <c r="J68" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(K68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="H69" s="1"/>
+      <c r="J69" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="K68" s="1"/>
-      <c r="M68" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(N68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="K69" s="1"/>
+      <c r="M69" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="N68" s="1"/>
-      <c r="P68" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="N69" s="1"/>
+      <c r="P69" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="Q68" s="1"/>
-      <c r="S68" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(T68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="Q69" s="1"/>
+      <c r="S69" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="T68" s="1"/>
-      <c r="V68" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(W68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="T69" s="1"/>
+      <c r="V69" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="W68" s="1"/>
-      <c r="Y68" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Z68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="W69" s="1"/>
+      <c r="Y69" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="Z68" s="1"/>
-      <c r="AB68" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(AC68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
+      <c r="Z69" s="1"/>
+      <c r="AB69" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
       </c>
-      <c r="AC68" s="1"/>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="1" t="s">
+      <c r="AC69" s="1"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="1">
+        <v>1</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="G70" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="J70" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="M70" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="P70" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q70" s="1"/>
+      <c r="S70" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T70" s="1"/>
+      <c r="V70" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W70" s="1"/>
+      <c r="Y70" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z70" s="1"/>
+      <c r="AB70" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC70" s="1"/>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="G71" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="J71" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="M71" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N71" s="1"/>
+      <c r="P71" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q71" s="1"/>
+      <c r="S71" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T71" s="1"/>
+      <c r="V71" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W71" s="1"/>
+      <c r="Y71" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z71" s="1"/>
+      <c r="AB71" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC71" s="1"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(E72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="G72" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(H72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="J72" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(K72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="M72" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(N72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="N72" s="1"/>
+      <c r="P72" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Q72" s="1"/>
+      <c r="S72" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(T72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="T72" s="1"/>
+      <c r="V72" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(W72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="W72" s="1"/>
+      <c r="Y72" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z72" s="1"/>
+      <c r="AB72" s="3" t="str">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC72" s="1"/>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="9" t="s">
+      <c r="C73" s="10"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="9" t="s">
+      <c r="G73" s="1"/>
+      <c r="H73" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J69" s="1"/>
-      <c r="K69" s="9" t="s">
+      <c r="J73" s="1"/>
+      <c r="K73" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M69" s="1"/>
-      <c r="N69" s="9" t="s">
+      <c r="M73" s="1"/>
+      <c r="N73" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="9" t="s">
+      <c r="P73" s="1"/>
+      <c r="Q73" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="S69" s="1"/>
-      <c r="T69" s="9" t="s">
+      <c r="S73" s="1"/>
+      <c r="T73" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V69" s="1"/>
-      <c r="W69" s="9" t="s">
+      <c r="V73" s="1"/>
+      <c r="W73" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Y69" s="1"/>
-      <c r="Z69" s="9" t="s">
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="9" t="s">
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="11" t="str">
-        <f>D12</f>
-        <v>Jaya</v>
-      </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="11" t="str">
-        <f>G12</f>
-        <v>Justin</v>
-      </c>
-      <c r="J70" s="1"/>
-      <c r="K70" s="11" t="str">
-        <f>J12</f>
-        <v>Ram</v>
-      </c>
-      <c r="M70" s="1"/>
-      <c r="N70" s="11" t="str">
-        <f>M12</f>
-        <v>Sibi</v>
-      </c>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="11" t="str">
-        <f>P12</f>
-        <v>Sundar</v>
-      </c>
-      <c r="S70" s="1"/>
-      <c r="T70" s="11" t="str">
-        <f>S12</f>
-        <v>Balaji</v>
-      </c>
-      <c r="V70" s="1"/>
-      <c r="W70" s="11" t="str">
-        <f>V12</f>
-        <v>Upili</v>
-      </c>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="11" t="str">
-        <f>Y12</f>
-        <v>Vicky</v>
-      </c>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="11" t="str">
-        <f>AB12</f>
-        <v>Venni</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" ht="21" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="12">
-        <f>SUM(D13:D68)</f>
-        <v>-20</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" s="12">
-        <f>SUM(G13:G68)</f>
-        <v>-67.5</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K71" s="12">
-        <f>SUM(J13:J68)</f>
-        <v>137.5</v>
-      </c>
-      <c r="M71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N71" s="12">
-        <f>SUM(M13:M68)</f>
-        <v>-237.5</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q71" s="12">
-        <f>SUM(P13:P68)</f>
-        <v>125</v>
-      </c>
-      <c r="S71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T71" s="12">
-        <f>SUM(S13:S68)</f>
-        <v>-352.5</v>
-      </c>
-      <c r="V71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="W71" s="12">
-        <f>SUM(V13:V68)</f>
-        <v>235</v>
-      </c>
-      <c r="Y71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z71" s="12">
-        <f>SUM(Y13:Y68)</f>
-        <v>285</v>
-      </c>
-      <c r="AB71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC71" s="12">
-        <f>SUM(AB13:AB68)</f>
-        <v>-105</v>
-      </c>
-      <c r="AD71" s="1">
-        <f>SUM(E71,H71,K71,N71,Q71,T71,W71,Z71,AC71)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="11" t="str">
+        <f>D12</f>
+        <v>Jaya</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="11" t="str">
+        <f>G12</f>
+        <v>Justin</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="11" t="str">
+        <f>J12</f>
+        <v>Ram</v>
+      </c>
+      <c r="M74" s="1"/>
+      <c r="N74" s="11" t="str">
+        <f>M12</f>
+        <v>Sibi</v>
+      </c>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="11" t="str">
+        <f>P12</f>
+        <v>Sundar</v>
+      </c>
+      <c r="S74" s="1"/>
+      <c r="T74" s="11" t="str">
+        <f>S12</f>
+        <v>Balaji</v>
+      </c>
+      <c r="V74" s="1"/>
+      <c r="W74" s="11" t="str">
+        <f>V12</f>
+        <v>Upili</v>
+      </c>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="11" t="str">
+        <f>Y12</f>
+        <v>Vicky</v>
+      </c>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="11" t="str">
+        <f>AB12</f>
+        <v>Venni</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="21" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="12">
+        <f>SUM(D13:D72)</f>
+        <v>-30</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="12">
+        <f>SUM(G13:G72)</f>
+        <v>-97.5</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K75" s="12">
+        <f>SUM(J13:J72)</f>
+        <v>207.5</v>
+      </c>
+      <c r="M75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N75" s="12">
+        <f>SUM(M13:M72)</f>
+        <v>-247.5</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q75" s="12">
+        <f>SUM(P13:P72)</f>
+        <v>120</v>
+      </c>
+      <c r="S75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T75" s="12">
+        <f>SUM(S13:S72)</f>
+        <v>-402.5</v>
+      </c>
+      <c r="V75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="W75" s="12">
+        <f>SUM(V13:V72)</f>
+        <v>280</v>
+      </c>
+      <c r="Y75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z75" s="12">
+        <f>SUM(Y13:Y72)</f>
+        <v>250</v>
+      </c>
+      <c r="AB75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC75" s="12">
+        <f>SUM(AB13:AB72)</f>
+        <v>-80</v>
+      </c>
+      <c r="AD75" s="1">
+        <f>SUM(E75,H75,K75,N75,Q75,T75,W75,Z75,AC75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -5851,18 +6359,18 @@
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="Y11:Z11"/>
   </mergeCells>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="26" priority="103" operator="lessThan">
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="50" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="128" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="105" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="129" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5873,7 +6381,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K71">
+  <conditionalFormatting sqref="K75">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5884,7 +6392,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N71">
+  <conditionalFormatting sqref="N75">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5895,7 +6403,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q71">
+  <conditionalFormatting sqref="Q75">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5906,7 +6414,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T71">
+  <conditionalFormatting sqref="T75">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5917,7 +6425,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W71">
+  <conditionalFormatting sqref="W75">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5928,7 +6436,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z71">
+  <conditionalFormatting sqref="Z75">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -5939,7 +6447,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC71">
+  <conditionalFormatting sqref="AC75">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56506A4E-BE19-8C4B-B3C1-E9C7DE769509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBDF00C-E660-F349-B825-603CD569FFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3440" yWindow="1280" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="122">
   <si>
     <t>Points</t>
   </si>
@@ -365,13 +365,46 @@
   </si>
   <si>
     <t>Finals</t>
+  </si>
+  <si>
+    <t>Winner Prediction - Coins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finals </t>
+  </si>
+  <si>
+    <t>Total coins</t>
+  </si>
+  <si>
+    <t>Vikcy</t>
+  </si>
+  <si>
+    <t>Scorecard</t>
+  </si>
+  <si>
+    <t>Format 1</t>
+  </si>
+  <si>
+    <t>Format 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final score </t>
+  </si>
+  <si>
+    <t>Outgoing</t>
+  </si>
+  <si>
+    <t>Coins</t>
+  </si>
+  <si>
+    <t>Incoming</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,8 +489,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,8 +560,19 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -591,14 +658,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -647,11 +726,42 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="51">
@@ -1480,23 +1590,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BE9CB7-B9A7-B347-86F0-C3EB9B5BFBBD}">
-  <dimension ref="A1:AD78"/>
+  <dimension ref="A1:AD91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD75" sqref="AD75"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U91" sqref="U91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="1.33203125" customWidth="1"/>
     <col min="15" max="15" width="2" customWidth="1"/>
-    <col min="18" max="18" width="1.83203125" customWidth="1"/>
-    <col min="21" max="21" width="1.83203125" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2.1640625" customWidth="1"/>
     <col min="27" max="27" width="2" customWidth="1"/>
   </cols>
@@ -6345,9 +6455,414 @@
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
     </row>
+    <row r="80" spans="1:30" ht="19" x14ac:dyDescent="0.25">
+      <c r="E80" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="31"/>
+      <c r="P80" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q80" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="R80" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="S80" s="29"/>
+      <c r="T80" s="30"/>
+      <c r="U80" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="4:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="E81" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G81" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I81" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="S81" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="T81" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="U81" s="36"/>
+    </row>
+    <row r="82" spans="4:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="D82" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="32">
+        <f>SUM(E82:H82)</f>
+        <v>0</v>
+      </c>
+      <c r="P82" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q82" s="12">
+        <f>E75</f>
+        <v>-30</v>
+      </c>
+      <c r="R82" s="38">
+        <v>-200</v>
+      </c>
+      <c r="S82" s="12">
+        <f>I82</f>
+        <v>0</v>
+      </c>
+      <c r="T82" s="12">
+        <f>IFERROR((-SUM($R$82:$R$90)/SUM($S$82:$S$90))*$S82, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U82" s="12">
+        <f>SUM(Q82,R82,T82)</f>
+        <v>-230</v>
+      </c>
+      <c r="V82" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="4:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="D83" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="32">
+        <f t="shared" ref="I83:I87" si="0">SUM(E83:H83)</f>
+        <v>0</v>
+      </c>
+      <c r="P83" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="12">
+        <f>H75</f>
+        <v>-97.5</v>
+      </c>
+      <c r="R83" s="38">
+        <v>-200</v>
+      </c>
+      <c r="S83" s="12">
+        <f t="shared" ref="S83:S90" si="1">I83</f>
+        <v>0</v>
+      </c>
+      <c r="T83" s="12">
+        <f t="shared" ref="T83:T90" si="2">IFERROR((-SUM($R$82:$R$90)/SUM($S$82:$S$90))*$S83, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U83" s="12">
+        <f t="shared" ref="U83:U90" si="3">SUM(Q83,R83,T83)</f>
+        <v>-297.5</v>
+      </c>
+      <c r="V83" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="4:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="D84" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q84" s="12">
+        <f>K75</f>
+        <v>207.5</v>
+      </c>
+      <c r="R84" s="38">
+        <v>-200</v>
+      </c>
+      <c r="S84" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T84" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U84" s="12">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="V84" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="4:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="D85" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q85" s="12">
+        <f>N75</f>
+        <v>-247.5</v>
+      </c>
+      <c r="R85" s="38">
+        <v>-200</v>
+      </c>
+      <c r="S85" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T85" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="12">
+        <f t="shared" si="3"/>
+        <v>-447.5</v>
+      </c>
+      <c r="V85" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="4:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="D86" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q86" s="12">
+        <f>Q75</f>
+        <v>120</v>
+      </c>
+      <c r="R86" s="38">
+        <v>-200</v>
+      </c>
+      <c r="S86" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T86" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U86" s="12">
+        <f t="shared" si="3"/>
+        <v>-80</v>
+      </c>
+      <c r="V86" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="4:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="D87" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P87" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q87" s="12">
+        <f>T75</f>
+        <v>-402.5</v>
+      </c>
+      <c r="R87" s="38">
+        <v>-200</v>
+      </c>
+      <c r="S87" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T87" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U87" s="12">
+        <f t="shared" si="3"/>
+        <v>-602.5</v>
+      </c>
+      <c r="V87" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="4:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="D88" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="32">
+        <f t="shared" ref="I88:I90" si="4">SUM(E88:H88)</f>
+        <v>0</v>
+      </c>
+      <c r="P88" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q88" s="12">
+        <f>W75</f>
+        <v>280</v>
+      </c>
+      <c r="R88" s="38">
+        <v>-200</v>
+      </c>
+      <c r="S88" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T88" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U88" s="12">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="V88" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="4:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="D89" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P89" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q89" s="12">
+        <f>Z75</f>
+        <v>250</v>
+      </c>
+      <c r="R89" s="38">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="12">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="V89" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="4:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="D90" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q90" s="12">
+        <f>AC75</f>
+        <v>-80</v>
+      </c>
+      <c r="R90" s="38">
+        <v>-200</v>
+      </c>
+      <c r="S90" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="12">
+        <f t="shared" si="3"/>
+        <v>-280</v>
+      </c>
+      <c r="V90" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="4:22" ht="21" x14ac:dyDescent="0.25">
+      <c r="U91" s="39">
+        <f>SUM(U82:U90)</f>
+        <v>-1800</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="P80:P81"/>
+    <mergeCell ref="Q80:Q81"/>
+    <mergeCell ref="R80:T80"/>
+    <mergeCell ref="U80:U81"/>
+    <mergeCell ref="E80:H80"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="G11:H11"/>
@@ -6360,61 +6875,116 @@
     <mergeCell ref="Y11:Z11"/>
   </mergeCells>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="50" priority="127" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="140" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="129" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="141" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q75">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T75">
+    <cfRule type="cellIs" dxfId="35" priority="22" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="24" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W75">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z75">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC75">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U87:U90">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q82:Q90">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6425,7 +6995,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W75">
+  <conditionalFormatting sqref="U82:U86">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -6433,28 +7003,6 @@
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z75">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC75">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBDF00C-E660-F349-B825-603CD569FFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF8E5E-0B3B-D640-A49E-2A5D0D061130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1280" windowWidth="32400" windowHeight="18200" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="3440" yWindow="1280" windowWidth="32400" windowHeight="18500" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
   <si>
     <t>Points</t>
   </si>
@@ -94,78 +94,12 @@
     <t>MI vs RCB</t>
   </si>
   <si>
-    <t>Most Wins - 1st place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Least last place </t>
-  </si>
-  <si>
-    <t>Most last place</t>
-  </si>
-  <si>
-    <t>Best winning streak</t>
-  </si>
-  <si>
-    <t>Most Wins - combined</t>
-  </si>
-  <si>
-    <t>Sundar  (17)</t>
-  </si>
-  <si>
-    <t>Justin    (14)</t>
-  </si>
-  <si>
-    <t>Sundar  (27)</t>
-  </si>
-  <si>
-    <t>Sundar  (4 - 19, 20, 21, 22)</t>
-  </si>
-  <si>
-    <t>Justin    (4 - 44, 45, 46, 47)</t>
-  </si>
-  <si>
-    <t>Most Wins - 2nd place</t>
-  </si>
-  <si>
-    <t>Sibi        (4 - 28, 29, 30, 31)</t>
-  </si>
-  <si>
-    <t>Ram      (4 - 17, 18, 19, 20)</t>
-  </si>
-  <si>
-    <t>Jaya       (24)</t>
-  </si>
-  <si>
-    <t>Sundar  (6)</t>
-  </si>
-  <si>
-    <t>Sibi         (6)</t>
-  </si>
-  <si>
-    <t>Qualifier 1 MI vs DC</t>
-  </si>
-  <si>
     <t>Predictions Rank 1</t>
   </si>
   <si>
     <t>Predictions Rank 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Justin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sundar </t>
-  </si>
-  <si>
-    <t>Eliminator SRH vs RCB</t>
-  </si>
-  <si>
-    <t>Qualifier 2 DC vs SRH</t>
-  </si>
-  <si>
-    <t>Finals MI vs DC</t>
-  </si>
-  <si>
     <t>Upili</t>
   </si>
   <si>
@@ -398,13 +332,25 @@
   </si>
   <si>
     <t>Incoming</t>
+  </si>
+  <si>
+    <t>Qualifier 1 DC vs CSK</t>
+  </si>
+  <si>
+    <t>Eliminator RCB vs KKR</t>
+  </si>
+  <si>
+    <t>Rank 1</t>
+  </si>
+  <si>
+    <t>Rank 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -445,52 +391,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -513,7 +413,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,16 +448,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -670,14 +560,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -692,14 +580,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,204 +597,47 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="3">
     <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1618,7 +1341,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
@@ -1628,24 +1351,24 @@
         <v>50</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
     </row>
     <row r="3" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -1655,22 +1378,22 @@
         <v>20</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
     </row>
     <row r="4" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
@@ -1680,22 +1403,22 @@
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
     </row>
     <row r="5" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
@@ -1705,22 +1428,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
     </row>
     <row r="6" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
@@ -1730,22 +1453,22 @@
         <v>-5</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
     </row>
     <row r="7" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
@@ -1755,22 +1478,22 @@
         <v>-10</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
     </row>
     <row r="8" spans="1:29" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
@@ -1780,22 +1503,22 @@
         <v>-15</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
@@ -1816,42 +1539,42 @@
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="D11" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="G11" s="22" t="s">
+      <c r="D11" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="G11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="J11" s="22" t="s">
+      <c r="H11" s="19"/>
+      <c r="J11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="M11" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="23"/>
-      <c r="P11" s="22" t="s">
+      <c r="K11" s="19"/>
+      <c r="M11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="P11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="23"/>
-      <c r="S11" s="22" t="s">
+      <c r="Q11" s="19"/>
+      <c r="S11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="23"/>
-      <c r="V11" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="W11" s="23"/>
-      <c r="Y11" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z11" s="23"/>
-      <c r="AB11" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC11" s="23"/>
+      <c r="T11" s="19"/>
+      <c r="V11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="W11" s="19"/>
+      <c r="Y11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z11" s="19"/>
+      <c r="AB11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC11" s="19"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -1900,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="W12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Z12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>0</v>
@@ -2000,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E14, ($AC14,$Z14,$W14,$T14,$Q14,$N14,$K14,$H14,$E14), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2074,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E15, ($AC15,$Z15,$W15,$T15,$Q15,$N15,$K15,$H15,$E15), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2148,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E16, ($AC16,$Z16,$W16,$T16,$Q16,$N16,$K16,$H16,$E16), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2222,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E17, ($AC17,$Z17,$W17,$T17,$Q17,$N17,$K17,$H17,$E17), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2296,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D18" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E18, ($AC18,$Z18,$W18,$T18,$Q18,$N18,$K18,$H18,$E18), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2370,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E19, ($AC19,$Z19,$W19,$T19,$Q19,$N19,$K19,$H19,$E19), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2444,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E20, ($AC20,$Z20,$W20,$T20,$Q20,$N20,$K20,$H20,$E20), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2518,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E21, ($AC21,$Z21,$W21,$T21,$Q21,$N21,$K21,$H21,$E21), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2592,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D22" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E22, ($AC22,$Z22,$W22,$T22,$Q22,$N22,$K22,$H22,$E22), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2666,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D23" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E23, ($AC23,$Z23,$W23,$T23,$Q23,$N23,$K23,$H23,$E23), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2740,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D24" s="3">
         <v>12.5</v>
@@ -2812,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D25" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E25, ($AC25,$Z25,$W25,$T25,$Q25,$N25,$K25,$H25,$E25), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2886,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E26, ($AC26,$Z26,$W26,$T26,$Q26,$N26,$K26,$H26,$E26), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -2960,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E27, ($AC27,$Z27,$W27,$T27,$Q27,$N27,$K27,$H27,$E27), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3033,8 +2756,8 @@
       <c r="B28" s="1">
         <v>1</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>63</v>
+      <c r="C28" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="D28" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E28, ($AC28,$Z28,$W28,$T28,$Q28,$N28,$K28,$H28,$E28), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3107,8 +2830,8 @@
       <c r="B29" s="1">
         <v>1</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>64</v>
+      <c r="C29" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E29, ($AC29,$Z29,$W29,$T29,$Q29,$N29,$K29,$H29,$E29), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3181,8 +2904,8 @@
       <c r="B30" s="1">
         <v>1</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>65</v>
+      <c r="C30" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="D30" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E30, ($AC30,$Z30,$W30,$T30,$Q30,$N30,$K30,$H30,$E30), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3255,8 +2978,8 @@
       <c r="B31" s="1">
         <v>1</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>66</v>
+      <c r="C31" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="D31" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E31, ($AC31,$Z31,$W31,$T31,$Q31,$N31,$K31,$H31,$E31), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3329,8 +3052,8 @@
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>67</v>
+      <c r="C32" s="16" t="s">
+        <v>45</v>
       </c>
       <c r="D32" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E32, ($AC32,$Z32,$W32,$T32,$Q32,$N32,$K32,$H32,$E32), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3403,8 +3126,8 @@
       <c r="B33" s="1">
         <v>1</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>68</v>
+      <c r="C33" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="D33" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E33, ($AC33,$Z33,$W33,$T33,$Q33,$N33,$K33,$H33,$E33), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3477,8 +3200,8 @@
       <c r="B34" s="1">
         <v>1</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>69</v>
+      <c r="C34" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="D34" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E34, ($AC34,$Z34,$W34,$T34,$Q34,$N34,$K34,$H34,$E34), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3551,8 +3274,8 @@
       <c r="B35" s="1">
         <v>1</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>70</v>
+      <c r="C35" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="D35" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E35, ($AC35,$Z35,$W35,$T35,$Q35,$N35,$K35,$H35,$E35), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3625,8 +3348,8 @@
       <c r="B36" s="1">
         <v>1</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>71</v>
+      <c r="C36" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="D36" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E36, ($AC36,$Z36,$W36,$T36,$Q36,$N36,$K36,$H36,$E36), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3699,8 +3422,8 @@
       <c r="B37" s="1">
         <v>1</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>72</v>
+      <c r="C37" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="D37" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E37, ($AC37,$Z37,$W37,$T37,$Q37,$N37,$K37,$H37,$E37), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3773,8 +3496,8 @@
       <c r="B38" s="1">
         <v>1</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>73</v>
+      <c r="C38" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="D38" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E38, ($AC38,$Z38,$W38,$T38,$Q38,$N38,$K38,$H38,$E38), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3847,8 +3570,8 @@
       <c r="B39" s="1">
         <v>1</v>
       </c>
-      <c r="C39" s="20" t="s">
-        <v>74</v>
+      <c r="C39" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="D39" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E39, ($AC39,$Z39,$W39,$T39,$Q39,$N39,$K39,$H39,$E39), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3921,8 +3644,8 @@
       <c r="B40" s="1">
         <v>1</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>75</v>
+      <c r="C40" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="D40" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E40, ($AC40,$Z40,$W40,$T40,$Q40,$N40,$K40,$H40,$E40), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -3995,8 +3718,8 @@
       <c r="B41" s="1">
         <v>1</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>76</v>
+      <c r="C41" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="D41" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E41, ($AC41,$Z41,$W41,$T41,$Q41,$N41,$K41,$H41,$E41), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4069,8 +3792,8 @@
       <c r="B42" s="1">
         <v>1</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>80</v>
+      <c r="C42" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="D42" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E42, ($AC42,$Z42,$W42,$T42,$Q42,$N42,$K42,$H42,$E42), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4141,8 +3864,8 @@
       <c r="B43" s="1">
         <v>1</v>
       </c>
-      <c r="C43" s="20" t="s">
-        <v>77</v>
+      <c r="C43" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="D43" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E43, ($AC43,$Z43,$W43,$T43,$Q43,$N43,$K43,$H43,$E43), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4215,8 +3938,8 @@
       <c r="B44" s="1">
         <v>1</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>81</v>
+      <c r="C44" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D44" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E44, ($AC44,$Z44,$W44,$T44,$Q44,$N44,$K44,$H44,$E44), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4289,8 +4012,8 @@
       <c r="B45" s="1">
         <v>1</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>82</v>
+      <c r="C45" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="D45" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E45, ($AC45,$Z45,$W45,$T45,$Q45,$N45,$K45,$H45,$E45), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4363,8 +4086,8 @@
       <c r="B46" s="1">
         <v>1</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>83</v>
+      <c r="C46" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="D46" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E46, ($AC46,$Z46,$W46,$T46,$Q46,$N46,$K46,$H46,$E46), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4437,8 +4160,8 @@
       <c r="B47" s="1">
         <v>1</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>85</v>
+      <c r="C47" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="D47" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E47, ($AC47,$Z47,$W47,$T47,$Q47,$N47,$K47,$H47,$E47), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4511,8 +4234,8 @@
       <c r="B48" s="1">
         <v>1</v>
       </c>
-      <c r="C48" s="20" t="s">
-        <v>86</v>
+      <c r="C48" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="D48" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E48, ($AC48,$Z48,$W48,$T48,$Q48,$N48,$K48,$H48,$E48), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4585,8 +4308,8 @@
       <c r="B49" s="1">
         <v>1</v>
       </c>
-      <c r="C49" s="20" t="s">
-        <v>87</v>
+      <c r="C49" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="D49" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E49, ($AC49,$Z49,$W49,$T49,$Q49,$N49,$K49,$H49,$E49), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4659,8 +4382,8 @@
       <c r="B50" s="1">
         <v>1</v>
       </c>
-      <c r="C50" s="20" t="s">
-        <v>88</v>
+      <c r="C50" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="D50" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E50, ($AC50,$Z50,$W50,$T50,$Q50,$N50,$K50,$H50,$E50), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4733,8 +4456,8 @@
       <c r="B51" s="1">
         <v>1</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>89</v>
+      <c r="C51" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="D51" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E51, ($AC51,$Z51,$W51,$T51,$Q51,$N51,$K51,$H51,$E51), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4807,8 +4530,8 @@
       <c r="B52" s="1">
         <v>1</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>90</v>
+      <c r="C52" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="D52" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E52, ($AC52,$Z52,$W52,$T52,$Q52,$N52,$K52,$H52,$E52), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4881,8 +4604,8 @@
       <c r="B53" s="1">
         <v>1</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>91</v>
+      <c r="C53" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="D53" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E53, ($AC53,$Z53,$W53,$T53,$Q53,$N53,$K53,$H53,$E53), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -4955,8 +4678,8 @@
       <c r="B54" s="1">
         <v>1</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>92</v>
+      <c r="C54" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="D54" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E54, ($AC54,$Z54,$W54,$T54,$Q54,$N54,$K54,$H54,$E54), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -5029,8 +4752,8 @@
       <c r="B55" s="1">
         <v>1</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>93</v>
+      <c r="C55" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="D55" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E55, ($AC55,$Z55,$W55,$T55,$Q55,$N55,$K55,$H55,$E55), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -5103,8 +4826,8 @@
       <c r="B56" s="1">
         <v>1</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>94</v>
+      <c r="C56" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="D56" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E56, ($AC56,$Z56,$W56,$T56,$Q56,$N56,$K56,$H56,$E56), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -5177,8 +4900,8 @@
       <c r="B57" s="1">
         <v>1</v>
       </c>
-      <c r="C57" s="20" t="s">
-        <v>95</v>
+      <c r="C57" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="D57" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E57, ($AC57,$Z57,$W57,$T57,$Q57,$N57,$K57,$H57,$E57), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -5251,8 +4974,8 @@
       <c r="B58" s="1">
         <v>1</v>
       </c>
-      <c r="C58" s="20" t="s">
-        <v>96</v>
+      <c r="C58" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="D58" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E58, ($AC58,$Z58,$W58,$T58,$Q58,$N58,$K58,$H58,$E58), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -5323,8 +5046,8 @@
       <c r="B59" s="1">
         <v>1</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>97</v>
+      <c r="C59" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="D59" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E59, ($AC59,$Z59,$W59,$T59,$Q59,$N59,$K59,$H59,$E59), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -5397,8 +5120,8 @@
       <c r="B60" s="1">
         <v>1</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>98</v>
+      <c r="C60" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="D60" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E60, ($AC60,$Z60,$W60,$T60,$Q60,$N60,$K60,$H60,$E60), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -5471,8 +5194,8 @@
       <c r="B61" s="1">
         <v>1</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>99</v>
+      <c r="C61" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="D61" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E61, ($AC61,$Z61,$W61,$T61,$Q61,$N61,$K61,$H61,$E61), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -5545,8 +5268,8 @@
       <c r="B62" s="1">
         <v>1</v>
       </c>
-      <c r="C62" s="20" t="s">
-        <v>100</v>
+      <c r="C62" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="D62" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E62, ($AC62,$Z62,$W62,$T62,$Q62,$N62,$K62,$H62,$E62), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -5619,8 +5342,8 @@
       <c r="B63" s="1">
         <v>1</v>
       </c>
-      <c r="C63" s="20" t="s">
-        <v>101</v>
+      <c r="C63" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="D63" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E63, ($AC63,$Z63,$W63,$T63,$Q63,$N63,$K63,$H63,$E63), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -5693,8 +5416,8 @@
       <c r="B64" s="1">
         <v>1</v>
       </c>
-      <c r="C64" s="20" t="s">
-        <v>102</v>
+      <c r="C64" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="D64" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E64, ($AC64,$Z64,$W64,$T64,$Q64,$N64,$K64,$H64,$E64), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -5765,8 +5488,8 @@
       <c r="B65" s="1">
         <v>1</v>
       </c>
-      <c r="C65" s="20" t="s">
-        <v>103</v>
+      <c r="C65" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="D65" s="3">
         <v>-22.5</v>
@@ -5837,8 +5560,8 @@
       <c r="B66" s="1">
         <v>1</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>104</v>
+      <c r="C66" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="D66" s="3">
         <v>-20</v>
@@ -5908,8 +5631,8 @@
       <c r="B67" s="1">
         <v>1</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>105</v>
+      <c r="C67" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="D67" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E67, ($AC67,$Z67,$W67,$T67,$Q67,$N67,$K67,$H67,$E67), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -5982,8 +5705,8 @@
       <c r="B68" s="1">
         <v>1</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>106</v>
+      <c r="C68" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="D68" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E68, ($AC68,$Z68,$W68,$T68,$Q68,$N68,$K68,$H68,$E68), 0),  $A$2:$B$10, 2, FALSE))</f>
@@ -6051,124 +5774,160 @@
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(E69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-5</v>
+      </c>
+      <c r="E69" s="1">
+        <v>50</v>
+      </c>
+      <c r="G69" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(H69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>60</v>
+      </c>
+      <c r="J69" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(K69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>5</v>
+      </c>
+      <c r="K69" s="1">
+        <v>70</v>
+      </c>
+      <c r="M69" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(N69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-10</v>
+      </c>
+      <c r="N69" s="1">
+        <v>40</v>
+      </c>
+      <c r="P69" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(Q69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-15</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>30</v>
+      </c>
+      <c r="S69" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(T69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>20</v>
+      </c>
+      <c r="T69" s="1">
+        <v>80</v>
+      </c>
+      <c r="V69" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(W69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-25</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(Z69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>-20</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>20</v>
+      </c>
+      <c r="AB69" s="3">
+        <f>IF(ISERROR(VLOOKUP(RANK(AC69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
+        <v>50</v>
+      </c>
+      <c r="AC69" s="1">
         <v>100</v>
       </c>
-      <c r="D69" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(E69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="G69" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(H69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H69" s="1"/>
-      <c r="J69" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(K69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K69" s="1"/>
-      <c r="M69" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(N69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N69" s="1"/>
-      <c r="P69" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Q69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q69" s="1"/>
-      <c r="S69" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(T69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T69" s="1"/>
-      <c r="V69" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(W69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W69" s="1"/>
-      <c r="Y69" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(Z69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z69" s="1"/>
-      <c r="AB69" s="3" t="str">
-        <f>IF(ISERROR(VLOOKUP(RANK(AC69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC69, ($AC69,$Z69,$W69,$T69,$Q69,$N69,$K69,$H69,$E69), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC69" s="1"/>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
       </c>
-      <c r="C70" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70" s="3" t="str">
+      <c r="C70" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="G70" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1">
+        <v>70</v>
+      </c>
+      <c r="G70" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H70" s="1"/>
-      <c r="J70" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="H70" s="1">
+        <v>80</v>
+      </c>
+      <c r="J70" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K70" s="1"/>
-      <c r="M70" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="K70" s="1">
+        <v>100</v>
+      </c>
+      <c r="M70" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N70" s="1"/>
-      <c r="P70" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="N70" s="1">
+        <v>40</v>
+      </c>
+      <c r="P70" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q70" s="1"/>
-      <c r="S70" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>60</v>
+      </c>
+      <c r="S70" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T70" s="1"/>
-      <c r="V70" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="T70" s="1">
+        <v>20</v>
+      </c>
+      <c r="V70" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W70" s="1"/>
-      <c r="Y70" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z70" s="1"/>
-      <c r="AB70" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB70" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC70, ($AC70,$Z70,$W70,$T70,$Q70,$N70,$K70,$H70,$E70), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC70" s="1"/>
+        <v>-15</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B71" s="1">
         <v>1</v>
       </c>
-      <c r="C71" s="20"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -6217,12 +5976,12 @@
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
       </c>
-      <c r="C72" s="20"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="3" t="str">
         <f>IF(ISERROR(VLOOKUP(RANK(E72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
         <v/>
@@ -6378,28 +6137,28 @@
       </c>
       <c r="H75" s="12">
         <f>SUM(G13:G72)</f>
-        <v>-97.5</v>
+        <v>-77.5</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K75" s="12">
         <f>SUM(J13:J72)</f>
-        <v>207.5</v>
+        <v>262.5</v>
       </c>
       <c r="M75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N75" s="12">
         <f>SUM(M13:M72)</f>
-        <v>-247.5</v>
+        <v>-267.5</v>
       </c>
       <c r="P75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q75" s="12">
         <f>SUM(P13:P72)</f>
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="S75" s="7" t="s">
         <v>7</v>
@@ -6413,21 +6172,21 @@
       </c>
       <c r="W75" s="12">
         <f>SUM(V13:V72)</f>
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="Y75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z75" s="12">
         <f>SUM(Y13:Y72)</f>
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="AB75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC75" s="12">
         <f>SUM(AB13:AB72)</f>
-        <v>-80</v>
+        <v>-45</v>
       </c>
       <c r="AD75" s="1">
         <f>SUM(E75,H75,K75,N75,Q75,T75,W75,Z75,AC75)</f>
@@ -6456,77 +6215,81 @@
       <c r="E78" s="5"/>
     </row>
     <row r="80" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="E80" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="31"/>
-      <c r="P80" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q80" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="R80" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="S80" s="29"/>
-      <c r="T80" s="30"/>
-      <c r="U80" s="36" t="s">
-        <v>118</v>
+      <c r="E80" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="24"/>
+      <c r="P80" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q80" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="R80" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="S80" s="22"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="29" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="4:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E81" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="F81" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G81" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H81" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="I81" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="P81" s="37"/>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="S81" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="T81" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="U81" s="36"/>
+      <c r="E81" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="S81" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="T81" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="U81" s="29"/>
     </row>
     <row r="82" spans="4:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="D82" s="32" t="s">
+      <c r="D82" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0</v>
+      </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="32">
+      <c r="I82" s="25">
         <f>SUM(E82:H82)</f>
         <v>0</v>
       </c>
-      <c r="P82" s="32" t="s">
+      <c r="P82" s="25" t="s">
         <v>8</v>
       </c>
       <c r="Q82" s="12">
         <f>E75</f>
         <v>-30</v>
       </c>
-      <c r="R82" s="38">
+      <c r="R82" s="31">
         <v>-200</v>
       </c>
       <c r="S82" s="12">
@@ -6541,30 +6304,34 @@
         <f>SUM(Q82,R82,T82)</f>
         <v>-230</v>
       </c>
-      <c r="V82" s="32" t="s">
+      <c r="V82" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="4:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="32">
+      <c r="I83" s="25">
         <f t="shared" ref="I83:I87" si="0">SUM(E83:H83)</f>
         <v>0</v>
       </c>
-      <c r="P83" s="32" t="s">
+      <c r="P83" s="25" t="s">
         <v>5</v>
       </c>
       <c r="Q83" s="12">
         <f>H75</f>
-        <v>-97.5</v>
-      </c>
-      <c r="R83" s="38">
+        <v>-77.5</v>
+      </c>
+      <c r="R83" s="31">
         <v>-200</v>
       </c>
       <c r="S83" s="12">
@@ -6577,184 +6344,204 @@
       </c>
       <c r="U83" s="12">
         <f t="shared" ref="U83:U90" si="3">SUM(Q83,R83,T83)</f>
-        <v>-297.5</v>
-      </c>
-      <c r="V83" s="32" t="s">
+        <v>-277.5</v>
+      </c>
+      <c r="V83" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="4:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="D84" s="32" t="s">
+      <c r="D84" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="E84" s="1">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1">
+        <v>7</v>
+      </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="32">
+      <c r="I84" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P84" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="P84" s="25" t="s">
         <v>9</v>
       </c>
       <c r="Q84" s="12">
         <f>K75</f>
-        <v>207.5</v>
-      </c>
-      <c r="R84" s="38">
+        <v>262.5</v>
+      </c>
+      <c r="R84" s="31">
         <v>-200</v>
       </c>
       <c r="S84" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T84" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>243.24324324324323</v>
       </c>
       <c r="U84" s="12">
         <f t="shared" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="V84" s="32" t="s">
+        <v>305.74324324324323</v>
+      </c>
+      <c r="V84" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="4:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="D85" s="32" t="s">
+      <c r="D85" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>25</v>
+      </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="32">
+      <c r="I85" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P85" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="P85" s="25" t="s">
         <v>12</v>
       </c>
       <c r="Q85" s="12">
         <f>N75</f>
-        <v>-247.5</v>
-      </c>
-      <c r="R85" s="38">
+        <v>-267.5</v>
+      </c>
+      <c r="R85" s="31">
         <v>-200</v>
       </c>
       <c r="S85" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T85" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>608.10810810810813</v>
       </c>
       <c r="U85" s="12">
         <f t="shared" si="3"/>
-        <v>-447.5</v>
-      </c>
-      <c r="V85" s="32" t="s">
+        <v>140.60810810810813</v>
+      </c>
+      <c r="V85" s="25" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="86" spans="4:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="D86" s="32" t="s">
+      <c r="D86" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>3</v>
+      </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="32">
+      <c r="I86" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P86" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="P86" s="25" t="s">
         <v>10</v>
       </c>
       <c r="Q86" s="12">
         <f>Q75</f>
-        <v>120</v>
-      </c>
-      <c r="R86" s="38">
+        <v>105</v>
+      </c>
+      <c r="R86" s="31">
         <v>-200</v>
       </c>
       <c r="S86" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T86" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>72.972972972972968</v>
       </c>
       <c r="U86" s="12">
         <f t="shared" si="3"/>
-        <v>-80</v>
-      </c>
-      <c r="V86" s="32" t="s">
+        <v>-22.027027027027032</v>
+      </c>
+      <c r="V86" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="87" spans="4:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="D87" s="32" t="s">
+      <c r="D87" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="E87" s="1">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1">
+        <v>5</v>
+      </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="32">
+      <c r="I87" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P87" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="P87" s="25" t="s">
         <v>13</v>
       </c>
       <c r="Q87" s="12">
         <f>T75</f>
         <v>-402.5</v>
       </c>
-      <c r="R87" s="38">
+      <c r="R87" s="31">
         <v>-200</v>
       </c>
       <c r="S87" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T87" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>194.59459459459458</v>
       </c>
       <c r="U87" s="12">
         <f t="shared" si="3"/>
-        <v>-602.5</v>
-      </c>
-      <c r="V87" s="32" t="s">
+        <v>-407.90540540540542</v>
+      </c>
+      <c r="V87" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="88" spans="4:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="D88" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="D88" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="32">
+      <c r="I88" s="25">
         <f t="shared" ref="I88:I90" si="4">SUM(E88:H88)</f>
         <v>0</v>
       </c>
-      <c r="P88" s="32" t="s">
-        <v>44</v>
+      <c r="P88" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="Q88" s="12">
         <f>W75</f>
-        <v>280</v>
-      </c>
-      <c r="R88" s="38">
+        <v>230</v>
+      </c>
+      <c r="R88" s="31">
         <v>-200</v>
       </c>
       <c r="S88" s="12">
@@ -6767,92 +6554,100 @@
       </c>
       <c r="U88" s="12">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="V88" s="32" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="V88" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="4:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="D89" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="D89" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" s="1">
+        <v>11</v>
+      </c>
+      <c r="F89" s="1">
+        <v>3</v>
+      </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="32">
+      <c r="I89" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P89" s="32" t="s">
-        <v>114</v>
+        <v>14</v>
+      </c>
+      <c r="P89" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="Q89" s="12">
         <f>Z75</f>
-        <v>250</v>
-      </c>
-      <c r="R89" s="38">
+        <v>225</v>
+      </c>
+      <c r="R89" s="31">
         <v>-200</v>
       </c>
       <c r="S89" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T89" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>340.54054054054052</v>
       </c>
       <c r="U89" s="12">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="V89" s="32" t="s">
-        <v>114</v>
+        <v>365.54054054054052</v>
+      </c>
+      <c r="V89" s="25" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="4:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="D90" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="D90" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E90" s="1">
+        <v>11</v>
+      </c>
+      <c r="F90" s="1">
+        <v>3</v>
+      </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="32">
+      <c r="I90" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P90" s="32" t="s">
-        <v>79</v>
+        <v>14</v>
+      </c>
+      <c r="P90" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="Q90" s="12">
         <f>AC75</f>
-        <v>-80</v>
-      </c>
-      <c r="R90" s="38">
+        <v>-45</v>
+      </c>
+      <c r="R90" s="31">
         <v>-200</v>
       </c>
       <c r="S90" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T90" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>340.54054054054052</v>
       </c>
       <c r="U90" s="12">
         <f t="shared" si="3"/>
-        <v>-280</v>
-      </c>
-      <c r="V90" s="32" t="s">
-        <v>79</v>
+        <v>95.540540540540519</v>
+      </c>
+      <c r="V90" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="4:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="U91" s="39">
+      <c r="U91" s="32">
         <f>SUM(U82:U90)</f>
-        <v>-1800</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6875,134 +6670,134 @@
     <mergeCell ref="Y11:Z11"/>
   </mergeCells>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="50" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="140" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="141" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="141" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="47" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="cellIs" dxfId="44" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75">
-    <cfRule type="cellIs" dxfId="41" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q75">
-    <cfRule type="cellIs" dxfId="38" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T75">
-    <cfRule type="cellIs" dxfId="35" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="32" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z75">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC75">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U87:U90">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q82:Q90">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U82:U86">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7012,362 +6807,384 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E9A583-41BF-8143-84DF-F8B494A614D1}">
-  <dimension ref="E15:J56"/>
+  <dimension ref="D18:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D31" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView showGridLines="0" topLeftCell="C27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="9:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="I15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="9:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="I16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="I17" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="I18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="5:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="I19" s="25"/>
-      <c r="J19" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="5:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="I20" s="25"/>
-      <c r="J20" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="5:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="I21" s="25"/>
-      <c r="J21" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="5:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I22" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="5:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="27"/>
-      <c r="J23" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="5:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="I24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
+    <row r="18" spans="5:10" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="5:10" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="5:10" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="5:10" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="5:10" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="5:10" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E28" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="18" t="s">
+      <c r="F28" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E29" s="7" t="s">
+      <c r="G28" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="18" t="s">
+      <c r="I28" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="J28" s="34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E29" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E30" s="7" t="s">
+      <c r="G29" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E30" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E31" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E32" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E34" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E35" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E36" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E31" s="7" t="s">
+    <row r="40" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E40" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="J40" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E41" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="18" t="s">
+      <c r="G41" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E42" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E43" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="E32" s="7" t="s">
+      <c r="F43" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E44" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="18" t="s">
+      <c r="F44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E45" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E35" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E36" s="7" t="s">
+    <row r="46" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E46" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E38" s="7" t="s">
+      <c r="G46" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E47" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="18" t="s">
+    </row>
+    <row r="48" spans="5:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E48" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E43" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E45" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E51" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E53" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E54" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>5</v>
-      </c>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D49" s="5"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D50" s="5"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D51" s="5"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D52" s="5"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D55" s="5"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D56" s="5"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D57" s="5"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D58" s="5"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D59" s="5"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D60" s="5"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="I22:I23"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FF8E5E-0B3B-D640-A49E-2A5D0D061130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A1D1F4-CE1F-B74D-9D17-92C00E0D914F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1280" windowWidth="32400" windowHeight="18500" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="3440" yWindow="1280" windowWidth="32400" windowHeight="18500" activeTab="1" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="105">
   <si>
     <t>Points</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>Rank 2</t>
+  </si>
+  <si>
+    <t>Qualifier 2 DC vs KKR</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BE9CB7-B9A7-B347-86F0-C3EB9B5BFBBD}">
   <dimension ref="A1:AD91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U91" sqref="U91"/>
     </sheetView>
@@ -6809,8 +6812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E9A583-41BF-8143-84DF-F8B494A614D1}">
   <dimension ref="D18:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42:G42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7072,7 +7075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D49" s="5"/>
       <c r="E49" s="15"/>
       <c r="F49" s="33"/>
@@ -7080,87 +7083,153 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D50" s="5"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
+      <c r="E50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="J50" s="34"/>
+    </row>
+    <row r="51" spans="4:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D51" s="5"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
+      <c r="E51" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="J51" s="34"/>
+    </row>
+    <row r="52" spans="4:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D52" s="5"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
+      <c r="E52" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+      <c r="E53" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+      <c r="E54" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D55" s="5"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+      <c r="E55" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
     </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D56" s="5"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
+      <c r="E56" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D57" s="5"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
+      <c r="E57" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>22</v>
+      </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D58" s="5"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
+      <c r="E58" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D59" s="5"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
+      <c r="E59" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60" s="5"/>
       <c r="E60" s="15"/>
       <c r="F60" s="33"/>
@@ -7168,7 +7237,7 @@
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -7176,7 +7245,7 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A1D1F4-CE1F-B74D-9D17-92C00E0D914F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF58FAC2-81BC-664E-8BA3-51E19F92CF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="1280" windowWidth="32400" windowHeight="18500" activeTab="1" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="3220" yWindow="1360" windowWidth="32400" windowHeight="18500" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="105">
   <si>
     <t>Points</t>
   </si>
@@ -1318,9 +1318,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BE9CB7-B9A7-B347-86F0-C3EB9B5BFBBD}">
   <dimension ref="A1:AD91"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U91" sqref="U91"/>
+      <selection pane="bottomLeft" activeCell="AD75" sqref="AD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5930,52 +5930,72 @@
       <c r="B71" s="1">
         <v>1</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="3" t="str">
+      <c r="C71" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="G71" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="E71" s="1">
+        <v>40</v>
+      </c>
+      <c r="G71" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H71" s="1"/>
-      <c r="J71" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="H71" s="1">
+        <v>20</v>
+      </c>
+      <c r="J71" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K71" s="1"/>
-      <c r="M71" s="3" t="str">
+        <v>20</v>
+      </c>
+      <c r="K71" s="1">
+        <v>80</v>
+      </c>
+      <c r="M71" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N71" s="1"/>
-      <c r="P71" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q71" s="1"/>
-      <c r="S71" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>30</v>
+      </c>
+      <c r="S71" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T71" s="1"/>
-      <c r="V71" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="T71" s="1">
+        <v>100</v>
+      </c>
+      <c r="V71" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W71" s="1"/>
-      <c r="Y71" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="W71" s="1">
+        <v>70</v>
+      </c>
+      <c r="Y71" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z71" s="1"/>
-      <c r="AB71" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>60</v>
+      </c>
+      <c r="AB71" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC71, ($AC71,$Z71,$W71,$T71,$Q71,$N71,$K71,$H71,$E71), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC71" s="1"/>
+        <v>-5</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
@@ -6133,49 +6153,49 @@
       </c>
       <c r="E75" s="12">
         <f>SUM(D13:D72)</f>
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="H75" s="12">
         <f>SUM(G13:G72)</f>
-        <v>-77.5</v>
+        <v>-97.5</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K75" s="12">
         <f>SUM(J13:J72)</f>
-        <v>262.5</v>
+        <v>282.5</v>
       </c>
       <c r="M75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N75" s="12">
         <f>SUM(M13:M72)</f>
-        <v>-267.5</v>
+        <v>-292.5</v>
       </c>
       <c r="P75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q75" s="12">
         <f>SUM(P13:P72)</f>
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="S75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T75" s="12">
         <f>SUM(S13:S72)</f>
-        <v>-402.5</v>
+        <v>-352.5</v>
       </c>
       <c r="V75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W75" s="12">
         <f>SUM(V13:V72)</f>
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Y75" s="7" t="s">
         <v>7</v>
@@ -6189,7 +6209,7 @@
       </c>
       <c r="AC75" s="12">
         <f>SUM(AB13:AB72)</f>
-        <v>-45</v>
+        <v>-50</v>
       </c>
       <c r="AD75" s="1">
         <f>SUM(E75,H75,K75,N75,Q75,T75,W75,Z75,AC75)</f>
@@ -6279,7 +6299,9 @@
       <c r="F82" s="1">
         <v>0</v>
       </c>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
       <c r="H82" s="1"/>
       <c r="I82" s="25">
         <f>SUM(E82:H82)</f>
@@ -6290,7 +6312,7 @@
       </c>
       <c r="Q82" s="12">
         <f>E75</f>
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="R82" s="31">
         <v>-200</v>
@@ -6305,7 +6327,7 @@
       </c>
       <c r="U82" s="12">
         <f>SUM(Q82,R82,T82)</f>
-        <v>-230</v>
+        <v>-240</v>
       </c>
       <c r="V82" s="25" t="s">
         <v>8</v>
@@ -6321,33 +6343,35 @@
       <c r="F83" s="1">
         <v>0</v>
       </c>
-      <c r="G83" s="1"/>
+      <c r="G83" s="1">
+        <v>5</v>
+      </c>
       <c r="H83" s="1"/>
       <c r="I83" s="25">
         <f t="shared" ref="I83:I87" si="0">SUM(E83:H83)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P83" s="25" t="s">
         <v>5</v>
       </c>
       <c r="Q83" s="12">
         <f>H75</f>
-        <v>-77.5</v>
+        <v>-97.5</v>
       </c>
       <c r="R83" s="31">
         <v>-200</v>
       </c>
       <c r="S83" s="12">
         <f t="shared" ref="S83:S90" si="1">I83</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T83" s="12">
         <f t="shared" ref="T83:T90" si="2">IFERROR((-SUM($R$82:$R$90)/SUM($S$82:$S$90))*$S83, 0)</f>
-        <v>0</v>
+        <v>102.27272727272727</v>
       </c>
       <c r="U83" s="12">
         <f t="shared" ref="U83:U90" si="3">SUM(Q83,R83,T83)</f>
-        <v>-277.5</v>
+        <v>-195.22727272727275</v>
       </c>
       <c r="V83" s="25" t="s">
         <v>5</v>
@@ -6363,33 +6387,35 @@
       <c r="F84" s="1">
         <v>7</v>
       </c>
-      <c r="G84" s="1"/>
+      <c r="G84" s="1">
+        <v>3</v>
+      </c>
       <c r="H84" s="1"/>
       <c r="I84" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P84" s="25" t="s">
         <v>9</v>
       </c>
       <c r="Q84" s="12">
         <f>K75</f>
-        <v>262.5</v>
+        <v>282.5</v>
       </c>
       <c r="R84" s="31">
         <v>-200</v>
       </c>
       <c r="S84" s="12">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T84" s="12">
         <f t="shared" si="2"/>
-        <v>243.24324324324323</v>
+        <v>265.90909090909088</v>
       </c>
       <c r="U84" s="12">
         <f t="shared" si="3"/>
-        <v>305.74324324324323</v>
+        <v>348.40909090909088</v>
       </c>
       <c r="V84" s="25" t="s">
         <v>9</v>
@@ -6405,7 +6431,9 @@
       <c r="F85" s="1">
         <v>25</v>
       </c>
-      <c r="G85" s="1"/>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
       <c r="H85" s="1"/>
       <c r="I85" s="25">
         <f t="shared" si="0"/>
@@ -6416,7 +6444,7 @@
       </c>
       <c r="Q85" s="12">
         <f>N75</f>
-        <v>-267.5</v>
+        <v>-292.5</v>
       </c>
       <c r="R85" s="31">
         <v>-200</v>
@@ -6427,11 +6455,11 @@
       </c>
       <c r="T85" s="12">
         <f t="shared" si="2"/>
-        <v>608.10810810810813</v>
+        <v>511.36363636363632</v>
       </c>
       <c r="U85" s="12">
         <f t="shared" si="3"/>
-        <v>140.60810810810813</v>
+        <v>18.863636363636317</v>
       </c>
       <c r="V85" s="25" t="s">
         <v>12</v>
@@ -6447,33 +6475,35 @@
       <c r="F86" s="1">
         <v>3</v>
       </c>
-      <c r="G86" s="1"/>
+      <c r="G86" s="1">
+        <v>3</v>
+      </c>
       <c r="H86" s="1"/>
       <c r="I86" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P86" s="25" t="s">
         <v>10</v>
       </c>
       <c r="Q86" s="12">
         <f>Q75</f>
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="R86" s="31">
         <v>-200</v>
       </c>
       <c r="S86" s="12">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T86" s="12">
         <f t="shared" si="2"/>
-        <v>72.972972972972968</v>
+        <v>122.72727272727272</v>
       </c>
       <c r="U86" s="12">
         <f t="shared" si="3"/>
-        <v>-22.027027027027032</v>
+        <v>12.72727272727272</v>
       </c>
       <c r="V86" s="25" t="s">
         <v>10</v>
@@ -6489,7 +6519,9 @@
       <c r="F87" s="1">
         <v>5</v>
       </c>
-      <c r="G87" s="1"/>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
       <c r="H87" s="1"/>
       <c r="I87" s="25">
         <f t="shared" si="0"/>
@@ -6500,7 +6532,7 @@
       </c>
       <c r="Q87" s="12">
         <f>T75</f>
-        <v>-402.5</v>
+        <v>-352.5</v>
       </c>
       <c r="R87" s="31">
         <v>-200</v>
@@ -6511,11 +6543,11 @@
       </c>
       <c r="T87" s="12">
         <f t="shared" si="2"/>
-        <v>194.59459459459458</v>
+        <v>163.63636363636363</v>
       </c>
       <c r="U87" s="12">
         <f t="shared" si="3"/>
-        <v>-407.90540540540542</v>
+        <v>-388.86363636363637</v>
       </c>
       <c r="V87" s="25" t="s">
         <v>13</v>
@@ -6531,7 +6563,9 @@
       <c r="F88" s="1">
         <v>0</v>
       </c>
-      <c r="G88" s="1"/>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="25">
         <f t="shared" ref="I88:I90" si="4">SUM(E88:H88)</f>
@@ -6542,7 +6576,7 @@
       </c>
       <c r="Q88" s="12">
         <f>W75</f>
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="R88" s="31">
         <v>-200</v>
@@ -6557,7 +6591,7 @@
       </c>
       <c r="U88" s="12">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V88" s="25" t="s">
         <v>22</v>
@@ -6573,7 +6607,9 @@
       <c r="F89" s="1">
         <v>3</v>
       </c>
-      <c r="G89" s="1"/>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
       <c r="H89" s="1"/>
       <c r="I89" s="25">
         <f t="shared" si="4"/>
@@ -6595,11 +6631,11 @@
       </c>
       <c r="T89" s="12">
         <f t="shared" si="2"/>
-        <v>340.54054054054052</v>
+        <v>286.36363636363637</v>
       </c>
       <c r="U89" s="12">
         <f t="shared" si="3"/>
-        <v>365.54054054054052</v>
+        <v>311.36363636363637</v>
       </c>
       <c r="V89" s="25" t="s">
         <v>92</v>
@@ -6615,33 +6651,35 @@
       <c r="F90" s="1">
         <v>3</v>
       </c>
-      <c r="G90" s="1"/>
+      <c r="G90" s="1">
+        <v>3</v>
+      </c>
       <c r="H90" s="1"/>
       <c r="I90" s="25">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P90" s="25" t="s">
         <v>57</v>
       </c>
       <c r="Q90" s="12">
         <f>AC75</f>
-        <v>-45</v>
+        <v>-50</v>
       </c>
       <c r="R90" s="31">
         <v>-200</v>
       </c>
       <c r="S90" s="12">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T90" s="12">
         <f t="shared" si="2"/>
-        <v>340.54054054054052</v>
+        <v>347.72727272727269</v>
       </c>
       <c r="U90" s="12">
         <f t="shared" si="3"/>
-        <v>95.540540540540519</v>
+        <v>97.727272727272691</v>
       </c>
       <c r="V90" s="25" t="s">
         <v>57</v>
@@ -6649,7 +6687,7 @@
     </row>
     <row r="91" spans="4:22" ht="21" x14ac:dyDescent="0.25">
       <c r="U91" s="32">
-        <f>SUM(U82:U90)</f>
+        <f>0</f>
         <v>0</v>
       </c>
     </row>
@@ -6812,8 +6850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E9A583-41BF-8143-84DF-F8B494A614D1}">
   <dimension ref="D18:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView showGridLines="0" topLeftCell="C37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7098,7 +7136,9 @@
       <c r="I50" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="J50" s="34"/>
+      <c r="J50" s="34" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="51" spans="4:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D51" s="5"/>
@@ -7115,7 +7155,9 @@
       <c r="I51" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="J51" s="34"/>
+      <c r="J51" s="34" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="52" spans="4:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D52" s="5"/>

--- a/2021/EBE Boys 2021.xlsx
+++ b/2021/EBE Boys 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jkpaul/Personal/Things/IPL/2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF58FAC2-81BC-664E-8BA3-51E19F92CF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1475DA-DDEA-6646-949C-E18BBF8B5523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="1360" windowWidth="32400" windowHeight="18500" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
+    <workbookView xWindow="2900" yWindow="1100" windowWidth="32400" windowHeight="18500" xr2:uid="{7813E1F3-AD71-F349-B41B-B75E130580BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="108">
   <si>
     <t>Points</t>
   </si>
@@ -347,6 +347,15 @@
   </si>
   <si>
     <t>Qualifier 2 DC vs KKR</t>
+  </si>
+  <si>
+    <t>Finals vs KKR</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Congrats</t>
   </si>
 </sst>
 </file>
@@ -568,7 +577,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -616,6 +625,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,7 +652,187 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1320,7 +1512,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD75" sqref="AD75"/>
+      <selection pane="bottomLeft" activeCell="U91" sqref="U91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1332,7 +1524,7 @@
     <col min="12" max="12" width="1.33203125" customWidth="1"/>
     <col min="15" max="15" width="2" customWidth="1"/>
     <col min="18" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2.1640625" customWidth="1"/>
     <col min="27" max="27" width="2" customWidth="1"/>
   </cols>
@@ -6004,52 +6196,72 @@
       <c r="B72" s="1">
         <v>1</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="3" t="str">
+      <c r="C72" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(E72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(E72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="G72" s="3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>60</v>
+      </c>
+      <c r="G72" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(H72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(H72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="H72" s="1"/>
-      <c r="J72" s="3" t="str">
+        <v>-10</v>
+      </c>
+      <c r="H72" s="1">
+        <v>40</v>
+      </c>
+      <c r="J72" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(K72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(K72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="K72" s="1"/>
-      <c r="M72" s="3" t="str">
+        <v>-20</v>
+      </c>
+      <c r="K72" s="1">
+        <v>20</v>
+      </c>
+      <c r="M72" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(N72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(N72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="N72" s="1"/>
-      <c r="P72" s="3" t="str">
+        <v>-15</v>
+      </c>
+      <c r="N72" s="1">
+        <v>30</v>
+      </c>
+      <c r="P72" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Q72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Q72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Q72" s="1"/>
-      <c r="S72" s="3" t="str">
+        <v>-5</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>50</v>
+      </c>
+      <c r="S72" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(T72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(T72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="T72" s="1"/>
-      <c r="V72" s="3" t="str">
+        <v>5</v>
+      </c>
+      <c r="T72" s="1">
+        <v>70</v>
+      </c>
+      <c r="V72" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(W72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(W72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="W72" s="1"/>
-      <c r="Y72" s="3" t="str">
+        <v>-25</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(Z72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(Z72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="Z72" s="1"/>
-      <c r="AB72" s="3" t="str">
+        <v>50</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB72" s="3">
         <f>IF(ISERROR(VLOOKUP(RANK(AC72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE)),"",VLOOKUP(RANK(AC72, ($AC72,$Z72,$W72,$T72,$Q72,$N72,$K72,$H72,$E72), 0),  $A$2:$B$10, 2, FALSE))</f>
-        <v/>
-      </c>
-      <c r="AC72" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>80</v>
+      </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
@@ -6160,56 +6372,56 @@
       </c>
       <c r="H75" s="12">
         <f>SUM(G13:G72)</f>
-        <v>-97.5</v>
+        <v>-107.5</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K75" s="12">
         <f>SUM(J13:J72)</f>
-        <v>282.5</v>
+        <v>262.5</v>
       </c>
       <c r="M75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="N75" s="12">
         <f>SUM(M13:M72)</f>
-        <v>-292.5</v>
+        <v>-307.5</v>
       </c>
       <c r="P75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Q75" s="12">
         <f>SUM(P13:P72)</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="S75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="T75" s="12">
         <f>SUM(S13:S72)</f>
-        <v>-352.5</v>
+        <v>-347.5</v>
       </c>
       <c r="V75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="W75" s="12">
         <f>SUM(V13:V72)</f>
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="Y75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="Z75" s="12">
         <f>SUM(Y13:Y72)</f>
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="AB75" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AC75" s="12">
         <f>SUM(AB13:AB72)</f>
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="AD75" s="1">
         <f>SUM(E75,H75,K75,N75,Q75,T75,W75,Z75,AC75)</f>
@@ -6238,17 +6450,17 @@
       <c r="E78" s="5"/>
     </row>
     <row r="80" spans="1:30" ht="19" x14ac:dyDescent="0.25">
-      <c r="E80" s="27" t="s">
+      <c r="E80" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
       <c r="I80" s="24"/>
-      <c r="P80" s="28" t="s">
+      <c r="P80" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="Q80" s="29" t="s">
+      <c r="Q80" s="30" t="s">
         <v>94</v>
       </c>
       <c r="R80" s="21" t="s">
@@ -6256,7 +6468,7 @@
       </c>
       <c r="S80" s="22"/>
       <c r="T80" s="23"/>
-      <c r="U80" s="29" t="s">
+      <c r="U80" s="30" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6276,8 +6488,8 @@
       <c r="I81" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P81" s="30"/>
-      <c r="Q81" s="29"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="30"/>
       <c r="R81" s="25" t="s">
         <v>97</v>
       </c>
@@ -6287,7 +6499,7 @@
       <c r="T81" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="U81" s="29"/>
+      <c r="U81" s="30"/>
     </row>
     <row r="82" spans="4:22" ht="21" x14ac:dyDescent="0.25">
       <c r="D82" s="25" t="s">
@@ -6302,7 +6514,9 @@
       <c r="G82" s="1">
         <v>0</v>
       </c>
-      <c r="H82" s="1"/>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
       <c r="I82" s="25">
         <f>SUM(E82:H82)</f>
         <v>0</v>
@@ -6314,7 +6528,7 @@
         <f>E75</f>
         <v>-40</v>
       </c>
-      <c r="R82" s="31">
+      <c r="R82" s="32">
         <v>-200</v>
       </c>
       <c r="S82" s="12">
@@ -6346,7 +6560,9 @@
       <c r="G83" s="1">
         <v>5</v>
       </c>
-      <c r="H83" s="1"/>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
       <c r="I83" s="25">
         <f t="shared" ref="I83:I87" si="0">SUM(E83:H83)</f>
         <v>5</v>
@@ -6356,9 +6572,9 @@
       </c>
       <c r="Q83" s="12">
         <f>H75</f>
-        <v>-97.5</v>
-      </c>
-      <c r="R83" s="31">
+        <v>-107.5</v>
+      </c>
+      <c r="R83" s="32">
         <v>-200</v>
       </c>
       <c r="S83" s="12">
@@ -6367,11 +6583,11 @@
       </c>
       <c r="T83" s="12">
         <f t="shared" ref="T83:T90" si="2">IFERROR((-SUM($R$82:$R$90)/SUM($S$82:$S$90))*$S83, 0)</f>
-        <v>102.27272727272727</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="U83" s="12">
         <f t="shared" ref="U83:U90" si="3">SUM(Q83,R83,T83)</f>
-        <v>-195.22727272727275</v>
+        <v>-221.78571428571428</v>
       </c>
       <c r="V83" s="25" t="s">
         <v>5</v>
@@ -6390,32 +6606,34 @@
       <c r="G84" s="1">
         <v>3</v>
       </c>
-      <c r="H84" s="1"/>
+      <c r="H84" s="1">
+        <v>11</v>
+      </c>
       <c r="I84" s="25">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="P84" s="25" t="s">
         <v>9</v>
       </c>
       <c r="Q84" s="12">
         <f>K75</f>
-        <v>282.5</v>
-      </c>
-      <c r="R84" s="31">
+        <v>262.5</v>
+      </c>
+      <c r="R84" s="32">
         <v>-200</v>
       </c>
       <c r="S84" s="12">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="T84" s="12">
         <f t="shared" si="2"/>
-        <v>265.90909090909088</v>
+        <v>411.42857142857144</v>
       </c>
       <c r="U84" s="12">
         <f t="shared" si="3"/>
-        <v>348.40909090909088</v>
+        <v>473.92857142857144</v>
       </c>
       <c r="V84" s="25" t="s">
         <v>9</v>
@@ -6434,7 +6652,9 @@
       <c r="G85" s="1">
         <v>0</v>
       </c>
-      <c r="H85" s="1"/>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
       <c r="I85" s="25">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6444,9 +6664,9 @@
       </c>
       <c r="Q85" s="12">
         <f>N75</f>
-        <v>-292.5</v>
-      </c>
-      <c r="R85" s="31">
+        <v>-307.5</v>
+      </c>
+      <c r="R85" s="32">
         <v>-200</v>
       </c>
       <c r="S85" s="12">
@@ -6455,11 +6675,11 @@
       </c>
       <c r="T85" s="12">
         <f t="shared" si="2"/>
-        <v>511.36363636363632</v>
+        <v>428.57142857142856</v>
       </c>
       <c r="U85" s="12">
         <f t="shared" si="3"/>
-        <v>18.863636363636317</v>
+        <v>-78.928571428571445</v>
       </c>
       <c r="V85" s="25" t="s">
         <v>12</v>
@@ -6478,7 +6698,9 @@
       <c r="G86" s="1">
         <v>3</v>
       </c>
-      <c r="H86" s="1"/>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
       <c r="I86" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6488,9 +6710,9 @@
       </c>
       <c r="Q86" s="12">
         <f>Q75</f>
-        <v>90</v>
-      </c>
-      <c r="R86" s="31">
+        <v>85</v>
+      </c>
+      <c r="R86" s="32">
         <v>-200</v>
       </c>
       <c r="S86" s="12">
@@ -6499,11 +6721,11 @@
       </c>
       <c r="T86" s="12">
         <f t="shared" si="2"/>
-        <v>122.72727272727272</v>
+        <v>102.85714285714286</v>
       </c>
       <c r="U86" s="12">
         <f t="shared" si="3"/>
-        <v>12.72727272727272</v>
+        <v>-12.142857142857139</v>
       </c>
       <c r="V86" s="25" t="s">
         <v>10</v>
@@ -6522,7 +6744,9 @@
       <c r="G87" s="1">
         <v>0</v>
       </c>
-      <c r="H87" s="1"/>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
       <c r="I87" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6532,9 +6756,9 @@
       </c>
       <c r="Q87" s="12">
         <f>T75</f>
-        <v>-352.5</v>
-      </c>
-      <c r="R87" s="31">
+        <v>-347.5</v>
+      </c>
+      <c r="R87" s="32">
         <v>-200</v>
       </c>
       <c r="S87" s="12">
@@ -6543,11 +6767,11 @@
       </c>
       <c r="T87" s="12">
         <f t="shared" si="2"/>
-        <v>163.63636363636363</v>
+        <v>137.14285714285714</v>
       </c>
       <c r="U87" s="12">
         <f t="shared" si="3"/>
-        <v>-388.86363636363637</v>
+        <v>-410.35714285714289</v>
       </c>
       <c r="V87" s="25" t="s">
         <v>13</v>
@@ -6566,7 +6790,9 @@
       <c r="G88" s="1">
         <v>0</v>
       </c>
-      <c r="H88" s="1"/>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
       <c r="I88" s="25">
         <f t="shared" ref="I88:I90" si="4">SUM(E88:H88)</f>
         <v>0</v>
@@ -6576,9 +6802,9 @@
       </c>
       <c r="Q88" s="12">
         <f>W75</f>
-        <v>235</v>
-      </c>
-      <c r="R88" s="31">
+        <v>210</v>
+      </c>
+      <c r="R88" s="32">
         <v>-200</v>
       </c>
       <c r="S88" s="12">
@@ -6591,7 +6817,7 @@
       </c>
       <c r="U88" s="12">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="V88" s="25" t="s">
         <v>22</v>
@@ -6610,32 +6836,34 @@
       <c r="G89" s="1">
         <v>0</v>
       </c>
-      <c r="H89" s="1"/>
+      <c r="H89" s="1">
+        <v>3</v>
+      </c>
       <c r="I89" s="25">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P89" s="25" t="s">
         <v>92</v>
       </c>
       <c r="Q89" s="12">
         <f>Z75</f>
-        <v>225</v>
-      </c>
-      <c r="R89" s="31">
+        <v>275</v>
+      </c>
+      <c r="R89" s="32">
         <v>-200</v>
       </c>
       <c r="S89" s="12">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T89" s="12">
         <f t="shared" si="2"/>
-        <v>286.36363636363637</v>
+        <v>291.42857142857144</v>
       </c>
       <c r="U89" s="12">
         <f t="shared" si="3"/>
-        <v>311.36363636363637</v>
+        <v>366.42857142857144</v>
       </c>
       <c r="V89" s="25" t="s">
         <v>92</v>
@@ -6654,40 +6882,42 @@
       <c r="G90" s="1">
         <v>3</v>
       </c>
-      <c r="H90" s="1"/>
+      <c r="H90" s="1">
+        <v>3</v>
+      </c>
       <c r="I90" s="25">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P90" s="25" t="s">
         <v>57</v>
       </c>
       <c r="Q90" s="12">
         <f>AC75</f>
-        <v>-50</v>
-      </c>
-      <c r="R90" s="31">
+        <v>-30</v>
+      </c>
+      <c r="R90" s="32">
         <v>-200</v>
       </c>
       <c r="S90" s="12">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T90" s="12">
         <f t="shared" si="2"/>
-        <v>347.72727272727269</v>
+        <v>342.85714285714283</v>
       </c>
       <c r="U90" s="12">
         <f t="shared" si="3"/>
-        <v>97.727272727272691</v>
+        <v>112.85714285714283</v>
       </c>
       <c r="V90" s="25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="91" spans="4:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="U91" s="32">
-        <f>0</f>
+      <c r="U91" s="33">
+        <f>SUM(U82:U90)</f>
         <v>0</v>
       </c>
     </row>
@@ -6711,134 +6941,134 @@
     <mergeCell ref="Y11:Z11"/>
   </mergeCells>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="35" priority="139" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="140" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="141" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="141" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="32" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K75">
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="31" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q75">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="25" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T75">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z75">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC75">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U87:U90">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q82:Q90">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U82:U86">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6848,10 +7078,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E9A583-41BF-8143-84DF-F8B494A614D1}">
-  <dimension ref="D18:J62"/>
+  <dimension ref="D18:L81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:G56"/>
+    <sheetView showGridLines="0" topLeftCell="C64" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6860,7 +7090,7 @@
     <col min="6" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" spans="5:10" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6879,10 +7109,10 @@
       <c r="G27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="35" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6896,10 +7126,10 @@
       <c r="G28" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="J28" s="34" t="s">
+      <c r="J28" s="35" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7001,10 +7231,10 @@
       <c r="G39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="J39" s="34" t="s">
+      <c r="J39" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7018,10 +7248,10 @@
       <c r="G40" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="J40" s="34" t="s">
+      <c r="J40" s="35" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7116,8 +7346,8 @@
     <row r="49" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D49" s="5"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
@@ -7133,10 +7363,10 @@
         <v>21</v>
       </c>
       <c r="H50" s="5"/>
-      <c r="I50" s="34" t="s">
+      <c r="I50" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="J50" s="34" t="s">
+      <c r="J50" s="35" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7152,10 +7382,10 @@
         <v>10</v>
       </c>
       <c r="H51" s="5"/>
-      <c r="I51" s="34" t="s">
+      <c r="I51" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="J51" s="34" t="s">
+      <c r="J51" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7274,28 +7504,301 @@
     <row r="60" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D60" s="5"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
+      <c r="E61" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="I61" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="J61" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10" ht="19" x14ac:dyDescent="0.25">
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
+      <c r="E62" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="I62" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="J62" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E63" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="4:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="E64" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="5:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="E65" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="5:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="E66" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="5:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="E67" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="5:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="E68" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="5:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="E69" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="5:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="E70" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="72" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="I72" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K72" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="5:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="I73" s="1">
+        <v>1</v>
+      </c>
+      <c r="J73" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73" s="12">
+        <v>473.92857142857144</v>
+      </c>
+      <c r="L73" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="5:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="I74" s="1">
+        <v>2</v>
+      </c>
+      <c r="J74" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K74" s="12">
+        <v>366.42857142857144</v>
+      </c>
+      <c r="L74" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="5:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="I75" s="1">
+        <v>3</v>
+      </c>
+      <c r="J75" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="12">
+        <v>112.85714285714283</v>
+      </c>
+      <c r="L75" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="5:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="I76" s="1">
+        <v>4</v>
+      </c>
+      <c r="J76" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" s="12">
+        <v>10</v>
+      </c>
+      <c r="L76" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="5:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="I77" s="1">
+        <v>5</v>
+      </c>
+      <c r="J77" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K77" s="12">
+        <v>-12.142857142857139</v>
+      </c>
+    </row>
+    <row r="78" spans="5:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="I78" s="1">
+        <v>6</v>
+      </c>
+      <c r="J78" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K78" s="12">
+        <v>-78.928571428571445</v>
+      </c>
+    </row>
+    <row r="79" spans="5:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="I79" s="1">
+        <v>7</v>
+      </c>
+      <c r="J79" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K79" s="12">
+        <v>-221.78571428571428</v>
+      </c>
+    </row>
+    <row r="80" spans="5:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="I80" s="1">
+        <v>8</v>
+      </c>
+      <c r="J80" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="12">
+        <v>-240</v>
+      </c>
+    </row>
+    <row r="81" spans="9:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="I81" s="1">
+        <v>9</v>
+      </c>
+      <c r="J81" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K81" s="12">
+        <v>-410.35714285714289</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I73:K81">
+    <sortCondition descending="1" ref="K73:K81"/>
+  </sortState>
+  <conditionalFormatting sqref="K78:K81">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:K77">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>